--- a/app/src/main/res/raw/dataoutadac.xlsx
+++ b/app/src/main/res/raw/dataoutadac.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Android\Steno\app\src\main\res\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{031B4AA3-DDE0-4D52-BB10-ABDC5FB42809}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{493C4FD9-F6B8-4383-8FC6-13F6CDF77464}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="964" uniqueCount="946">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1866" uniqueCount="1259">
   <si>
     <t>a1d1</t>
   </si>
@@ -2858,19 +2858,964 @@
   </si>
   <si>
     <t>a1d3a4e5</t>
+  </si>
+  <si>
+    <t>hy</t>
+  </si>
+  <si>
+    <t>thy</t>
+  </si>
+  <si>
+    <t>hư</t>
+  </si>
+  <si>
+    <t>huy</t>
+  </si>
+  <si>
+    <t>roa</t>
+  </si>
+  <si>
+    <t>thư</t>
+  </si>
+  <si>
+    <t>thuy</t>
+  </si>
+  <si>
+    <t>truy</t>
+  </si>
+  <si>
+    <t>so</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>tuy</t>
+  </si>
+  <si>
+    <t>ngo</t>
+  </si>
+  <si>
+    <t>nguy</t>
+  </si>
+  <si>
+    <t>moa</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>noa</t>
+  </si>
+  <si>
+    <t>nô</t>
+  </si>
+  <si>
+    <t>lo</t>
+  </si>
+  <si>
+    <t>luy</t>
+  </si>
+  <si>
+    <t>chuy</t>
+  </si>
+  <si>
+    <t>như</t>
+  </si>
+  <si>
+    <t>nhuy</t>
+  </si>
+  <si>
+    <t>kho</t>
+  </si>
+  <si>
+    <t>phư</t>
+  </si>
+  <si>
+    <t>phuy</t>
+  </si>
+  <si>
+    <t>a1f6</t>
+  </si>
+  <si>
+    <t>a1f7</t>
+  </si>
+  <si>
+    <t>a2f6</t>
+  </si>
+  <si>
+    <t>a2f8</t>
+  </si>
+  <si>
+    <t>a2f7</t>
+  </si>
+  <si>
+    <t>a3f6</t>
+  </si>
+  <si>
+    <t>a3f7</t>
+  </si>
+  <si>
+    <t>a4f6</t>
+  </si>
+  <si>
+    <t>a4f7</t>
+  </si>
+  <si>
+    <t>boo</t>
+  </si>
+  <si>
+    <t>a5f6</t>
+  </si>
+  <si>
+    <t>a5f7</t>
+  </si>
+  <si>
+    <t>a6f6</t>
+  </si>
+  <si>
+    <t>a6f7</t>
+  </si>
+  <si>
+    <t>a7f6</t>
+  </si>
+  <si>
+    <t>a7f7</t>
+  </si>
+  <si>
+    <t>suê</t>
+  </si>
+  <si>
+    <t>suâ</t>
+  </si>
+  <si>
+    <t>a8f6</t>
+  </si>
+  <si>
+    <t>a8f7</t>
+  </si>
+  <si>
+    <t>too</t>
+  </si>
+  <si>
+    <t>ngơ</t>
+  </si>
+  <si>
+    <t>chy</t>
+  </si>
+  <si>
+    <t>phy</t>
+  </si>
+  <si>
+    <t>ngoă</t>
+  </si>
+  <si>
+    <t>nguâ</t>
+  </si>
+  <si>
+    <t>b1f6</t>
+  </si>
+  <si>
+    <t>b1f7</t>
+  </si>
+  <si>
+    <t>moo</t>
+  </si>
+  <si>
+    <t>b2f6</t>
+  </si>
+  <si>
+    <t>b2f7</t>
+  </si>
+  <si>
+    <t>b3f6</t>
+  </si>
+  <si>
+    <t>b3f7</t>
+  </si>
+  <si>
+    <t>b4f6</t>
+  </si>
+  <si>
+    <t>b4f7</t>
+  </si>
+  <si>
+    <t>b5f6</t>
+  </si>
+  <si>
+    <t>b5f7</t>
+  </si>
+  <si>
+    <t>nhiê</t>
+  </si>
+  <si>
+    <t>b6f6</t>
+  </si>
+  <si>
+    <t>b6f7</t>
+  </si>
+  <si>
+    <t>b7f6</t>
+  </si>
+  <si>
+    <t>b7f7</t>
+  </si>
+  <si>
+    <t>b7f8</t>
+  </si>
+  <si>
+    <t>khoă</t>
+  </si>
+  <si>
+    <t>khuơ</t>
+  </si>
+  <si>
+    <t>b8f6</t>
+  </si>
+  <si>
+    <t>b8f7</t>
+  </si>
+  <si>
+    <t>c1d1</t>
+  </si>
+  <si>
+    <t>c1d2</t>
+  </si>
+  <si>
+    <t>c1d3</t>
+  </si>
+  <si>
+    <t>c1d4</t>
+  </si>
+  <si>
+    <t>c1d5</t>
+  </si>
+  <si>
+    <t>c1d7</t>
+  </si>
+  <si>
+    <t>c1d8</t>
+  </si>
+  <si>
+    <t>c4d1</t>
+  </si>
+  <si>
+    <t>c4d2</t>
+  </si>
+  <si>
+    <t>c4d3</t>
+  </si>
+  <si>
+    <t>c4d4</t>
+  </si>
+  <si>
+    <t>c4d7</t>
+  </si>
+  <si>
+    <t>c4d8</t>
+  </si>
+  <si>
+    <t>c5d1</t>
+  </si>
+  <si>
+    <t>c5d2</t>
+  </si>
+  <si>
+    <t>c5d3</t>
+  </si>
+  <si>
+    <t>c5d4</t>
+  </si>
+  <si>
+    <t>c5d5</t>
+  </si>
+  <si>
+    <t>c5d6</t>
+  </si>
+  <si>
+    <t>c5d7</t>
+  </si>
+  <si>
+    <t>c5d8</t>
+  </si>
+  <si>
+    <t>c6d1</t>
+  </si>
+  <si>
+    <t>c6d2</t>
+  </si>
+  <si>
+    <t>c6d3</t>
+  </si>
+  <si>
+    <t>c6d4</t>
+  </si>
+  <si>
+    <t>c6d5</t>
+  </si>
+  <si>
+    <t>c6d7</t>
+  </si>
+  <si>
+    <t>c6d8</t>
+  </si>
+  <si>
+    <t>c7d1</t>
+  </si>
+  <si>
+    <t>c7d2</t>
+  </si>
+  <si>
+    <t>c7d3</t>
+  </si>
+  <si>
+    <t>c7d4</t>
+  </si>
+  <si>
+    <t>c7d5</t>
+  </si>
+  <si>
+    <t>c7d7</t>
+  </si>
+  <si>
+    <t>c7d8</t>
+  </si>
+  <si>
+    <t>c8d1</t>
+  </si>
+  <si>
+    <t>c8d2</t>
+  </si>
+  <si>
+    <t>c8d3</t>
+  </si>
+  <si>
+    <t>c8d4</t>
+  </si>
+  <si>
+    <t>c8d5</t>
+  </si>
+  <si>
+    <t>c8d6</t>
+  </si>
+  <si>
+    <t>c8d7</t>
+  </si>
+  <si>
+    <t>c8d8</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>ă</t>
+  </si>
+  <si>
+    <t>â</t>
+  </si>
+  <si>
+    <t>ơ</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>ê</t>
+  </si>
+  <si>
+    <t>c1e1</t>
+  </si>
+  <si>
+    <t>c1e2</t>
+  </si>
+  <si>
+    <t>c1e3</t>
+  </si>
+  <si>
+    <t>c1e4</t>
+  </si>
+  <si>
+    <t>c1e7</t>
+  </si>
+  <si>
+    <t>c1e8</t>
+  </si>
+  <si>
+    <t>c2e4</t>
+  </si>
+  <si>
+    <t>c2e5</t>
+  </si>
+  <si>
+    <t>c4e1</t>
+  </si>
+  <si>
+    <t>c4e2</t>
+  </si>
+  <si>
+    <t>c4e3</t>
+  </si>
+  <si>
+    <t>c4e8</t>
+  </si>
+  <si>
+    <t>c5e1</t>
+  </si>
+  <si>
+    <t>c5e2</t>
+  </si>
+  <si>
+    <t>c5e3</t>
+  </si>
+  <si>
+    <t>c5e4</t>
+  </si>
+  <si>
+    <t>c5e5</t>
+  </si>
+  <si>
+    <t>c5e6</t>
+  </si>
+  <si>
+    <t>c5e7</t>
+  </si>
+  <si>
+    <t>c5e8</t>
+  </si>
+  <si>
+    <t>c6e1</t>
+  </si>
+  <si>
+    <t>c6e2</t>
+  </si>
+  <si>
+    <t>c6e3</t>
+  </si>
+  <si>
+    <t>c6e4</t>
+  </si>
+  <si>
+    <t>c6e7</t>
+  </si>
+  <si>
+    <t>c6e8</t>
+  </si>
+  <si>
+    <t>c7e1</t>
+  </si>
+  <si>
+    <t>c7e2</t>
+  </si>
+  <si>
+    <t>c7e3</t>
+  </si>
+  <si>
+    <t>c7e4</t>
+  </si>
+  <si>
+    <t>c7e5</t>
+  </si>
+  <si>
+    <t>c7e7</t>
+  </si>
+  <si>
+    <t>c7e8</t>
+  </si>
+  <si>
+    <t>c8e1</t>
+  </si>
+  <si>
+    <t>c8e2</t>
+  </si>
+  <si>
+    <t>c8e3</t>
+  </si>
+  <si>
+    <t>c8e4</t>
+  </si>
+  <si>
+    <t>c8e7</t>
+  </si>
+  <si>
+    <t>c8e8</t>
+  </si>
+  <si>
+    <t>go</t>
+  </si>
+  <si>
+    <t>gư</t>
+  </si>
+  <si>
+    <t>giư</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>ô</t>
+  </si>
+  <si>
+    <t>ư</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>uy</t>
+  </si>
+  <si>
+    <t>oe</t>
+  </si>
+  <si>
+    <t>oa</t>
+  </si>
+  <si>
+    <t>đo</t>
+  </si>
+  <si>
+    <t>do</t>
+  </si>
+  <si>
+    <t>duy</t>
+  </si>
+  <si>
+    <t>voa</t>
+  </si>
+  <si>
+    <t>c1f6</t>
+  </si>
+  <si>
+    <t>c2f1</t>
+  </si>
+  <si>
+    <t>c2f2</t>
+  </si>
+  <si>
+    <t>c2f5</t>
+  </si>
+  <si>
+    <t>c2f8</t>
+  </si>
+  <si>
+    <t>c4f6</t>
+  </si>
+  <si>
+    <t>c5f1</t>
+  </si>
+  <si>
+    <t>c5f6</t>
+  </si>
+  <si>
+    <t>uê</t>
+  </si>
+  <si>
+    <t>c5f2</t>
+  </si>
+  <si>
+    <t>c5f4</t>
+  </si>
+  <si>
+    <t>c5f5</t>
+  </si>
+  <si>
+    <t>c5f7</t>
+  </si>
+  <si>
+    <t>oă</t>
+  </si>
+  <si>
+    <t>uâ</t>
+  </si>
+  <si>
+    <t>c6f6</t>
+  </si>
+  <si>
+    <t>c6f7</t>
+  </si>
+  <si>
+    <t>c7f2</t>
+  </si>
+  <si>
+    <t>c7f5</t>
+  </si>
+  <si>
+    <t>c7f6</t>
+  </si>
+  <si>
+    <t>c7f7</t>
+  </si>
+  <si>
+    <t>c8f6</t>
+  </si>
+  <si>
+    <t>c8f7</t>
+  </si>
+  <si>
+    <t>cua/uô</t>
+  </si>
+  <si>
+    <t>hua/uô</t>
+  </si>
+  <si>
+    <t>rua/uô</t>
+  </si>
+  <si>
+    <t>bua/uô</t>
+  </si>
+  <si>
+    <t>thua/uô</t>
+  </si>
+  <si>
+    <t>trua/uô</t>
+  </si>
+  <si>
+    <t>sua/uô</t>
+  </si>
+  <si>
+    <t>tua/uô</t>
+  </si>
+  <si>
+    <t>cươ/ưa</t>
+  </si>
+  <si>
+    <t>hươ/ưa</t>
+  </si>
+  <si>
+    <t>rươ/ưa</t>
+  </si>
+  <si>
+    <t>ria/iê/yê</t>
+  </si>
+  <si>
+    <t>bươ/ưa</t>
+  </si>
+  <si>
+    <t>bia/iê/yê</t>
+  </si>
+  <si>
+    <t>thươ/ưa</t>
+  </si>
+  <si>
+    <t>thia/iê/yê</t>
+  </si>
+  <si>
+    <t>trươ/ưa</t>
+  </si>
+  <si>
+    <t>sươ/ưa</t>
+  </si>
+  <si>
+    <t>tươ/ưa</t>
+  </si>
+  <si>
+    <t>ngua/uô</t>
+  </si>
+  <si>
+    <t>mua/uô</t>
+  </si>
+  <si>
+    <t>nua/uô</t>
+  </si>
+  <si>
+    <t>lua/uô</t>
+  </si>
+  <si>
+    <t>chua/uô</t>
+  </si>
+  <si>
+    <t>nhua/uô</t>
+  </si>
+  <si>
+    <t>khua/uô</t>
+  </si>
+  <si>
+    <t>phua/uô</t>
+  </si>
+  <si>
+    <t>ngươ/ưa</t>
+  </si>
+  <si>
+    <t>nghia/iê/yê</t>
+  </si>
+  <si>
+    <t>mươ/ưa</t>
+  </si>
+  <si>
+    <t>mia/iê/yê</t>
+  </si>
+  <si>
+    <t>nươ/ưa</t>
+  </si>
+  <si>
+    <t>nia/iê/yê</t>
+  </si>
+  <si>
+    <t>luyê/uya</t>
+  </si>
+  <si>
+    <t>lươ/ưa</t>
+  </si>
+  <si>
+    <t>lia/iê/yê</t>
+  </si>
+  <si>
+    <t>chươ/ưa</t>
+  </si>
+  <si>
+    <t>nhươ/ưa</t>
+  </si>
+  <si>
+    <t>khuyê/uya</t>
+  </si>
+  <si>
+    <t>phia/iê/yê</t>
+  </si>
+  <si>
+    <t>phươ/ưa</t>
+  </si>
+  <si>
+    <t>qua/uô</t>
+  </si>
+  <si>
+    <t>ua/uô</t>
+  </si>
+  <si>
+    <t>dua/uô</t>
+  </si>
+  <si>
+    <t>vua/uô</t>
+  </si>
+  <si>
+    <t>giươ/ưa</t>
+  </si>
+  <si>
+    <t>ươ/ưa</t>
+  </si>
+  <si>
+    <t>ia/iê/yê</t>
+  </si>
+  <si>
+    <t>đươ/ưa</t>
+  </si>
+  <si>
+    <t>đia/iê/yê</t>
+  </si>
+  <si>
+    <t>dươ/ưa</t>
+  </si>
+  <si>
+    <t>dia/iê/yê</t>
+  </si>
+  <si>
+    <t>vươ/ưa</t>
+  </si>
+  <si>
+    <t>via/iê/yê</t>
+  </si>
+  <si>
+    <t>kia/iê/yê</t>
+  </si>
+  <si>
+    <t>hia/iê/yê</t>
+  </si>
+  <si>
+    <t>tia/iê/yê</t>
+  </si>
+  <si>
+    <t>huyê/uya</t>
+  </si>
+  <si>
+    <t>thuyê/uya</t>
+  </si>
+  <si>
+    <t>truyê/uya</t>
+  </si>
+  <si>
+    <t>tuyê/uya</t>
+  </si>
+  <si>
+    <t>nguyê/uya</t>
+  </si>
+  <si>
+    <t>chuyê/uya</t>
+  </si>
+  <si>
+    <t>gua/uô</t>
+  </si>
+  <si>
+    <t>chia/iê/yê</t>
+  </si>
+  <si>
+    <t>quyê/uya</t>
+  </si>
+  <si>
+    <t>uyê/uya</t>
+  </si>
+  <si>
+    <t>duyê/uya</t>
+  </si>
+  <si>
+    <t>đua/uô</t>
+  </si>
+  <si>
+    <t>khươ/ưa</t>
+  </si>
+  <si>
+    <t>gươ/ưa</t>
+  </si>
+  <si>
+    <t>c2d1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>c31d</t>
+  </si>
+  <si>
+    <t>c3d2</t>
+  </si>
+  <si>
+    <t>c3d3</t>
+  </si>
+  <si>
+    <t>c3d4</t>
+  </si>
+  <si>
+    <t>c3d5</t>
+  </si>
+  <si>
+    <t>c3d7</t>
+  </si>
+  <si>
+    <t>xa</t>
+  </si>
+  <si>
+    <t>xă</t>
+  </si>
+  <si>
+    <t>xâ</t>
+  </si>
+  <si>
+    <t>xơ</t>
+  </si>
+  <si>
+    <t>xi</t>
+  </si>
+  <si>
+    <t>xê</t>
+  </si>
+  <si>
+    <t>xe</t>
+  </si>
+  <si>
+    <t>c3e1</t>
+  </si>
+  <si>
+    <t>c3e3</t>
+  </si>
+  <si>
+    <t>c3e6</t>
+  </si>
+  <si>
+    <t>c3e8</t>
+  </si>
+  <si>
+    <t>xo</t>
+  </si>
+  <si>
+    <t>xư</t>
+  </si>
+  <si>
+    <t>xu</t>
+  </si>
+  <si>
+    <t>xua/uô</t>
+  </si>
+  <si>
+    <t>xoe</t>
+  </si>
+  <si>
+    <t>xoa</t>
+  </si>
+  <si>
+    <t>xô</t>
+  </si>
+  <si>
+    <t>c3f1</t>
+  </si>
+  <si>
+    <t>c3f2</t>
+  </si>
+  <si>
+    <t>c3f3</t>
+  </si>
+  <si>
+    <t>c3f4</t>
+  </si>
+  <si>
+    <t>c3f5</t>
+  </si>
+  <si>
+    <t>c3f6</t>
+  </si>
+  <si>
+    <t>c3f7</t>
+  </si>
+  <si>
+    <t>xuê</t>
+  </si>
+  <si>
+    <t>xuyê/xuya</t>
+  </si>
+  <si>
+    <t>xoo</t>
+  </si>
+  <si>
+    <t>xoă</t>
+  </si>
+  <si>
+    <t>xuâ</t>
+  </si>
+  <si>
+    <t>xươ</t>
+  </si>
+  <si>
+    <t>xia/iê/yê</t>
+  </si>
+  <si>
+    <t>c3e4</t>
+  </si>
+  <si>
+    <t>c3e7</t>
+  </si>
+  <si>
+    <t>c3e2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF383A42"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2893,8 +3838,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
@@ -3209,309 +4157,498 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E397"/>
+  <dimension ref="A1:N421"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="A262" workbookViewId="0">
+      <selection activeCell="K273" sqref="K273"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>35</v>
+      </c>
       <c r="D1" t="s">
         <v>780</v>
       </c>
       <c r="E1" t="s">
         <v>781</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
+      <c r="C2" t="s">
+        <v>37</v>
+      </c>
       <c r="D2" t="s">
         <v>782</v>
       </c>
       <c r="E2" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
+      <c r="C3" t="s">
+        <v>41</v>
+      </c>
       <c r="D3" t="s">
         <v>784</v>
       </c>
       <c r="E3" t="s">
         <v>785</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
+      <c r="C4" t="s">
+        <v>39</v>
+      </c>
       <c r="D4" t="s">
         <v>786</v>
       </c>
       <c r="E4" t="s">
         <v>787</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
+      <c r="C5" t="s">
+        <v>45</v>
+      </c>
       <c r="D5" t="s">
         <v>788</v>
       </c>
       <c r="E5" t="s">
         <v>789</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>10</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
       </c>
+      <c r="C6" t="s">
+        <v>43</v>
+      </c>
       <c r="D6" t="s">
         <v>790</v>
       </c>
       <c r="E6" t="s">
         <v>791</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>12</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
       </c>
+      <c r="C7" t="s">
+        <v>47</v>
+      </c>
       <c r="D7" t="s">
         <v>792</v>
       </c>
       <c r="E7" t="s">
         <v>793</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>14</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
       </c>
+      <c r="C8" t="s">
+        <v>49</v>
+      </c>
       <c r="D8" t="s">
         <v>794</v>
       </c>
       <c r="E8" t="s">
         <v>795</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>16</v>
       </c>
       <c r="B9" t="s">
         <v>17</v>
       </c>
+      <c r="C9" t="s">
+        <v>172</v>
+      </c>
       <c r="D9" t="s">
         <v>796</v>
       </c>
       <c r="E9" t="s">
         <v>797</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>18</v>
       </c>
       <c r="B10" t="s">
         <v>19</v>
       </c>
+      <c r="C10" t="s">
+        <v>174</v>
+      </c>
       <c r="D10" t="s">
         <v>798</v>
       </c>
       <c r="E10" t="s">
         <v>799</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>20</v>
       </c>
       <c r="B11" t="s">
         <v>21</v>
       </c>
+      <c r="C11" t="s">
+        <v>178</v>
+      </c>
       <c r="D11" t="s">
         <v>800</v>
       </c>
       <c r="E11" t="s">
         <v>801</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>23</v>
       </c>
+      <c r="C12" t="s">
+        <v>176</v>
+      </c>
       <c r="D12" t="s">
         <v>802</v>
       </c>
       <c r="E12" t="s">
         <v>803</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H12" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>24</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
       </c>
+      <c r="C13" t="s">
+        <v>180</v>
+      </c>
       <c r="D13" t="s">
         <v>804</v>
       </c>
       <c r="E13" t="s">
         <v>805</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H13" t="s">
+        <v>24</v>
+      </c>
+      <c r="I13" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>26</v>
       </c>
       <c r="B14" t="s">
         <v>27</v>
       </c>
+      <c r="C14" t="s">
+        <v>946</v>
+      </c>
       <c r="D14" t="s">
         <v>806</v>
       </c>
       <c r="E14" t="s">
         <v>807</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H14" t="s">
+        <v>26</v>
+      </c>
+      <c r="I14" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
         <v>28</v>
       </c>
       <c r="B15" t="s">
         <v>29</v>
       </c>
+      <c r="C15" t="s">
+        <v>182</v>
+      </c>
       <c r="D15" t="s">
         <v>808</v>
       </c>
       <c r="E15" t="s">
         <v>809</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
         <v>30</v>
       </c>
       <c r="B16" t="s">
         <v>31</v>
       </c>
+      <c r="C16" t="s">
+        <v>184</v>
+      </c>
       <c r="D16" t="s">
         <v>810</v>
       </c>
       <c r="E16" t="s">
         <v>811</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H16" t="s">
+        <v>30</v>
+      </c>
+      <c r="I16" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" t="s">
         <v>32</v>
       </c>
       <c r="B17" t="s">
         <v>33</v>
       </c>
+      <c r="C17" t="s">
+        <v>408</v>
+      </c>
       <c r="D17" t="s">
         <v>812</v>
       </c>
       <c r="E17" t="s">
         <v>813</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H17" t="s">
+        <v>32</v>
+      </c>
+      <c r="I17" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" t="s">
         <v>34</v>
       </c>
       <c r="B18" t="s">
         <v>35</v>
       </c>
+      <c r="C18" t="s">
+        <v>410</v>
+      </c>
       <c r="D18" t="s">
         <v>814</v>
       </c>
       <c r="E18" t="s">
         <v>815</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H18" t="s">
+        <v>34</v>
+      </c>
+      <c r="I18" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" t="s">
         <v>36</v>
       </c>
       <c r="B19" t="s">
         <v>37</v>
       </c>
+      <c r="C19" t="s">
+        <v>414</v>
+      </c>
       <c r="D19" t="s">
         <v>816</v>
       </c>
       <c r="E19" t="s">
         <v>817</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H19" t="s">
+        <v>36</v>
+      </c>
+      <c r="I19" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" t="s">
         <v>38</v>
       </c>
       <c r="B20" t="s">
         <v>39</v>
       </c>
+      <c r="C20" t="s">
+        <v>412</v>
+      </c>
       <c r="D20" t="s">
         <v>818</v>
       </c>
       <c r="E20" t="s">
         <v>819</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H20" t="s">
+        <v>38</v>
+      </c>
+      <c r="I20" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" t="s">
         <v>40</v>
       </c>
       <c r="B21" t="s">
         <v>41</v>
       </c>
+      <c r="C21" t="s">
+        <v>416</v>
+      </c>
       <c r="D21" t="s">
         <v>820</v>
       </c>
       <c r="E21" t="s">
         <v>821</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H21" t="s">
+        <v>40</v>
+      </c>
+      <c r="I21" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" t="s">
         <v>42</v>
       </c>
@@ -3524,106 +4661,175 @@
       <c r="E22" t="s">
         <v>822</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H22" t="s">
+        <v>44</v>
+      </c>
+      <c r="I22" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" t="s">
         <v>44</v>
       </c>
       <c r="B23" t="s">
         <v>45</v>
       </c>
+      <c r="C23" t="s">
+        <v>418</v>
+      </c>
       <c r="D23" t="s">
         <v>823</v>
       </c>
       <c r="E23" t="s">
         <v>824</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" t="s">
         <v>46</v>
       </c>
       <c r="B24" t="s">
         <v>47</v>
       </c>
+      <c r="C24" t="s">
+        <v>420</v>
+      </c>
       <c r="D24" t="s">
         <v>825</v>
       </c>
       <c r="E24" t="s">
         <v>826</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H24" t="s">
+        <v>48</v>
+      </c>
+      <c r="I24" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" t="s">
         <v>48</v>
       </c>
       <c r="B25" t="s">
         <v>49</v>
       </c>
+      <c r="C25" t="s">
+        <v>1</v>
+      </c>
       <c r="D25" t="s">
         <v>827</v>
       </c>
       <c r="E25" t="s">
         <v>828</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H25" t="s">
+        <v>50</v>
+      </c>
+      <c r="I25" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" t="s">
         <v>50</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
+      <c r="C26" t="s">
+        <v>3</v>
+      </c>
       <c r="D26" t="s">
         <v>829</v>
       </c>
       <c r="E26" t="s">
         <v>830</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H26" t="s">
+        <v>52</v>
+      </c>
+      <c r="I26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" t="s">
         <v>52</v>
       </c>
       <c r="B27" t="s">
         <v>53</v>
       </c>
+      <c r="C27" t="s">
+        <v>7</v>
+      </c>
       <c r="D27" t="s">
         <v>831</v>
       </c>
       <c r="E27" t="s">
         <v>832</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H27" t="s">
+        <v>54</v>
+      </c>
+      <c r="I27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" t="s">
         <v>54</v>
       </c>
       <c r="B28" t="s">
         <v>55</v>
       </c>
+      <c r="C28" t="s">
+        <v>5</v>
+      </c>
       <c r="D28" t="s">
         <v>833</v>
       </c>
       <c r="E28" t="s">
         <v>834</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H28" t="s">
+        <v>56</v>
+      </c>
+      <c r="I28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" t="s">
         <v>56</v>
       </c>
       <c r="B29" t="s">
         <v>57</v>
       </c>
+      <c r="C29" t="s">
+        <v>9</v>
+      </c>
       <c r="D29" t="s">
         <v>835</v>
       </c>
       <c r="E29" t="s">
         <v>836</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H29" t="s">
+        <v>60</v>
+      </c>
+      <c r="I29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" t="s">
         <v>58</v>
       </c>
@@ -3636,218 +4842,359 @@
       <c r="E30" t="s">
         <v>838</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H30" t="s">
+        <v>62</v>
+      </c>
+      <c r="I30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" t="s">
         <v>60</v>
       </c>
       <c r="B31" t="s">
         <v>61</v>
       </c>
+      <c r="C31" t="s">
+        <v>11</v>
+      </c>
       <c r="D31" t="s">
         <v>839</v>
       </c>
       <c r="E31" t="s">
         <v>840</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I31" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" t="s">
         <v>62</v>
       </c>
       <c r="B32" t="s">
         <v>63</v>
       </c>
+      <c r="C32" t="s">
+        <v>13</v>
+      </c>
       <c r="D32" t="s">
         <v>841</v>
       </c>
       <c r="E32" t="s">
         <v>842</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H32" t="s">
+        <v>66</v>
+      </c>
+      <c r="I32" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" t="s">
         <v>64</v>
       </c>
       <c r="B33" t="s">
         <v>65</v>
       </c>
+      <c r="C33" t="s">
+        <v>478</v>
+      </c>
       <c r="D33" t="s">
         <v>843</v>
       </c>
       <c r="E33" t="s">
         <v>844</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H33" t="s">
+        <v>68</v>
+      </c>
+      <c r="I33" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" t="s">
         <v>66</v>
       </c>
       <c r="B34" t="s">
         <v>67</v>
       </c>
+      <c r="C34" t="s">
+        <v>480</v>
+      </c>
       <c r="D34" t="s">
         <v>845</v>
       </c>
       <c r="E34" t="s">
         <v>846</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H34" t="s">
+        <v>70</v>
+      </c>
+      <c r="I34" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" t="s">
         <v>68</v>
       </c>
       <c r="B35" t="s">
         <v>69</v>
       </c>
+      <c r="C35" t="s">
+        <v>484</v>
+      </c>
       <c r="D35" t="s">
         <v>847</v>
       </c>
       <c r="E35" t="s">
         <v>848</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H35" t="s">
+        <v>72</v>
+      </c>
+      <c r="I35" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" t="s">
         <v>70</v>
       </c>
       <c r="B36" t="s">
         <v>71</v>
       </c>
+      <c r="C36" t="s">
+        <v>482</v>
+      </c>
       <c r="D36" t="s">
         <v>849</v>
       </c>
       <c r="E36" t="s">
         <v>850</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H36" t="s">
+        <v>74</v>
+      </c>
+      <c r="I36" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" t="s">
         <v>72</v>
       </c>
       <c r="B37" t="s">
         <v>73</v>
       </c>
+      <c r="C37" t="s">
+        <v>486</v>
+      </c>
       <c r="D37" t="s">
         <v>851</v>
       </c>
       <c r="E37" t="s">
         <v>852</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H37" t="s">
+        <v>76</v>
+      </c>
+      <c r="I37" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" t="s">
         <v>74</v>
       </c>
       <c r="B38" t="s">
         <v>75</v>
       </c>
+      <c r="C38" t="s">
+        <v>947</v>
+      </c>
       <c r="D38" t="s">
         <v>853</v>
       </c>
       <c r="E38" t="s">
         <v>854</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H38" t="s">
+        <v>78</v>
+      </c>
+      <c r="I38" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" t="s">
         <v>76</v>
       </c>
       <c r="B39" t="s">
         <v>77</v>
       </c>
+      <c r="C39" t="s">
+        <v>488</v>
+      </c>
       <c r="D39" t="s">
         <v>855</v>
       </c>
       <c r="E39" t="s">
         <v>856</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H39" t="s">
+        <v>80</v>
+      </c>
+      <c r="I39" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" t="s">
         <v>78</v>
       </c>
       <c r="B40" t="s">
         <v>79</v>
       </c>
+      <c r="C40" t="s">
+        <v>490</v>
+      </c>
       <c r="D40" t="s">
         <v>857</v>
       </c>
       <c r="E40" t="s">
         <v>858</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H40" t="s">
+        <v>82</v>
+      </c>
+      <c r="I40" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" t="s">
         <v>80</v>
       </c>
       <c r="B41" t="s">
         <v>81</v>
       </c>
+      <c r="C41" t="s">
+        <v>599</v>
+      </c>
       <c r="D41" t="s">
         <v>859</v>
       </c>
       <c r="E41" t="s">
         <v>860</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H41" t="s">
+        <v>84</v>
+      </c>
+      <c r="I41" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" t="s">
         <v>82</v>
       </c>
       <c r="B42" t="s">
         <v>83</v>
       </c>
+      <c r="C42" t="s">
+        <v>601</v>
+      </c>
       <c r="D42" t="s">
         <v>861</v>
       </c>
       <c r="E42" t="s">
         <v>862</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H42" t="s">
+        <v>86</v>
+      </c>
+      <c r="I42" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" t="s">
         <v>84</v>
       </c>
       <c r="B43" t="s">
         <v>85</v>
       </c>
+      <c r="C43" t="s">
+        <v>605</v>
+      </c>
       <c r="D43" t="s">
         <v>863</v>
       </c>
       <c r="E43" t="s">
         <v>864</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H43" t="s">
+        <v>88</v>
+      </c>
+      <c r="I43" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" t="s">
         <v>86</v>
       </c>
       <c r="B44" t="s">
         <v>87</v>
       </c>
+      <c r="C44" t="s">
+        <v>603</v>
+      </c>
       <c r="D44" t="s">
         <v>865</v>
       </c>
       <c r="E44" t="s">
         <v>866</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H44" t="s">
+        <v>92</v>
+      </c>
+      <c r="I44" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" t="s">
         <v>88</v>
       </c>
       <c r="B45" t="s">
         <v>89</v>
       </c>
+      <c r="C45" t="s">
+        <v>607</v>
+      </c>
       <c r="D45" t="s">
         <v>867</v>
       </c>
       <c r="E45" t="s">
         <v>868</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H45" t="s">
+        <v>94</v>
+      </c>
+      <c r="I45" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" t="s">
         <v>90</v>
       </c>
@@ -3860,106 +5207,175 @@
       <c r="E46" t="s">
         <v>870</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H46" t="s">
+        <v>96</v>
+      </c>
+      <c r="I46" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" t="s">
         <v>92</v>
       </c>
       <c r="B47" t="s">
         <v>93</v>
       </c>
+      <c r="C47" t="s">
+        <v>609</v>
+      </c>
       <c r="D47" t="s">
         <v>871</v>
       </c>
       <c r="E47" t="s">
         <v>872</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H47" t="s">
+        <v>98</v>
+      </c>
+      <c r="I47" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" t="s">
         <v>94</v>
       </c>
       <c r="B48" t="s">
         <v>95</v>
       </c>
+      <c r="C48" t="s">
+        <v>611</v>
+      </c>
       <c r="D48" t="s">
         <v>873</v>
       </c>
       <c r="E48" t="s">
         <v>874</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H48" t="s">
+        <v>100</v>
+      </c>
+      <c r="I48" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" t="s">
         <v>96</v>
       </c>
       <c r="B49" t="s">
         <v>97</v>
       </c>
+      <c r="C49" t="s">
+        <v>330</v>
+      </c>
       <c r="D49" t="s">
         <v>875</v>
       </c>
       <c r="E49" t="s">
         <v>876</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H49" t="s">
+        <v>102</v>
+      </c>
+      <c r="I49" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" t="s">
         <v>98</v>
       </c>
       <c r="B50" t="s">
         <v>99</v>
       </c>
+      <c r="C50" t="s">
+        <v>332</v>
+      </c>
       <c r="D50" t="s">
         <v>877</v>
       </c>
       <c r="E50" t="s">
         <v>878</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H50" t="s">
+        <v>104</v>
+      </c>
+      <c r="I50" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" t="s">
         <v>100</v>
       </c>
       <c r="B51" t="s">
         <v>101</v>
       </c>
+      <c r="C51" t="s">
+        <v>336</v>
+      </c>
       <c r="D51" t="s">
         <v>879</v>
       </c>
       <c r="E51" t="s">
         <v>880</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H51" t="s">
+        <v>107</v>
+      </c>
+      <c r="I51" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" t="s">
         <v>102</v>
       </c>
       <c r="B52" t="s">
         <v>103</v>
       </c>
+      <c r="C52" t="s">
+        <v>334</v>
+      </c>
       <c r="D52" t="s">
         <v>881</v>
       </c>
       <c r="E52" t="s">
         <v>872</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H52" t="s">
+        <v>109</v>
+      </c>
+      <c r="I52" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" t="s">
         <v>104</v>
       </c>
       <c r="B53" t="s">
         <v>105</v>
       </c>
+      <c r="C53" t="s">
+        <v>338</v>
+      </c>
       <c r="D53" t="s">
         <v>882</v>
       </c>
       <c r="E53" t="s">
         <v>883</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H53" t="s">
+        <v>111</v>
+      </c>
+      <c r="I53" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" t="s">
         <v>106</v>
       </c>
@@ -3972,106 +5388,175 @@
       <c r="E54" t="s">
         <v>885</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H54" t="s">
+        <v>113</v>
+      </c>
+      <c r="I54" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" t="s">
         <v>107</v>
       </c>
       <c r="B55" t="s">
         <v>108</v>
       </c>
+      <c r="C55" t="s">
+        <v>340</v>
+      </c>
       <c r="D55" t="s">
         <v>886</v>
       </c>
       <c r="E55" t="s">
         <v>887</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H55" t="s">
+        <v>115</v>
+      </c>
+      <c r="I55" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" t="s">
         <v>109</v>
       </c>
       <c r="B56" t="s">
         <v>110</v>
       </c>
+      <c r="C56" t="s">
+        <v>342</v>
+      </c>
       <c r="D56" t="s">
         <v>888</v>
       </c>
       <c r="E56" t="s">
         <v>889</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H56" t="s">
+        <v>117</v>
+      </c>
+      <c r="I56" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" t="s">
         <v>111</v>
       </c>
       <c r="B57" t="s">
         <v>112</v>
       </c>
+      <c r="C57" t="s">
+        <v>365</v>
+      </c>
       <c r="D57" t="s">
         <v>890</v>
       </c>
       <c r="E57" t="s">
         <v>891</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H57" t="s">
+        <v>119</v>
+      </c>
+      <c r="I57" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" t="s">
         <v>113</v>
       </c>
       <c r="B58" t="s">
         <v>114</v>
       </c>
+      <c r="C58" t="s">
+        <v>367</v>
+      </c>
       <c r="D58" t="s">
         <v>892</v>
       </c>
       <c r="E58" t="s">
         <v>893</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H58" t="s">
+        <v>123</v>
+      </c>
+      <c r="I58" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" t="s">
         <v>115</v>
       </c>
       <c r="B59" t="s">
         <v>116</v>
       </c>
+      <c r="C59" t="s">
+        <v>371</v>
+      </c>
       <c r="D59" t="s">
         <v>894</v>
       </c>
       <c r="E59" t="s">
         <v>895</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H59" t="s">
+        <v>125</v>
+      </c>
+      <c r="I59" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" t="s">
         <v>117</v>
       </c>
       <c r="B60" t="s">
         <v>118</v>
       </c>
+      <c r="C60" t="s">
+        <v>369</v>
+      </c>
       <c r="D60" t="s">
         <v>896</v>
       </c>
       <c r="E60" t="s">
         <v>897</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H60" t="s">
+        <v>127</v>
+      </c>
+      <c r="I60" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" t="s">
         <v>119</v>
       </c>
       <c r="B61" t="s">
         <v>120</v>
       </c>
+      <c r="C61" t="s">
+        <v>373</v>
+      </c>
       <c r="D61" t="s">
         <v>898</v>
       </c>
       <c r="E61" t="s">
         <v>899</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H61" t="s">
+        <v>129</v>
+      </c>
+      <c r="I61" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" t="s">
         <v>121</v>
       </c>
@@ -4084,36 +5569,60 @@
       <c r="E62" t="s">
         <v>901</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H62" t="s">
+        <v>131</v>
+      </c>
+      <c r="I62" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" t="s">
         <v>123</v>
       </c>
       <c r="B63" t="s">
         <v>124</v>
       </c>
+      <c r="C63" t="s">
+        <v>375</v>
+      </c>
       <c r="D63" t="s">
         <v>902</v>
       </c>
       <c r="E63" t="s">
         <v>903</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H63" t="s">
+        <v>132</v>
+      </c>
+      <c r="I63" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" t="s">
         <v>125</v>
       </c>
       <c r="B64" t="s">
         <v>126</v>
       </c>
+      <c r="C64" t="s">
+        <v>377</v>
+      </c>
       <c r="D64" t="s">
         <v>904</v>
       </c>
       <c r="E64" t="s">
         <v>905</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H64" t="s">
+        <v>140</v>
+      </c>
+      <c r="I64" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" t="s">
         <v>127</v>
       </c>
@@ -4126,8 +5635,14 @@
       <c r="E65" t="s">
         <v>907</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H65" t="s">
+        <v>142</v>
+      </c>
+      <c r="I65" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" t="s">
         <v>129</v>
       </c>
@@ -4140,8 +5655,14 @@
       <c r="E66" t="s">
         <v>909</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H66" t="s">
+        <v>143</v>
+      </c>
+      <c r="I66" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" t="s">
         <v>131</v>
       </c>
@@ -4154,8 +5675,14 @@
       <c r="E67" t="s">
         <v>911</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H67" t="s">
+        <v>145</v>
+      </c>
+      <c r="I67" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" t="s">
         <v>132</v>
       </c>
@@ -4168,8 +5695,14 @@
       <c r="E68" t="s">
         <v>913</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H68" t="s">
+        <v>147</v>
+      </c>
+      <c r="I68" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" t="s">
         <v>134</v>
       </c>
@@ -4182,8 +5715,14 @@
       <c r="E69" t="s">
         <v>915</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H69" t="s">
+        <v>149</v>
+      </c>
+      <c r="I69" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" t="s">
         <v>136</v>
       </c>
@@ -4196,8 +5735,14 @@
       <c r="E70" t="s">
         <v>917</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H70" t="s">
+        <v>151</v>
+      </c>
+      <c r="I70" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" t="s">
         <v>138</v>
       </c>
@@ -4210,8 +5755,14 @@
       <c r="E71" t="s">
         <v>919</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H71" t="s">
+        <v>153</v>
+      </c>
+      <c r="I71" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" t="s">
         <v>140</v>
       </c>
@@ -4224,8 +5775,14 @@
       <c r="E72" t="s">
         <v>921</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H72" t="s">
+        <v>155</v>
+      </c>
+      <c r="I72" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" t="s">
         <v>142</v>
       </c>
@@ -4238,8 +5795,14 @@
       <c r="E73" t="s">
         <v>923</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H73" t="s">
+        <v>157</v>
+      </c>
+      <c r="I73" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" t="s">
         <v>143</v>
       </c>
@@ -4252,8 +5815,14 @@
       <c r="E74" t="s">
         <v>925</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H74" t="s">
+        <v>159</v>
+      </c>
+      <c r="I74" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" t="s">
         <v>145</v>
       </c>
@@ -4266,8 +5835,14 @@
       <c r="E75" t="s">
         <v>927</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H75" t="s">
+        <v>161</v>
+      </c>
+      <c r="I75" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" t="s">
         <v>147</v>
       </c>
@@ -4280,8 +5855,14 @@
       <c r="E76" t="s">
         <v>928</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H76" t="s">
+        <v>163</v>
+      </c>
+      <c r="I76" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" t="s">
         <v>149</v>
       </c>
@@ -4294,8 +5875,14 @@
       <c r="E77" t="s">
         <v>930</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H77" t="s">
+        <v>169</v>
+      </c>
+      <c r="I77" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" t="s">
         <v>151</v>
       </c>
@@ -4308,8 +5895,14 @@
       <c r="E78" t="s">
         <v>932</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H78" t="s">
+        <v>171</v>
+      </c>
+      <c r="I78" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" t="s">
         <v>153</v>
       </c>
@@ -4322,8 +5915,14 @@
       <c r="E79" t="s">
         <v>934</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H79" t="s">
+        <v>173</v>
+      </c>
+      <c r="I79" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" t="s">
         <v>155</v>
       </c>
@@ -4336,8 +5935,14 @@
       <c r="E80" t="s">
         <v>936</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H80" t="s">
+        <v>175</v>
+      </c>
+      <c r="I80" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13">
       <c r="A81" t="s">
         <v>157</v>
       </c>
@@ -4350,8 +5955,14 @@
       <c r="E81" t="s">
         <v>938</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H81" t="s">
+        <v>177</v>
+      </c>
+      <c r="I81" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13">
       <c r="A82" t="s">
         <v>159</v>
       </c>
@@ -4364,8 +5975,14 @@
       <c r="E82" t="s">
         <v>940</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H82" t="s">
+        <v>179</v>
+      </c>
+      <c r="I82" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13">
       <c r="A83" t="s">
         <v>161</v>
       </c>
@@ -4378,8 +5995,14 @@
       <c r="E83" t="s">
         <v>940</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H83" t="s">
+        <v>185</v>
+      </c>
+      <c r="I83" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13">
       <c r="A84" t="s">
         <v>163</v>
       </c>
@@ -4392,8 +6015,14 @@
       <c r="E84" t="s">
         <v>943</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H84" t="s">
+        <v>187</v>
+      </c>
+      <c r="I84" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13">
       <c r="A85" t="s">
         <v>165</v>
       </c>
@@ -4406,2504 +6035,4586 @@
       <c r="E85" t="s">
         <v>945</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H85" t="s">
+        <v>189</v>
+      </c>
+      <c r="I85" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13">
       <c r="A86" t="s">
         <v>167</v>
       </c>
       <c r="B86" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H86" t="s">
+        <v>191</v>
+      </c>
+      <c r="I86" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13">
       <c r="A87" t="s">
         <v>169</v>
       </c>
       <c r="B87" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H87" t="s">
+        <v>192</v>
+      </c>
+      <c r="I87" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13">
       <c r="A88" t="s">
         <v>171</v>
       </c>
       <c r="B88" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H88" t="s">
+        <v>194</v>
+      </c>
+      <c r="I88" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13">
       <c r="A89" t="s">
         <v>173</v>
       </c>
       <c r="B89" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H89" t="s">
+        <v>196</v>
+      </c>
+      <c r="I89" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13">
       <c r="A90" t="s">
         <v>175</v>
       </c>
       <c r="B90" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H90" t="s">
+        <v>200</v>
+      </c>
+      <c r="I90" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13">
       <c r="A91" t="s">
         <v>177</v>
       </c>
       <c r="B91" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H91" t="s">
+        <v>202</v>
+      </c>
+      <c r="I91" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13">
       <c r="A92" t="s">
         <v>179</v>
       </c>
       <c r="B92" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H92" t="s">
+        <v>204</v>
+      </c>
+      <c r="I92" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13">
       <c r="A93" t="s">
         <v>181</v>
       </c>
       <c r="B93" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H93" t="s">
+        <v>206</v>
+      </c>
+      <c r="I93" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13">
       <c r="A94" t="s">
         <v>183</v>
       </c>
       <c r="B94" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H94" t="s">
+        <v>207</v>
+      </c>
+      <c r="I94" t="s">
+        <v>615</v>
+      </c>
+      <c r="M94" s="1"/>
+    </row>
+    <row r="95" spans="1:13">
       <c r="A95" t="s">
         <v>185</v>
       </c>
       <c r="B95" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H95" t="s">
+        <v>209</v>
+      </c>
+      <c r="I95" t="s">
+        <v>1150</v>
+      </c>
+      <c r="M95" s="1"/>
+    </row>
+    <row r="96" spans="1:13">
       <c r="A96" t="s">
         <v>187</v>
       </c>
       <c r="B96" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H96" t="s">
+        <v>211</v>
+      </c>
+      <c r="I96" t="s">
+        <v>953</v>
+      </c>
+      <c r="M96" s="1"/>
+    </row>
+    <row r="97" spans="1:13">
       <c r="A97" t="s">
         <v>189</v>
       </c>
       <c r="B97" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H97" t="s">
+        <v>215</v>
+      </c>
+      <c r="I97" t="s">
+        <v>623</v>
+      </c>
+      <c r="M97" s="1"/>
+    </row>
+    <row r="98" spans="1:13">
       <c r="A98" t="s">
         <v>191</v>
       </c>
       <c r="B98" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H98" t="s">
+        <v>217</v>
+      </c>
+      <c r="I98" t="s">
+        <v>623</v>
+      </c>
+      <c r="M98" s="1"/>
+    </row>
+    <row r="99" spans="1:13">
       <c r="A99" t="s">
         <v>192</v>
       </c>
       <c r="B99" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H99" t="s">
+        <v>219</v>
+      </c>
+      <c r="I99" t="s">
+        <v>954</v>
+      </c>
+      <c r="M99" s="1"/>
+    </row>
+    <row r="100" spans="1:13">
       <c r="A100" t="s">
         <v>194</v>
       </c>
       <c r="B100" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H100" t="s">
+        <v>221</v>
+      </c>
+      <c r="I100" t="s">
+        <v>352</v>
+      </c>
+      <c r="M100" s="1"/>
+    </row>
+    <row r="101" spans="1:13">
       <c r="A101" t="s">
         <v>196</v>
       </c>
       <c r="B101" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H101" t="s">
+        <v>223</v>
+      </c>
+      <c r="I101" t="s">
+        <v>359</v>
+      </c>
+      <c r="M101" s="1"/>
+    </row>
+    <row r="102" spans="1:13">
       <c r="A102" t="s">
         <v>198</v>
       </c>
       <c r="B102" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H102" t="s">
+        <v>225</v>
+      </c>
+      <c r="I102" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13">
       <c r="A103" t="s">
         <v>200</v>
       </c>
       <c r="B103" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H103" t="s">
+        <v>227</v>
+      </c>
+      <c r="I103" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13">
       <c r="A104" t="s">
         <v>202</v>
       </c>
       <c r="B104" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H104" t="s">
+        <v>231</v>
+      </c>
+      <c r="I104" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13">
       <c r="A105" t="s">
         <v>204</v>
       </c>
       <c r="B105" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H105" t="s">
+        <v>233</v>
+      </c>
+      <c r="I105" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13">
       <c r="A106" t="s">
         <v>206</v>
       </c>
       <c r="B106" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H106" t="s">
+        <v>235</v>
+      </c>
+      <c r="I106" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13">
       <c r="A107" t="s">
         <v>207</v>
       </c>
       <c r="B107" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H107" t="s">
+        <v>237</v>
+      </c>
+      <c r="I107" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13">
       <c r="A108" t="s">
         <v>209</v>
       </c>
       <c r="B108" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H108" t="s">
+        <v>239</v>
+      </c>
+      <c r="I108" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13">
       <c r="A109" t="s">
         <v>211</v>
       </c>
       <c r="B109" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H109" t="s">
+        <v>241</v>
+      </c>
+      <c r="I109" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13">
       <c r="A110" t="s">
         <v>213</v>
       </c>
       <c r="B110" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H110" t="s">
+        <v>243</v>
+      </c>
+      <c r="I110" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13">
       <c r="A111" t="s">
         <v>215</v>
       </c>
       <c r="B111" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H111" t="s">
+        <v>244</v>
+      </c>
+      <c r="I111" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13">
       <c r="A112" t="s">
         <v>217</v>
       </c>
       <c r="B112" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H112" t="s">
+        <v>246</v>
+      </c>
+      <c r="I112" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" t="s">
         <v>219</v>
       </c>
       <c r="B113" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H113" t="s">
+        <v>247</v>
+      </c>
+      <c r="I113" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" t="s">
         <v>221</v>
       </c>
       <c r="B114" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H114" t="s">
+        <v>506</v>
+      </c>
+      <c r="I114" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" t="s">
         <v>223</v>
       </c>
       <c r="B115" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H115" t="s">
+        <v>971</v>
+      </c>
+      <c r="I115" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" t="s">
         <v>225</v>
       </c>
       <c r="B116" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H116" t="s">
+        <v>972</v>
+      </c>
+      <c r="I116" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" t="s">
         <v>227</v>
       </c>
       <c r="B117" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H117" t="s">
+        <v>511</v>
+      </c>
+      <c r="I117" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" t="s">
         <v>229</v>
       </c>
       <c r="B118" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H118" t="s">
+        <v>513</v>
+      </c>
+      <c r="I118" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" t="s">
         <v>231</v>
       </c>
       <c r="B119" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H119" t="s">
+        <v>517</v>
+      </c>
+      <c r="I119" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" t="s">
         <v>233</v>
       </c>
       <c r="B120" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H120" t="s">
+        <v>518</v>
+      </c>
+      <c r="I120" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" t="s">
         <v>235</v>
       </c>
       <c r="B121" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H121" t="s">
+        <v>973</v>
+      </c>
+      <c r="I121" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" t="s">
         <v>237</v>
       </c>
       <c r="B122" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H122" t="s">
+        <v>975</v>
+      </c>
+      <c r="I122" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" t="s">
         <v>239</v>
       </c>
       <c r="B123" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H123" t="s">
+        <v>974</v>
+      </c>
+      <c r="I123" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" t="s">
         <v>241</v>
       </c>
       <c r="B124" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H124" t="s">
+        <v>976</v>
+      </c>
+      <c r="I124" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" t="s">
         <v>243</v>
       </c>
       <c r="B125" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H125" t="s">
+        <v>977</v>
+      </c>
+      <c r="I125" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" t="s">
         <v>244</v>
       </c>
       <c r="B126" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H126" t="s">
+        <v>534</v>
+      </c>
+      <c r="I126" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" t="s">
         <v>246</v>
       </c>
       <c r="B127" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H127" t="s">
+        <v>978</v>
+      </c>
+      <c r="I127" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" t="s">
         <v>247</v>
       </c>
       <c r="B128" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H128" t="s">
+        <v>979</v>
+      </c>
+      <c r="I128" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" t="s">
         <v>249</v>
       </c>
       <c r="B129" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H129" t="s">
+        <v>540</v>
+      </c>
+      <c r="I129" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" t="s">
         <v>251</v>
       </c>
       <c r="B130" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H130" t="s">
+        <v>544</v>
+      </c>
+      <c r="I130" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" t="s">
         <v>253</v>
       </c>
       <c r="B131" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H131" t="s">
+        <v>546</v>
+      </c>
+      <c r="I131" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" t="s">
         <v>255</v>
       </c>
       <c r="B132" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H132" t="s">
+        <v>548</v>
+      </c>
+      <c r="I132" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" t="s">
         <v>257</v>
       </c>
       <c r="B133" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H133" t="s">
+        <v>981</v>
+      </c>
+      <c r="I133" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" t="s">
         <v>259</v>
       </c>
       <c r="B134" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H134" t="s">
+        <v>982</v>
+      </c>
+      <c r="I134" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" t="s">
         <v>261</v>
       </c>
       <c r="B135" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H135" t="s">
+        <v>552</v>
+      </c>
+      <c r="I135" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" t="s">
         <v>263</v>
       </c>
       <c r="B136" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H136" t="s">
+        <v>558</v>
+      </c>
+      <c r="I136" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" t="s">
         <v>265</v>
       </c>
       <c r="B137" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H137" t="s">
+        <v>983</v>
+      </c>
+      <c r="I137" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138" t="s">
         <v>267</v>
       </c>
       <c r="B138" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H138" t="s">
+        <v>984</v>
+      </c>
+      <c r="I138" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" t="s">
         <v>269</v>
       </c>
       <c r="B139" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H139" t="s">
+        <v>560</v>
+      </c>
+      <c r="I139" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140" t="s">
         <v>271</v>
       </c>
       <c r="B140" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H140" t="s">
+        <v>568</v>
+      </c>
+      <c r="I140" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141" t="s">
         <v>273</v>
       </c>
       <c r="B141" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H141" t="s">
+        <v>985</v>
+      </c>
+      <c r="I141" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142" t="s">
         <v>275</v>
       </c>
       <c r="B142" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H142" t="s">
+        <v>986</v>
+      </c>
+      <c r="I142" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143" t="s">
         <v>277</v>
       </c>
       <c r="B143" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H143" t="s">
+        <v>570</v>
+      </c>
+      <c r="I143" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="A144" t="s">
         <v>279</v>
       </c>
       <c r="B144" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H144" t="s">
+        <v>572</v>
+      </c>
+      <c r="I144" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="A145" t="s">
         <v>281</v>
       </c>
       <c r="B145" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H145" t="s">
+        <v>574</v>
+      </c>
+      <c r="I145" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="A146" t="s">
         <v>283</v>
       </c>
       <c r="B146" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H146" t="s">
+        <v>578</v>
+      </c>
+      <c r="I146" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="A147" t="s">
         <v>285</v>
       </c>
       <c r="B147" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H147" t="s">
+        <v>989</v>
+      </c>
+      <c r="I147" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
       <c r="A148" t="s">
         <v>287</v>
       </c>
       <c r="B148" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H148" t="s">
+        <v>990</v>
+      </c>
+      <c r="I148" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
       <c r="A149" t="s">
         <v>289</v>
       </c>
       <c r="B149" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H149" t="s">
+        <v>376</v>
+      </c>
+      <c r="I149" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
       <c r="A150" t="s">
         <v>291</v>
       </c>
       <c r="B150" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H150" t="s">
+        <v>378</v>
+      </c>
+      <c r="I150" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
       <c r="A151" t="s">
         <v>293</v>
       </c>
       <c r="B151" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H151" t="s">
+        <v>380</v>
+      </c>
+      <c r="I151" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
       <c r="A152" t="s">
         <v>295</v>
       </c>
       <c r="B152" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H152" t="s">
+        <v>382</v>
+      </c>
+      <c r="I152" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
       <c r="A153" t="s">
         <v>297</v>
       </c>
       <c r="B153" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H153" t="s">
+        <v>384</v>
+      </c>
+      <c r="I153" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
       <c r="A154" t="s">
         <v>299</v>
       </c>
       <c r="B154" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H154" t="s">
+        <v>386</v>
+      </c>
+      <c r="I154" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
       <c r="A155" t="s">
         <v>301</v>
       </c>
       <c r="B155" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H155" t="s">
+        <v>388</v>
+      </c>
+      <c r="I155" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
       <c r="A156" t="s">
         <v>303</v>
       </c>
       <c r="B156" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H156" t="s">
+        <v>390</v>
+      </c>
+      <c r="I156" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
       <c r="A157" t="s">
         <v>305</v>
       </c>
       <c r="B157" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H157" t="s">
+        <v>392</v>
+      </c>
+      <c r="I157" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
       <c r="A158" t="s">
         <v>307</v>
       </c>
       <c r="B158" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H158" t="s">
+        <v>394</v>
+      </c>
+      <c r="I158" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
       <c r="A159" t="s">
         <v>309</v>
       </c>
       <c r="B159" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H159" t="s">
+        <v>396</v>
+      </c>
+      <c r="I159" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
       <c r="A160" t="s">
         <v>311</v>
       </c>
       <c r="B160" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H160" t="s">
+        <v>398</v>
+      </c>
+      <c r="I160" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
       <c r="A161" t="s">
         <v>313</v>
       </c>
       <c r="B161" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H161" t="s">
+        <v>403</v>
+      </c>
+      <c r="I161" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
       <c r="A162" t="s">
         <v>315</v>
       </c>
       <c r="B162" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H162" t="s">
+        <v>405</v>
+      </c>
+      <c r="I162" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
       <c r="A163" t="s">
         <v>317</v>
       </c>
       <c r="B163" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H163" t="s">
+        <v>407</v>
+      </c>
+      <c r="I163" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
       <c r="A164" t="s">
         <v>319</v>
       </c>
       <c r="B164" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H164" t="s">
+        <v>409</v>
+      </c>
+      <c r="I164" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
       <c r="A165" t="s">
         <v>321</v>
       </c>
       <c r="B165" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H165" t="s">
+        <v>411</v>
+      </c>
+      <c r="I165" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
       <c r="A166" t="s">
         <v>323</v>
       </c>
       <c r="B166" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H166" t="s">
+        <v>413</v>
+      </c>
+      <c r="I166" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
       <c r="A167" t="s">
         <v>325</v>
       </c>
       <c r="B167" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H167" t="s">
+        <v>419</v>
+      </c>
+      <c r="I167" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
       <c r="A168" t="s">
         <v>327</v>
       </c>
       <c r="B168" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H168" t="s">
+        <v>421</v>
+      </c>
+      <c r="I168" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
       <c r="A169" t="s">
         <v>329</v>
       </c>
       <c r="B169" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H169" t="s">
+        <v>423</v>
+      </c>
+      <c r="I169" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
       <c r="A170" t="s">
         <v>331</v>
       </c>
       <c r="B170" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H170" t="s">
+        <v>425</v>
+      </c>
+      <c r="I170" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
       <c r="A171" t="s">
         <v>333</v>
       </c>
       <c r="B171" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H171" t="s">
+        <v>427</v>
+      </c>
+      <c r="I171" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
       <c r="A172" t="s">
         <v>335</v>
       </c>
       <c r="B172" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H172" t="s">
+        <v>429</v>
+      </c>
+      <c r="I172" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
       <c r="A173" t="s">
         <v>337</v>
       </c>
       <c r="B173" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H173" t="s">
+        <v>431</v>
+      </c>
+      <c r="I173" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
       <c r="A174" t="s">
         <v>339</v>
       </c>
       <c r="B174" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H174" t="s">
+        <v>433</v>
+      </c>
+      <c r="I174" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
       <c r="A175" t="s">
         <v>341</v>
       </c>
       <c r="B175" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H175" t="s">
+        <v>435</v>
+      </c>
+      <c r="I175" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
       <c r="A176" t="s">
         <v>343</v>
       </c>
       <c r="B176" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H176" t="s">
+        <v>437</v>
+      </c>
+      <c r="I176" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9">
       <c r="A177" t="s">
         <v>345</v>
       </c>
       <c r="B177" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H177" t="s">
+        <v>439</v>
+      </c>
+      <c r="I177" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9">
       <c r="A178" t="s">
         <v>347</v>
       </c>
       <c r="B178" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H178" t="s">
+        <v>441</v>
+      </c>
+      <c r="I178" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9">
       <c r="A179" t="s">
         <v>349</v>
       </c>
       <c r="B179" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H179" t="s">
+        <v>443</v>
+      </c>
+      <c r="I179" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9">
       <c r="A180" t="s">
         <v>351</v>
       </c>
       <c r="B180" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H180" t="s">
+        <v>445</v>
+      </c>
+      <c r="I180" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9">
       <c r="A181" t="s">
         <v>353</v>
       </c>
       <c r="B181" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H181" t="s">
+        <v>447</v>
+      </c>
+      <c r="I181" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9">
       <c r="A182" t="s">
         <v>355</v>
       </c>
       <c r="B182" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H182" t="s">
+        <v>449</v>
+      </c>
+      <c r="I182" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9">
       <c r="A183" t="s">
         <v>357</v>
       </c>
       <c r="B183" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H183" t="s">
+        <v>451</v>
+      </c>
+      <c r="I183" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9">
       <c r="A184" t="s">
         <v>358</v>
       </c>
       <c r="B184" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H184" t="s">
+        <v>453</v>
+      </c>
+      <c r="I184" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9">
       <c r="A185" t="s">
         <v>360</v>
       </c>
       <c r="B185" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H185" t="s">
+        <v>455</v>
+      </c>
+      <c r="I185" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9">
       <c r="A186" t="s">
         <v>362</v>
       </c>
       <c r="B186" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H186" t="s">
+        <v>457</v>
+      </c>
+      <c r="I186" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9">
       <c r="A187" t="s">
         <v>364</v>
       </c>
       <c r="B187" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H187" t="s">
+        <v>459</v>
+      </c>
+      <c r="I187" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9">
       <c r="A188" t="s">
         <v>366</v>
       </c>
       <c r="B188" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H188" t="s">
+        <v>461</v>
+      </c>
+      <c r="I188" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9">
       <c r="A189" t="s">
         <v>368</v>
       </c>
       <c r="B189" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H189" t="s">
+        <v>463</v>
+      </c>
+      <c r="I189" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9">
       <c r="A190" t="s">
         <v>370</v>
       </c>
       <c r="B190" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H190" t="s">
+        <v>465</v>
+      </c>
+      <c r="I190" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9">
       <c r="A191" t="s">
         <v>372</v>
       </c>
       <c r="B191" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H191" t="s">
+        <v>467</v>
+      </c>
+      <c r="I191" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9">
       <c r="A192" t="s">
         <v>374</v>
       </c>
       <c r="B192" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H192" t="s">
+        <v>469</v>
+      </c>
+      <c r="I192" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9">
       <c r="A193" t="s">
         <v>376</v>
       </c>
       <c r="B193" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H193" t="s">
+        <v>471</v>
+      </c>
+      <c r="I193" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9">
       <c r="A194" t="s">
         <v>378</v>
       </c>
       <c r="B194" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H194" t="s">
+        <v>473</v>
+      </c>
+      <c r="I194" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9">
       <c r="A195" t="s">
         <v>380</v>
       </c>
       <c r="B195" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H195" t="s">
+        <v>475</v>
+      </c>
+      <c r="I195" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9">
       <c r="A196" t="s">
         <v>382</v>
       </c>
       <c r="B196" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H196" t="s">
+        <v>477</v>
+      </c>
+      <c r="I196" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9">
       <c r="A197" t="s">
         <v>384</v>
       </c>
       <c r="B197" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H197" t="s">
+        <v>479</v>
+      </c>
+      <c r="I197" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9">
       <c r="A198" t="s">
         <v>386</v>
       </c>
       <c r="B198" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H198" t="s">
+        <v>481</v>
+      </c>
+      <c r="I198" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9">
       <c r="A199" t="s">
         <v>388</v>
       </c>
       <c r="B199" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H199" t="s">
+        <v>483</v>
+      </c>
+      <c r="I199" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9">
       <c r="A200" t="s">
         <v>390</v>
       </c>
       <c r="B200" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H200" t="s">
+        <v>485</v>
+      </c>
+      <c r="I200" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9">
       <c r="A201" t="s">
         <v>392</v>
       </c>
       <c r="B201" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H201" t="s">
+        <v>487</v>
+      </c>
+      <c r="I201" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9">
       <c r="A202" t="s">
         <v>394</v>
       </c>
       <c r="B202" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H202" t="s">
+        <v>489</v>
+      </c>
+      <c r="I202" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9">
       <c r="A203" t="s">
         <v>396</v>
       </c>
       <c r="B203" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H203" t="s">
+        <v>491</v>
+      </c>
+      <c r="I203" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9">
       <c r="A204" t="s">
         <v>398</v>
       </c>
       <c r="B204" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H204" t="s">
+        <v>493</v>
+      </c>
+      <c r="I204" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9">
       <c r="A205" t="s">
         <v>400</v>
       </c>
       <c r="B205" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H205" t="s">
+        <v>495</v>
+      </c>
+      <c r="I205" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9">
       <c r="A206" t="s">
         <v>401</v>
       </c>
       <c r="B206" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H206" t="s">
+        <v>501</v>
+      </c>
+      <c r="I206" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9">
       <c r="A207" t="s">
         <v>403</v>
       </c>
       <c r="B207" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H207" t="s">
+        <v>249</v>
+      </c>
+      <c r="I207" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9">
       <c r="A208" t="s">
         <v>405</v>
       </c>
       <c r="B208" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H208" t="s">
+        <v>251</v>
+      </c>
+      <c r="I208" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9">
       <c r="A209" t="s">
         <v>407</v>
       </c>
       <c r="B209" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H209" t="s">
+        <v>253</v>
+      </c>
+      <c r="I209" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9">
       <c r="A210" t="s">
         <v>409</v>
       </c>
       <c r="B210" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H210" t="s">
+        <v>255</v>
+      </c>
+      <c r="I210" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9">
       <c r="A211" t="s">
         <v>411</v>
       </c>
       <c r="B211" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H211" t="s">
+        <v>257</v>
+      </c>
+      <c r="I211" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9">
       <c r="A212" t="s">
         <v>413</v>
       </c>
       <c r="B212" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H212" t="s">
+        <v>261</v>
+      </c>
+      <c r="I212" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9">
       <c r="A213" t="s">
         <v>415</v>
       </c>
       <c r="B213" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H213" t="s">
+        <v>263</v>
+      </c>
+      <c r="I213" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9">
       <c r="A214" t="s">
         <v>417</v>
       </c>
       <c r="B214" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H214" t="s">
+        <v>265</v>
+      </c>
+      <c r="I214" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9">
       <c r="A215" t="s">
         <v>419</v>
       </c>
       <c r="B215" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H215" t="s">
+        <v>267</v>
+      </c>
+      <c r="I215" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9">
       <c r="A216" t="s">
         <v>421</v>
       </c>
       <c r="B216" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H216" t="s">
+        <v>269</v>
+      </c>
+      <c r="I216" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9">
       <c r="A217" t="s">
         <v>423</v>
       </c>
       <c r="B217" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H217" t="s">
+        <v>271</v>
+      </c>
+      <c r="I217" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9">
       <c r="A218" t="s">
         <v>425</v>
       </c>
       <c r="B218" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H218" t="s">
+        <v>273</v>
+      </c>
+      <c r="I218" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9">
       <c r="A219" t="s">
         <v>427</v>
       </c>
       <c r="B219" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H219" t="s">
+        <v>275</v>
+      </c>
+      <c r="I219" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9">
       <c r="A220" t="s">
         <v>429</v>
       </c>
       <c r="B220" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H220" t="s">
+        <v>277</v>
+      </c>
+      <c r="I220" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9">
       <c r="A221" t="s">
         <v>431</v>
       </c>
       <c r="B221" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H221" t="s">
+        <v>279</v>
+      </c>
+      <c r="I221" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9">
       <c r="A222" t="s">
         <v>433</v>
       </c>
       <c r="B222" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H222" t="s">
+        <v>281</v>
+      </c>
+      <c r="I222" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9">
       <c r="A223" t="s">
         <v>435</v>
       </c>
       <c r="B223" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H223" t="s">
+        <v>283</v>
+      </c>
+      <c r="I223" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9">
       <c r="A224" t="s">
         <v>437</v>
       </c>
       <c r="B224" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H224" t="s">
+        <v>285</v>
+      </c>
+      <c r="I224" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9">
       <c r="A225" t="s">
         <v>439</v>
       </c>
       <c r="B225" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H225" t="s">
+        <v>287</v>
+      </c>
+      <c r="I225" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9">
       <c r="A226" t="s">
         <v>441</v>
       </c>
       <c r="B226" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H226" t="s">
+        <v>289</v>
+      </c>
+      <c r="I226" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9">
       <c r="A227" t="s">
         <v>443</v>
       </c>
       <c r="B227" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H227" t="s">
+        <v>293</v>
+      </c>
+      <c r="I227" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9">
       <c r="A228" t="s">
         <v>445</v>
       </c>
       <c r="B228" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H228" t="s">
+        <v>295</v>
+      </c>
+      <c r="I228" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9">
       <c r="A229" t="s">
         <v>447</v>
       </c>
       <c r="B229" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H229" t="s">
+        <v>297</v>
+      </c>
+      <c r="I229" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9">
       <c r="A230" t="s">
         <v>449</v>
       </c>
       <c r="B230" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H230" t="s">
+        <v>299</v>
+      </c>
+      <c r="I230" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9">
       <c r="A231" t="s">
         <v>451</v>
       </c>
       <c r="B231" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H231" t="s">
+        <v>301</v>
+      </c>
+      <c r="I231" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9">
       <c r="A232" t="s">
         <v>453</v>
       </c>
       <c r="B232" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H232" t="s">
+        <v>303</v>
+      </c>
+      <c r="I232" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9">
       <c r="A233" t="s">
         <v>455</v>
       </c>
       <c r="B233" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H233" t="s">
+        <v>305</v>
+      </c>
+      <c r="I233" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9">
       <c r="A234" t="s">
         <v>457</v>
       </c>
       <c r="B234" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H234" t="s">
+        <v>307</v>
+      </c>
+      <c r="I234" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9">
       <c r="A235" t="s">
         <v>459</v>
       </c>
       <c r="B235" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H235" t="s">
+        <v>309</v>
+      </c>
+      <c r="I235" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9">
       <c r="A236" t="s">
         <v>461</v>
       </c>
       <c r="B236" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H236" t="s">
+        <v>311</v>
+      </c>
+      <c r="I236" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9">
       <c r="A237" t="s">
         <v>463</v>
       </c>
       <c r="B237" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H237" t="s">
+        <v>313</v>
+      </c>
+      <c r="I237" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9">
       <c r="A238" t="s">
         <v>465</v>
       </c>
       <c r="B238" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H238" t="s">
+        <v>315</v>
+      </c>
+      <c r="I238" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9">
       <c r="A239" t="s">
         <v>467</v>
       </c>
       <c r="B239" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H239" t="s">
+        <v>317</v>
+      </c>
+      <c r="I239" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9">
       <c r="A240" t="s">
         <v>469</v>
       </c>
       <c r="B240" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H240" t="s">
+        <v>319</v>
+      </c>
+      <c r="I240" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9">
       <c r="A241" t="s">
         <v>471</v>
       </c>
       <c r="B241" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H241" t="s">
+        <v>321</v>
+      </c>
+      <c r="I241" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9">
       <c r="A242" t="s">
         <v>473</v>
       </c>
       <c r="B242" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H242" t="s">
+        <v>323</v>
+      </c>
+      <c r="I242" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9">
       <c r="A243" t="s">
         <v>475</v>
       </c>
       <c r="B243" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H243" t="s">
+        <v>325</v>
+      </c>
+      <c r="I243" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9">
       <c r="A244" t="s">
         <v>477</v>
       </c>
       <c r="B244" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H244" t="s">
+        <v>327</v>
+      </c>
+      <c r="I244" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9">
       <c r="A245" t="s">
         <v>479</v>
       </c>
       <c r="B245" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H245" t="s">
+        <v>329</v>
+      </c>
+      <c r="I245" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9">
       <c r="A246" t="s">
         <v>481</v>
       </c>
       <c r="B246" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H246" t="s">
+        <v>331</v>
+      </c>
+      <c r="I246" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9">
       <c r="A247" t="s">
         <v>483</v>
       </c>
       <c r="B247" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H247" t="s">
+        <v>333</v>
+      </c>
+      <c r="I247" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9">
       <c r="A248" t="s">
         <v>485</v>
       </c>
       <c r="B248" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H248" t="s">
+        <v>335</v>
+      </c>
+      <c r="I248" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9">
       <c r="A249" t="s">
         <v>487</v>
       </c>
       <c r="B249" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H249" t="s">
+        <v>337</v>
+      </c>
+      <c r="I249" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9">
       <c r="A250" t="s">
         <v>489</v>
       </c>
       <c r="B250" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H250" t="s">
+        <v>341</v>
+      </c>
+      <c r="I250" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9">
       <c r="A251" t="s">
         <v>491</v>
       </c>
       <c r="B251" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H251" t="s">
+        <v>343</v>
+      </c>
+      <c r="I251" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9">
       <c r="A252" t="s">
         <v>493</v>
       </c>
       <c r="B252" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H252" t="s">
+        <v>345</v>
+      </c>
+      <c r="I252" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9">
       <c r="A253" t="s">
         <v>495</v>
       </c>
       <c r="B253" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H253" t="s">
+        <v>347</v>
+      </c>
+      <c r="I253" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9">
       <c r="A254" t="s">
         <v>497</v>
       </c>
       <c r="B254" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H254" t="s">
+        <v>349</v>
+      </c>
+      <c r="I254" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9">
       <c r="A255" t="s">
         <v>499</v>
       </c>
       <c r="B255" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H255" t="s">
+        <v>351</v>
+      </c>
+      <c r="I255" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9">
       <c r="A256" t="s">
         <v>501</v>
       </c>
       <c r="B256" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H256" t="s">
+        <v>353</v>
+      </c>
+      <c r="I256" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9">
       <c r="A257" t="s">
         <v>502</v>
       </c>
       <c r="B257" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H257" t="s">
+        <v>357</v>
+      </c>
+      <c r="I257" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9">
       <c r="A258" t="s">
         <v>504</v>
       </c>
       <c r="B258" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H258" t="s">
+        <v>358</v>
+      </c>
+      <c r="I258" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9">
       <c r="A259" t="s">
         <v>506</v>
       </c>
       <c r="B259" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H259" t="s">
+        <v>360</v>
+      </c>
+      <c r="I259" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9">
       <c r="A260" t="s">
         <v>508</v>
       </c>
       <c r="B260" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H260" t="s">
+        <v>362</v>
+      </c>
+      <c r="I260" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9">
       <c r="A261" t="s">
         <v>509</v>
       </c>
       <c r="B261" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H261" t="s">
+        <v>364</v>
+      </c>
+      <c r="I261" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9">
       <c r="A262" t="s">
         <v>511</v>
       </c>
       <c r="B262" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H262" t="s">
+        <v>366</v>
+      </c>
+      <c r="I262" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9">
       <c r="A263" t="s">
         <v>513</v>
       </c>
       <c r="B263" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H263" t="s">
+        <v>368</v>
+      </c>
+      <c r="I263" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9">
       <c r="A264" t="s">
         <v>515</v>
       </c>
       <c r="B264" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H264" t="s">
+        <v>370</v>
+      </c>
+      <c r="I264" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9">
       <c r="A265" t="s">
         <v>517</v>
       </c>
       <c r="B265" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H265" t="s">
+        <v>372</v>
+      </c>
+      <c r="I265" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9">
       <c r="A266" t="s">
         <v>518</v>
       </c>
       <c r="B266" t="s">
         <v>519</v>
       </c>
-    </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H266" t="s">
+        <v>374</v>
+      </c>
+      <c r="I266" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9">
       <c r="A267" t="s">
         <v>520</v>
       </c>
       <c r="B267" t="s">
         <v>521</v>
       </c>
-    </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H267" t="s">
+        <v>582</v>
+      </c>
+      <c r="I267" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9">
       <c r="A268" t="s">
         <v>522</v>
       </c>
       <c r="B268" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H268" t="s">
+        <v>586</v>
+      </c>
+      <c r="I268" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9">
       <c r="A269" t="s">
         <v>524</v>
       </c>
       <c r="B269" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H269" t="s">
+        <v>588</v>
+      </c>
+      <c r="I269" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9">
       <c r="A270" t="s">
         <v>526</v>
       </c>
       <c r="B270" t="s">
         <v>527</v>
       </c>
-    </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H270" t="s">
+        <v>997</v>
+      </c>
+      <c r="I270" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9">
       <c r="A271" t="s">
         <v>528</v>
       </c>
       <c r="B271" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H271" t="s">
+        <v>998</v>
+      </c>
+      <c r="I271" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9">
       <c r="A272" t="s">
         <v>530</v>
       </c>
       <c r="B272" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H272" t="s">
+        <v>594</v>
+      </c>
+      <c r="I272" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9">
       <c r="A273" t="s">
         <v>532</v>
       </c>
       <c r="B273" t="s">
         <v>533</v>
       </c>
-    </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H273" t="s">
+        <v>1000</v>
+      </c>
+      <c r="I273" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9">
       <c r="A274" t="s">
         <v>534</v>
       </c>
       <c r="B274" t="s">
         <v>535</v>
       </c>
-    </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H274" t="s">
+        <v>1001</v>
+      </c>
+      <c r="I274" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9">
       <c r="A275" t="s">
         <v>536</v>
       </c>
       <c r="B275" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H275" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I275" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9">
       <c r="A276" t="s">
         <v>538</v>
       </c>
       <c r="B276" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H276" t="s">
+        <v>1003</v>
+      </c>
+      <c r="I276" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9">
       <c r="A277" t="s">
         <v>540</v>
       </c>
       <c r="B277" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H277" t="s">
+        <v>612</v>
+      </c>
+      <c r="I277" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9">
       <c r="A278" t="s">
         <v>542</v>
       </c>
       <c r="B278" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H278" t="s">
+        <v>618</v>
+      </c>
+      <c r="I278" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9">
       <c r="A279" t="s">
         <v>544</v>
       </c>
       <c r="B279" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H279" t="s">
+        <v>1004</v>
+      </c>
+      <c r="I279" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9">
       <c r="A280" t="s">
         <v>546</v>
       </c>
       <c r="B280" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H280" t="s">
+        <v>1005</v>
+      </c>
+      <c r="I280" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9">
       <c r="A281" t="s">
         <v>548</v>
       </c>
       <c r="B281" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H281" t="s">
+        <v>622</v>
+      </c>
+      <c r="I281" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9">
       <c r="A282" t="s">
         <v>550</v>
       </c>
       <c r="B282" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H282" t="s">
+        <v>626</v>
+      </c>
+      <c r="I282" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9">
       <c r="A283" t="s">
         <v>552</v>
       </c>
       <c r="B283" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H283" t="s">
+        <v>628</v>
+      </c>
+      <c r="I283" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9">
       <c r="A284" t="s">
         <v>554</v>
       </c>
       <c r="B284" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H284" t="s">
+        <v>1006</v>
+      </c>
+      <c r="I284" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9">
       <c r="A285" t="s">
         <v>556</v>
       </c>
       <c r="B285" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H285" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I285" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9">
       <c r="A286" t="s">
         <v>558</v>
       </c>
       <c r="B286" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H286" t="s">
+        <v>638</v>
+      </c>
+      <c r="I286" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9">
       <c r="A287" t="s">
         <v>560</v>
       </c>
       <c r="B287" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H287" t="s">
+        <v>1009</v>
+      </c>
+      <c r="I287" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9">
       <c r="A288" t="s">
         <v>562</v>
       </c>
       <c r="B288" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H288" t="s">
+        <v>1010</v>
+      </c>
+      <c r="I288" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="289" spans="1:14">
       <c r="A289" t="s">
         <v>564</v>
       </c>
       <c r="B289" t="s">
         <v>565</v>
       </c>
-    </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H289" t="s">
+        <v>640</v>
+      </c>
+      <c r="I289" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="290" spans="1:14">
       <c r="A290" t="s">
         <v>566</v>
       </c>
       <c r="B290" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H290" t="s">
+        <v>642</v>
+      </c>
+      <c r="I290" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="291" spans="1:14">
       <c r="A291" t="s">
         <v>568</v>
       </c>
       <c r="B291" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H291" t="s">
+        <v>646</v>
+      </c>
+      <c r="I291" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="292" spans="1:14">
       <c r="A292" t="s">
         <v>570</v>
       </c>
       <c r="B292" t="s">
         <v>571</v>
       </c>
-    </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H292" t="s">
+        <v>648</v>
+      </c>
+      <c r="I292" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="293" spans="1:14">
       <c r="A293" t="s">
         <v>572</v>
       </c>
       <c r="B293" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H293" t="s">
+        <v>1011</v>
+      </c>
+      <c r="I293" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="294" spans="1:14">
       <c r="A294" t="s">
         <v>574</v>
       </c>
       <c r="B294" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H294" t="s">
+        <v>1012</v>
+      </c>
+      <c r="I294" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="295" spans="1:14">
       <c r="A295" t="s">
         <v>576</v>
       </c>
       <c r="B295" t="s">
         <v>577</v>
       </c>
-    </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H295" t="s">
+        <v>1013</v>
+      </c>
+      <c r="I295" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="296" spans="1:14">
       <c r="A296" t="s">
         <v>578</v>
       </c>
       <c r="B296" t="s">
         <v>579</v>
       </c>
-    </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H296" t="s">
+        <v>1016</v>
+      </c>
+      <c r="I296" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="297" spans="1:14">
       <c r="A297" t="s">
         <v>580</v>
       </c>
       <c r="B297" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H297" t="s">
+        <v>1017</v>
+      </c>
+      <c r="I297" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="298" spans="1:14">
       <c r="A298" t="s">
         <v>582</v>
       </c>
       <c r="B298" t="s">
         <v>583</v>
       </c>
-    </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H298" t="s">
+        <v>1018</v>
+      </c>
+      <c r="I298" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="299" spans="1:14">
       <c r="A299" t="s">
         <v>584</v>
       </c>
       <c r="B299" t="s">
         <v>585</v>
       </c>
-    </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H299" t="s">
+        <v>1019</v>
+      </c>
+      <c r="I299" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="300" spans="1:14">
       <c r="A300" t="s">
         <v>586</v>
       </c>
       <c r="B300" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H300" t="s">
+        <v>1020</v>
+      </c>
+      <c r="I300" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="301" spans="1:14">
       <c r="A301" t="s">
         <v>588</v>
       </c>
       <c r="B301" t="s">
         <v>589</v>
       </c>
-    </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H301" t="s">
+        <v>1021</v>
+      </c>
+      <c r="I301" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="302" spans="1:14">
       <c r="A302" t="s">
         <v>590</v>
       </c>
       <c r="B302" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H302" t="s">
+        <v>1022</v>
+      </c>
+      <c r="I302" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="303" spans="1:14">
       <c r="A303" t="s">
         <v>592</v>
       </c>
       <c r="B303" t="s">
         <v>593</v>
       </c>
-    </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H303" t="s">
+        <v>1023</v>
+      </c>
+      <c r="I303" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="304" spans="1:14">
       <c r="A304" t="s">
         <v>594</v>
       </c>
       <c r="B304" t="s">
         <v>595</v>
       </c>
-    </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A305" t="s">
+      <c r="H304" t="s">
+        <v>1024</v>
+      </c>
+      <c r="I304" t="s">
+        <v>160</v>
+      </c>
+      <c r="N304" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="305" spans="1:9">
+      <c r="H305" t="s">
+        <v>1216</v>
+      </c>
+      <c r="I305" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="306" spans="1:9">
+      <c r="H306" t="s">
+        <v>1218</v>
+      </c>
+      <c r="I306" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="307" spans="1:9">
+      <c r="H307" t="s">
+        <v>1219</v>
+      </c>
+      <c r="I307" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="308" spans="1:9">
+      <c r="H308" t="s">
+        <v>1220</v>
+      </c>
+      <c r="I308" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="309" spans="1:9">
+      <c r="H309" t="s">
+        <v>1221</v>
+      </c>
+      <c r="I309" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="310" spans="1:9">
+      <c r="H310" t="s">
+        <v>1222</v>
+      </c>
+      <c r="I310" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="311" spans="1:9">
+      <c r="H311" t="s">
+        <v>1223</v>
+      </c>
+      <c r="I311" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="312" spans="1:9">
+      <c r="H312" t="s">
+        <v>1223</v>
+      </c>
+      <c r="I312" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="313" spans="1:9">
+      <c r="H313" t="s">
+        <v>1025</v>
+      </c>
+      <c r="I313" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="314" spans="1:9">
+      <c r="H314" t="s">
+        <v>1026</v>
+      </c>
+      <c r="I314" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="315" spans="1:9">
+      <c r="H315" t="s">
+        <v>1027</v>
+      </c>
+      <c r="I315" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="316" spans="1:9">
+      <c r="H316" t="s">
+        <v>1028</v>
+      </c>
+      <c r="I316" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="317" spans="1:9">
+      <c r="H317" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I317" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="318" spans="1:9">
+      <c r="A318" t="s">
         <v>596</v>
       </c>
-      <c r="B305" t="s">
+      <c r="B318" t="s">
         <v>597</v>
       </c>
-    </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A306" t="s">
+      <c r="H318" t="s">
+        <v>1030</v>
+      </c>
+      <c r="I318" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="319" spans="1:9">
+      <c r="A319" t="s">
         <v>598</v>
       </c>
-      <c r="B306" t="s">
+      <c r="B319" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A307" t="s">
+      <c r="H319" t="s">
+        <v>1031</v>
+      </c>
+      <c r="I319" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="320" spans="1:9">
+      <c r="A320" t="s">
         <v>600</v>
       </c>
-      <c r="B307" t="s">
+      <c r="B320" t="s">
         <v>601</v>
       </c>
-    </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A308" t="s">
+      <c r="H320" t="s">
+        <v>1032</v>
+      </c>
+      <c r="I320" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="321" spans="1:9">
+      <c r="A321" t="s">
         <v>602</v>
       </c>
-      <c r="B308" t="s">
+      <c r="B321" t="s">
         <v>603</v>
       </c>
-    </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A309" t="s">
+      <c r="H321" t="s">
+        <v>1033</v>
+      </c>
+      <c r="I321" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="322" spans="1:9">
+      <c r="A322" t="s">
         <v>604</v>
       </c>
-      <c r="B309" t="s">
+      <c r="B322" t="s">
         <v>605</v>
       </c>
-    </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A310" t="s">
+      <c r="H322" t="s">
+        <v>1034</v>
+      </c>
+      <c r="I322" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="323" spans="1:9">
+      <c r="A323" t="s">
         <v>606</v>
       </c>
-      <c r="B310" t="s">
+      <c r="B323" t="s">
         <v>607</v>
       </c>
-    </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A311" t="s">
+      <c r="H323" t="s">
+        <v>1035</v>
+      </c>
+      <c r="I323" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="324" spans="1:9">
+      <c r="A324" t="s">
         <v>608</v>
       </c>
-      <c r="B311" t="s">
+      <c r="B324" t="s">
         <v>609</v>
       </c>
-    </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A312" t="s">
+      <c r="H324" t="s">
+        <v>1036</v>
+      </c>
+      <c r="I324" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="325" spans="1:9">
+      <c r="A325" t="s">
         <v>610</v>
       </c>
-      <c r="B312" t="s">
+      <c r="B325" t="s">
         <v>611</v>
       </c>
-    </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A313" t="s">
+      <c r="H325" t="s">
+        <v>1037</v>
+      </c>
+      <c r="I325" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="326" spans="1:9">
+      <c r="A326" t="s">
         <v>612</v>
       </c>
-      <c r="B313" t="s">
+      <c r="B326" t="s">
         <v>613</v>
       </c>
-    </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A314" t="s">
+      <c r="H326" t="s">
+        <v>1038</v>
+      </c>
+      <c r="I326" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="327" spans="1:9">
+      <c r="A327" t="s">
         <v>614</v>
       </c>
-      <c r="B314" t="s">
+      <c r="B327" t="s">
         <v>615</v>
       </c>
-    </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A315" t="s">
+      <c r="H327" t="s">
+        <v>1039</v>
+      </c>
+      <c r="I327" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="328" spans="1:9">
+      <c r="A328" t="s">
         <v>616</v>
       </c>
-      <c r="B315" t="s">
+      <c r="B328" t="s">
         <v>617</v>
       </c>
-    </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A316" t="s">
+      <c r="H328" t="s">
+        <v>1040</v>
+      </c>
+      <c r="I328" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="329" spans="1:9">
+      <c r="A329" t="s">
         <v>618</v>
       </c>
-      <c r="B316" t="s">
+      <c r="B329" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A317" t="s">
+      <c r="H329" t="s">
+        <v>1041</v>
+      </c>
+      <c r="I329" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="330" spans="1:9">
+      <c r="A330" t="s">
         <v>620</v>
       </c>
-      <c r="B317" t="s">
+      <c r="B330" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A318" t="s">
+      <c r="H330" t="s">
+        <v>1042</v>
+      </c>
+      <c r="I330" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="331" spans="1:9">
+      <c r="A331" t="s">
         <v>622</v>
       </c>
-      <c r="B318" t="s">
+      <c r="B331" t="s">
         <v>623</v>
       </c>
-    </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A319" t="s">
+      <c r="H331" t="s">
+        <v>1043</v>
+      </c>
+      <c r="I331" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="332" spans="1:9">
+      <c r="A332" t="s">
         <v>624</v>
       </c>
-      <c r="B319" t="s">
+      <c r="B332" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A320" t="s">
+      <c r="H332" t="s">
+        <v>1044</v>
+      </c>
+      <c r="I332" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="333" spans="1:9">
+      <c r="A333" t="s">
         <v>626</v>
       </c>
-      <c r="B320" t="s">
+      <c r="B333" t="s">
         <v>627</v>
       </c>
-    </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A321" t="s">
+      <c r="H333" t="s">
+        <v>1045</v>
+      </c>
+      <c r="I333" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="334" spans="1:9">
+      <c r="A334" t="s">
         <v>628</v>
       </c>
-      <c r="B321" t="s">
+      <c r="B334" t="s">
         <v>629</v>
       </c>
-    </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A322" t="s">
+      <c r="H334" t="s">
+        <v>1046</v>
+      </c>
+      <c r="I334" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="335" spans="1:9">
+      <c r="A335" t="s">
         <v>630</v>
       </c>
-      <c r="B322" t="s">
+      <c r="B335" t="s">
         <v>631</v>
       </c>
-    </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A323" t="s">
+      <c r="H335" t="s">
+        <v>1047</v>
+      </c>
+      <c r="I335" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="336" spans="1:9">
+      <c r="A336" t="s">
         <v>632</v>
       </c>
-      <c r="B323" t="s">
+      <c r="B336" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A324" t="s">
+      <c r="H336" t="s">
+        <v>1048</v>
+      </c>
+      <c r="I336" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="337" spans="1:9">
+      <c r="A337" t="s">
         <v>634</v>
       </c>
-      <c r="B324" t="s">
+      <c r="B337" t="s">
         <v>635</v>
       </c>
-    </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A325" t="s">
+      <c r="H337" t="s">
+        <v>1049</v>
+      </c>
+      <c r="I337" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="338" spans="1:9">
+      <c r="A338" t="s">
         <v>636</v>
       </c>
-      <c r="B325" t="s">
+      <c r="B338" t="s">
         <v>637</v>
       </c>
-    </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A326" t="s">
+      <c r="H338" t="s">
+        <v>1050</v>
+      </c>
+      <c r="I338" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="339" spans="1:9">
+      <c r="A339" t="s">
         <v>638</v>
       </c>
-      <c r="B326" t="s">
+      <c r="B339" t="s">
         <v>639</v>
       </c>
-    </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A327" t="s">
+      <c r="H339" t="s">
+        <v>1051</v>
+      </c>
+      <c r="I339" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="340" spans="1:9">
+      <c r="A340" t="s">
         <v>640</v>
       </c>
-      <c r="B327" t="s">
+      <c r="B340" t="s">
         <v>641</v>
       </c>
-    </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A328" t="s">
+      <c r="H340" t="s">
+        <v>1052</v>
+      </c>
+      <c r="I340" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="341" spans="1:9">
+      <c r="A341" t="s">
         <v>642</v>
       </c>
-      <c r="B328" t="s">
+      <c r="B341" t="s">
         <v>643</v>
       </c>
-    </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A329" t="s">
+      <c r="H341" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I341" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="342" spans="1:9">
+      <c r="A342" t="s">
         <v>644</v>
       </c>
-      <c r="B329" t="s">
+      <c r="B342" t="s">
         <v>645</v>
       </c>
-    </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A330" t="s">
+      <c r="H342" t="s">
+        <v>1054</v>
+      </c>
+      <c r="I342" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="343" spans="1:9">
+      <c r="A343" t="s">
         <v>646</v>
       </c>
-      <c r="B330" t="s">
+      <c r="B343" t="s">
         <v>647</v>
       </c>
-    </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A331" t="s">
+      <c r="H343" t="s">
+        <v>1055</v>
+      </c>
+      <c r="I343" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="344" spans="1:9">
+      <c r="A344" t="s">
         <v>648</v>
       </c>
-      <c r="B331" t="s">
+      <c r="B344" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A332" t="s">
+      <c r="H344" t="s">
+        <v>1056</v>
+      </c>
+      <c r="I344" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="345" spans="1:9">
+      <c r="A345" t="s">
         <v>650</v>
       </c>
-      <c r="B332" t="s">
+      <c r="B345" t="s">
         <v>651</v>
       </c>
-    </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A333" t="s">
+      <c r="H345" t="s">
+        <v>1057</v>
+      </c>
+      <c r="I345" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="346" spans="1:9">
+      <c r="A346" t="s">
         <v>652</v>
       </c>
-      <c r="B333" t="s">
+      <c r="B346" t="s">
         <v>653</v>
       </c>
-    </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A334" t="s">
+      <c r="H346" t="s">
+        <v>1058</v>
+      </c>
+      <c r="I346" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="347" spans="1:9">
+      <c r="A347" t="s">
         <v>654</v>
       </c>
-      <c r="B334" t="s">
+      <c r="B347" t="s">
         <v>655</v>
       </c>
-    </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A335" t="s">
+      <c r="H347" t="s">
+        <v>1059</v>
+      </c>
+      <c r="I347" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="348" spans="1:9">
+      <c r="A348" t="s">
         <v>656</v>
       </c>
-      <c r="B335" t="s">
+      <c r="B348" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A336" t="s">
+      <c r="H348" t="s">
+        <v>1060</v>
+      </c>
+      <c r="I348" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="349" spans="1:9">
+      <c r="A349" t="s">
         <v>658</v>
       </c>
-      <c r="B336" t="s">
+      <c r="B349" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A337" t="s">
+      <c r="H349" t="s">
+        <v>1069</v>
+      </c>
+      <c r="I349" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="350" spans="1:9">
+      <c r="A350" t="s">
         <v>660</v>
       </c>
-      <c r="B337" t="s">
+      <c r="B350" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A338" t="s">
+      <c r="H350" t="s">
+        <v>1070</v>
+      </c>
+      <c r="I350" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="351" spans="1:9">
+      <c r="A351" t="s">
         <v>661</v>
       </c>
-      <c r="B338" t="s">
+      <c r="B351" t="s">
         <v>662</v>
       </c>
-    </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A339" t="s">
+      <c r="H351" t="s">
+        <v>1071</v>
+      </c>
+      <c r="I351" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="352" spans="1:9">
+      <c r="A352" t="s">
         <v>663</v>
       </c>
-      <c r="B339" t="s">
+      <c r="B352" t="s">
         <v>664</v>
       </c>
-    </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A340" t="s">
+      <c r="H352" t="s">
+        <v>1072</v>
+      </c>
+      <c r="I352" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="353" spans="1:9">
+      <c r="A353" t="s">
         <v>665</v>
       </c>
-      <c r="B340" t="s">
+      <c r="B353" t="s">
         <v>666</v>
       </c>
-    </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A341" t="s">
+      <c r="H353" t="s">
+        <v>1073</v>
+      </c>
+      <c r="I353" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="354" spans="1:9">
+      <c r="A354" t="s">
         <v>667</v>
       </c>
-      <c r="B341" t="s">
+      <c r="B354" t="s">
         <v>668</v>
       </c>
-    </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A342" t="s">
+      <c r="H354" t="s">
+        <v>1074</v>
+      </c>
+      <c r="I354" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="355" spans="1:9">
+      <c r="A355" t="s">
         <v>669</v>
       </c>
-      <c r="B342" t="s">
+      <c r="B355" t="s">
         <v>670</v>
       </c>
-    </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A343" t="s">
+      <c r="H355" t="s">
+        <v>1075</v>
+      </c>
+      <c r="I355" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="356" spans="1:9">
+      <c r="A356" t="s">
         <v>671</v>
       </c>
-      <c r="B343" t="s">
+      <c r="B356" t="s">
         <v>672</v>
       </c>
-    </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A344" t="s">
+      <c r="H356" t="s">
+        <v>1076</v>
+      </c>
+      <c r="I356" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="357" spans="1:9">
+      <c r="H357" t="s">
+        <v>1231</v>
+      </c>
+      <c r="I357" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="358" spans="1:9">
+      <c r="H358" t="s">
+        <v>1258</v>
+      </c>
+      <c r="I358" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="359" spans="1:9">
+      <c r="H359" t="s">
+        <v>1232</v>
+      </c>
+      <c r="I359" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="360" spans="1:9">
+      <c r="H360" t="s">
+        <v>1256</v>
+      </c>
+      <c r="I360" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="361" spans="1:9">
+      <c r="H361" t="s">
+        <v>1233</v>
+      </c>
+      <c r="I361" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="362" spans="1:9">
+      <c r="H362" t="s">
+        <v>1257</v>
+      </c>
+      <c r="I362" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="363" spans="1:9">
+      <c r="H363" t="s">
+        <v>1234</v>
+      </c>
+      <c r="I363" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="364" spans="1:9">
+      <c r="H364" t="s">
+        <v>1077</v>
+      </c>
+      <c r="I364" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="365" spans="1:9">
+      <c r="A365" t="s">
         <v>673</v>
       </c>
-      <c r="B344" t="s">
+      <c r="B365" t="s">
         <v>674</v>
       </c>
-    </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A345" t="s">
+      <c r="H365" t="s">
+        <v>1078</v>
+      </c>
+      <c r="I365" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="366" spans="1:9">
+      <c r="A366" t="s">
         <v>675</v>
       </c>
-      <c r="B345" t="s">
+      <c r="B366" t="s">
         <v>676</v>
       </c>
-    </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A346" t="s">
+      <c r="H366" t="s">
+        <v>1079</v>
+      </c>
+      <c r="I366" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="367" spans="1:9">
+      <c r="A367" t="s">
         <v>677</v>
       </c>
-      <c r="B346" t="s">
+      <c r="B367" t="s">
         <v>678</v>
       </c>
-    </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A347" t="s">
+      <c r="H367" t="s">
+        <v>1080</v>
+      </c>
+      <c r="I367" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="368" spans="1:9">
+      <c r="A368" t="s">
         <v>679</v>
       </c>
-      <c r="B347" t="s">
+      <c r="B368" t="s">
         <v>680</v>
       </c>
-    </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A348" t="s">
+      <c r="H368" t="s">
+        <v>1081</v>
+      </c>
+      <c r="I368" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="369" spans="1:9">
+      <c r="A369" t="s">
         <v>681</v>
       </c>
-      <c r="B348" t="s">
+      <c r="B369" t="s">
         <v>682</v>
       </c>
-    </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A349" t="s">
+      <c r="H369" t="s">
+        <v>1082</v>
+      </c>
+      <c r="I369" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="370" spans="1:9">
+      <c r="A370" t="s">
         <v>683</v>
       </c>
-      <c r="B349" t="s">
+      <c r="B370" t="s">
         <v>684</v>
       </c>
-    </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A350" t="s">
+      <c r="H370" t="s">
+        <v>1083</v>
+      </c>
+      <c r="I370" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="371" spans="1:9">
+      <c r="A371" t="s">
         <v>685</v>
       </c>
-      <c r="B350" t="s">
+      <c r="B371" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A351" t="s">
+      <c r="H371" t="s">
+        <v>1084</v>
+      </c>
+      <c r="I371" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="372" spans="1:9">
+      <c r="A372" t="s">
         <v>687</v>
       </c>
-      <c r="B351" t="s">
+      <c r="B372" t="s">
         <v>688</v>
       </c>
-    </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A352" t="s">
+      <c r="H372" t="s">
+        <v>1085</v>
+      </c>
+      <c r="I372" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="373" spans="1:9">
+      <c r="A373" t="s">
         <v>689</v>
       </c>
-      <c r="B352" t="s">
+      <c r="B373" t="s">
         <v>690</v>
       </c>
-    </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A353" t="s">
+      <c r="H373" t="s">
+        <v>1086</v>
+      </c>
+      <c r="I373" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="374" spans="1:9">
+      <c r="A374" t="s">
         <v>691</v>
       </c>
-      <c r="B353" t="s">
+      <c r="B374" t="s">
         <v>692</v>
       </c>
-    </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A354" t="s">
+      <c r="H374" t="s">
+        <v>1087</v>
+      </c>
+      <c r="I374" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="375" spans="1:9">
+      <c r="A375" t="s">
         <v>693</v>
       </c>
-      <c r="B354" t="s">
+      <c r="B375" t="s">
         <v>694</v>
       </c>
-    </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A355" t="s">
+      <c r="H375" t="s">
+        <v>1088</v>
+      </c>
+      <c r="I375" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="376" spans="1:9">
+      <c r="A376" t="s">
         <v>695</v>
       </c>
-      <c r="B355" t="s">
+      <c r="B376" t="s">
         <v>696</v>
       </c>
-    </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A356" t="s">
+      <c r="H376" t="s">
+        <v>1089</v>
+      </c>
+      <c r="I376" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="377" spans="1:9">
+      <c r="A377" t="s">
         <v>697</v>
       </c>
-      <c r="B356" t="s">
+      <c r="B377" t="s">
         <v>698</v>
       </c>
-    </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A357" t="s">
+      <c r="H377" t="s">
+        <v>1090</v>
+      </c>
+      <c r="I377" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="378" spans="1:9">
+      <c r="A378" t="s">
         <v>699</v>
       </c>
-      <c r="B357" t="s">
+      <c r="B378" t="s">
         <v>700</v>
       </c>
-    </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A358" t="s">
+      <c r="H378" t="s">
+        <v>1091</v>
+      </c>
+      <c r="I378" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="379" spans="1:9">
+      <c r="A379" t="s">
         <v>701</v>
       </c>
-      <c r="B358" t="s">
+      <c r="B379" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A359" t="s">
+      <c r="H379" t="s">
+        <v>1092</v>
+      </c>
+      <c r="I379" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="380" spans="1:9">
+      <c r="A380" t="s">
         <v>703</v>
       </c>
-      <c r="B359" t="s">
+      <c r="B380" t="s">
         <v>704</v>
       </c>
-    </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A360" t="s">
+      <c r="H380" t="s">
+        <v>1093</v>
+      </c>
+      <c r="I380" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="381" spans="1:9">
+      <c r="A381" t="s">
         <v>705</v>
       </c>
-      <c r="B360" t="s">
+      <c r="B381" t="s">
         <v>706</v>
       </c>
-    </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A361" t="s">
+      <c r="H381" t="s">
+        <v>1094</v>
+      </c>
+      <c r="I381" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="382" spans="1:9">
+      <c r="A382" t="s">
         <v>707</v>
       </c>
-      <c r="B361" t="s">
+      <c r="B382" t="s">
         <v>708</v>
       </c>
-    </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A362" t="s">
+      <c r="H382" t="s">
+        <v>1095</v>
+      </c>
+      <c r="I382" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="383" spans="1:9">
+      <c r="A383" t="s">
         <v>709</v>
       </c>
-      <c r="B362" t="s">
+      <c r="B383" t="s">
         <v>710</v>
       </c>
-    </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A363" t="s">
+      <c r="H383" t="s">
+        <v>1096</v>
+      </c>
+      <c r="I383" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="384" spans="1:9">
+      <c r="A384" t="s">
         <v>711</v>
       </c>
-      <c r="B363" t="s">
+      <c r="B384" t="s">
         <v>712</v>
       </c>
-    </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A364" t="s">
+      <c r="H384" t="s">
+        <v>1097</v>
+      </c>
+      <c r="I384" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="385" spans="1:9">
+      <c r="A385" t="s">
         <v>713</v>
       </c>
-      <c r="B364" t="s">
+      <c r="B385" t="s">
         <v>714</v>
       </c>
-    </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A365" t="s">
+      <c r="H385" t="s">
+        <v>1098</v>
+      </c>
+      <c r="I385" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="386" spans="1:9">
+      <c r="A386" t="s">
         <v>715</v>
       </c>
-      <c r="B365" t="s">
+      <c r="B386" t="s">
         <v>716</v>
       </c>
-    </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A366" t="s">
+      <c r="H386" t="s">
+        <v>1099</v>
+      </c>
+      <c r="I386" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="387" spans="1:9">
+      <c r="A387" t="s">
         <v>717</v>
       </c>
-      <c r="B366" t="s">
+      <c r="B387" t="s">
         <v>718</v>
       </c>
-    </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A367" t="s">
+      <c r="H387" t="s">
+        <v>1100</v>
+      </c>
+      <c r="I387" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="388" spans="1:9">
+      <c r="A388" t="s">
         <v>719</v>
       </c>
-      <c r="B367" t="s">
+      <c r="B388" t="s">
         <v>720</v>
       </c>
-    </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A368" t="s">
+      <c r="H388" t="s">
+        <v>1101</v>
+      </c>
+      <c r="I388" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="389" spans="1:9">
+      <c r="A389" t="s">
         <v>721</v>
       </c>
-      <c r="B368" t="s">
+      <c r="B389" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A369" t="s">
+      <c r="H389" t="s">
+        <v>1102</v>
+      </c>
+      <c r="I389" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="390" spans="1:9">
+      <c r="A390" t="s">
         <v>723</v>
       </c>
-      <c r="B369" t="s">
+      <c r="B390" t="s">
         <v>724</v>
       </c>
-    </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A370" t="s">
+      <c r="H390" t="s">
+        <v>1103</v>
+      </c>
+      <c r="I390" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="391" spans="1:9">
+      <c r="A391" t="s">
         <v>725</v>
       </c>
-      <c r="B370" t="s">
+      <c r="B391" t="s">
         <v>726</v>
       </c>
-    </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A371" t="s">
+      <c r="H391" t="s">
+        <v>1104</v>
+      </c>
+      <c r="I391" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="392" spans="1:9">
+      <c r="A392" t="s">
         <v>727</v>
       </c>
-      <c r="B371" t="s">
+      <c r="B392" t="s">
         <v>728</v>
       </c>
-    </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A372" t="s">
+      <c r="H392" t="s">
+        <v>1105</v>
+      </c>
+      <c r="I392" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="393" spans="1:9">
+      <c r="A393" t="s">
         <v>729</v>
       </c>
-      <c r="B372" t="s">
+      <c r="B393" t="s">
         <v>730</v>
       </c>
-    </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A373" t="s">
+      <c r="H393" t="s">
+        <v>1106</v>
+      </c>
+      <c r="I393" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="394" spans="1:9">
+      <c r="A394" t="s">
         <v>731</v>
       </c>
-      <c r="B373" t="s">
+      <c r="B394" t="s">
         <v>732</v>
       </c>
-    </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A374" t="s">
+      <c r="H394" t="s">
+        <v>1107</v>
+      </c>
+      <c r="I394" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="395" spans="1:9">
+      <c r="A395" t="s">
         <v>733</v>
       </c>
-      <c r="B374" t="s">
+      <c r="B395" t="s">
         <v>734</v>
       </c>
-    </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A375" t="s">
+      <c r="H395" t="s">
+        <v>1122</v>
+      </c>
+      <c r="I395" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="396" spans="1:9">
+      <c r="A396" t="s">
         <v>735</v>
       </c>
-      <c r="B375" t="s">
+      <c r="B396" t="s">
         <v>736</v>
       </c>
-    </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A376" t="s">
+      <c r="H396" t="s">
+        <v>1123</v>
+      </c>
+      <c r="I396" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="397" spans="1:9">
+      <c r="A397" t="s">
         <v>737</v>
       </c>
-      <c r="B376" t="s">
+      <c r="B397" t="s">
         <v>738</v>
       </c>
-    </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A377" t="s">
+      <c r="H397" t="s">
+        <v>1124</v>
+      </c>
+      <c r="I397" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="398" spans="1:9">
+      <c r="A398" t="s">
         <v>739</v>
       </c>
-      <c r="B377" t="s">
+      <c r="B398" t="s">
         <v>740</v>
       </c>
-    </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A378" t="s">
+      <c r="H398" t="s">
+        <v>1125</v>
+      </c>
+      <c r="I398" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="399" spans="1:9">
+      <c r="A399" t="s">
         <v>741</v>
       </c>
-      <c r="B378" t="s">
+      <c r="B399" t="s">
         <v>742</v>
       </c>
-    </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A379" t="s">
+      <c r="H399" t="s">
+        <v>1126</v>
+      </c>
+      <c r="I399" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="400" spans="1:9">
+      <c r="A400" t="s">
         <v>743</v>
       </c>
-      <c r="B379" t="s">
+      <c r="B400" t="s">
         <v>744</v>
       </c>
-    </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A380" t="s">
+      <c r="H400" t="s">
+        <v>1242</v>
+      </c>
+      <c r="I400" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="401" spans="1:9">
+      <c r="A401" t="s">
         <v>745</v>
       </c>
-      <c r="B380" t="s">
+      <c r="B401" t="s">
         <v>746</v>
       </c>
-    </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A381" t="s">
+      <c r="H401" t="s">
+        <v>1243</v>
+      </c>
+      <c r="I401" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="402" spans="1:9">
+      <c r="A402" t="s">
         <v>747</v>
       </c>
-      <c r="B381" t="s">
+      <c r="B402" t="s">
         <v>748</v>
       </c>
-    </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A382" t="s">
+      <c r="H402" t="s">
+        <v>1244</v>
+      </c>
+      <c r="I402" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="403" spans="1:9">
+      <c r="A403" t="s">
         <v>749</v>
       </c>
-      <c r="B382" t="s">
+      <c r="B403" t="s">
         <v>750</v>
       </c>
-    </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A383" t="s">
+      <c r="H403" t="s">
+        <v>1245</v>
+      </c>
+      <c r="I403" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="404" spans="1:9">
+      <c r="A404" t="s">
         <v>751</v>
       </c>
-      <c r="B383" t="s">
+      <c r="B404" t="s">
         <v>752</v>
       </c>
-    </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A384" t="s">
+      <c r="H404" t="s">
+        <v>1246</v>
+      </c>
+      <c r="I404" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="405" spans="1:9">
+      <c r="A405" t="s">
         <v>753</v>
       </c>
-      <c r="B384" t="s">
+      <c r="B405" t="s">
         <v>754</v>
       </c>
-    </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A385" t="s">
+      <c r="H405" t="s">
+        <v>1247</v>
+      </c>
+      <c r="I405" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="406" spans="1:9">
+      <c r="A406" t="s">
         <v>755</v>
       </c>
-      <c r="B385" t="s">
+      <c r="B406" t="s">
         <v>756</v>
       </c>
-    </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A386" t="s">
+      <c r="H406" t="s">
+        <v>1248</v>
+      </c>
+      <c r="I406" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="407" spans="1:9">
+      <c r="A407" t="s">
         <v>757</v>
       </c>
-      <c r="B386" t="s">
+      <c r="B407" t="s">
         <v>758</v>
       </c>
-    </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A387" t="s">
+      <c r="H407" t="s">
+        <v>1127</v>
+      </c>
+      <c r="I407" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="408" spans="1:9">
+      <c r="A408" t="s">
         <v>759</v>
       </c>
-      <c r="B387" t="s">
+      <c r="B408" t="s">
         <v>760</v>
       </c>
-    </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A388" t="s">
+      <c r="H408" t="s">
+        <v>1128</v>
+      </c>
+      <c r="I408" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="409" spans="1:9">
+      <c r="A409" t="s">
         <v>761</v>
       </c>
-      <c r="B388" t="s">
+      <c r="B409" t="s">
         <v>762</v>
       </c>
-    </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A389" t="s">
+      <c r="H409" t="s">
+        <v>1131</v>
+      </c>
+      <c r="I409" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="410" spans="1:9">
+      <c r="A410" t="s">
         <v>763</v>
       </c>
-      <c r="B389" t="s">
+      <c r="B410" t="s">
         <v>764</v>
       </c>
-    </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A390" t="s">
+      <c r="H410" t="s">
+        <v>1132</v>
+      </c>
+      <c r="I410" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="411" spans="1:9">
+      <c r="A411" t="s">
         <v>765</v>
       </c>
-      <c r="B390" t="s">
+      <c r="B411" t="s">
         <v>766</v>
       </c>
-    </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A391" t="s">
+      <c r="H411" t="s">
+        <v>1133</v>
+      </c>
+      <c r="I411" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="412" spans="1:9">
+      <c r="A412" t="s">
         <v>767</v>
       </c>
-      <c r="B391" t="s">
+      <c r="B412" t="s">
         <v>768</v>
       </c>
-    </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A392" t="s">
+      <c r="H412" t="s">
+        <v>1129</v>
+      </c>
+      <c r="I412" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="413" spans="1:9">
+      <c r="A413" t="s">
         <v>769</v>
       </c>
-      <c r="B392" t="s">
+      <c r="B413" t="s">
         <v>770</v>
       </c>
-    </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A393" t="s">
+      <c r="H413" t="s">
+        <v>1134</v>
+      </c>
+      <c r="I413" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="414" spans="1:9">
+      <c r="A414" t="s">
         <v>771</v>
       </c>
-      <c r="B393" t="s">
+      <c r="B414" t="s">
         <v>772</v>
       </c>
-    </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A394" t="s">
+      <c r="H414" t="s">
+        <v>1137</v>
+      </c>
+      <c r="I414" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="415" spans="1:9">
+      <c r="A415" t="s">
         <v>773</v>
       </c>
-      <c r="B394" t="s">
+      <c r="B415" t="s">
         <v>774</v>
       </c>
-    </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A395" t="s">
+      <c r="H415" t="s">
+        <v>1138</v>
+      </c>
+      <c r="I415" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="416" spans="1:9">
+      <c r="A416" t="s">
         <v>775</v>
       </c>
-      <c r="B395" t="s">
+      <c r="B416" t="s">
         <v>776</v>
       </c>
-    </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A396" t="s">
+      <c r="H416" t="s">
+        <v>1139</v>
+      </c>
+      <c r="I416" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="417" spans="1:9">
+      <c r="A417" t="s">
         <v>777</v>
       </c>
-      <c r="B396" t="s">
+      <c r="B417" t="s">
         <v>774</v>
       </c>
-    </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A397" t="s">
+      <c r="H417" t="s">
+        <v>1140</v>
+      </c>
+      <c r="I417" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="418" spans="1:9">
+      <c r="A418" t="s">
         <v>778</v>
       </c>
-      <c r="B397" t="s">
+      <c r="B418" t="s">
         <v>779</v>
+      </c>
+      <c r="H418" t="s">
+        <v>1141</v>
+      </c>
+      <c r="I418" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="419" spans="1:9">
+      <c r="H419" t="s">
+        <v>1142</v>
+      </c>
+      <c r="I419" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="420" spans="1:9">
+      <c r="H420" t="s">
+        <v>1143</v>
+      </c>
+      <c r="I420" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="421" spans="1:9">
+      <c r="H421" t="s">
+        <v>1144</v>
+      </c>
+      <c r="I421" t="s">
+        <v>1198</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/app/src/main/res/raw/dataoutadac.xlsx
+++ b/app/src/main/res/raw/dataoutadac.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Android\Steno\app\src\main\res\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AA99C46-BE33-469C-83A8-A1890CF8FFBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D7F1115-FC50-4F8C-B051-B11B9B96B4C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="874">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="893" uniqueCount="889">
   <si>
     <t>a1d1</t>
   </si>
@@ -493,9 +493,6 @@
     <t>a5e5</t>
   </si>
   <si>
-    <t>hoă</t>
-  </si>
-  <si>
     <t>huâ</t>
   </si>
   <si>
@@ -520,9 +517,6 @@
     <t>a6e3</t>
   </si>
   <si>
-    <t>hoe</t>
-  </si>
-  <si>
     <t>a6e4</t>
   </si>
   <si>
@@ -625,9 +619,6 @@
     <t>b1d2</t>
   </si>
   <si>
-    <t>loe</t>
-  </si>
-  <si>
     <t>b1d3</t>
   </si>
   <si>
@@ -994,9 +985,6 @@
     <t>b2e8</t>
   </si>
   <si>
-    <t>toe</t>
-  </si>
-  <si>
     <t>b3e1</t>
   </si>
   <si>
@@ -1231,9 +1219,6 @@
     <t>a1f3</t>
   </si>
   <si>
-    <t>thoă</t>
-  </si>
-  <si>
     <t>thuâ</t>
   </si>
   <si>
@@ -1324,9 +1309,6 @@
     <t>a7f5</t>
   </si>
   <si>
-    <t>khoe</t>
-  </si>
-  <si>
     <t>a8f1</t>
   </si>
   <si>
@@ -1477,9 +1459,6 @@
     <t>ngoa</t>
   </si>
   <si>
-    <t>ngoe</t>
-  </si>
-  <si>
     <t>gia</t>
   </si>
   <si>
@@ -1540,18 +1519,12 @@
     <t>choa</t>
   </si>
   <si>
-    <t>choă</t>
-  </si>
-  <si>
     <t>chuâ</t>
   </si>
   <si>
     <t>cho</t>
   </si>
   <si>
-    <t>choe</t>
-  </si>
-  <si>
     <t>nha</t>
   </si>
   <si>
@@ -1588,12 +1561,6 @@
     <t>nho</t>
   </si>
   <si>
-    <t>nhoe</t>
-  </si>
-  <si>
-    <t>bao</t>
-  </si>
-  <si>
     <t>hy</t>
   </si>
   <si>
@@ -1741,9 +1708,6 @@
     <t>phy</t>
   </si>
   <si>
-    <t>ngoă</t>
-  </si>
-  <si>
     <t>nguâ</t>
   </si>
   <si>
@@ -1795,9 +1759,6 @@
     <t>b7f8</t>
   </si>
   <si>
-    <t>khoă</t>
-  </si>
-  <si>
     <t>khuơ</t>
   </si>
   <si>
@@ -2101,9 +2062,6 @@
     <t>uy</t>
   </si>
   <si>
-    <t>oe</t>
-  </si>
-  <si>
     <t>oa</t>
   </si>
   <si>
@@ -2158,9 +2116,6 @@
     <t>c5f7</t>
   </si>
   <si>
-    <t>oă</t>
-  </si>
-  <si>
     <t>uâ</t>
   </si>
   <si>
@@ -2470,9 +2425,6 @@
     <t>xua/uô</t>
   </si>
   <si>
-    <t>xoe</t>
-  </si>
-  <si>
     <t>xoa</t>
   </si>
   <si>
@@ -2506,9 +2458,6 @@
     <t>xoo</t>
   </si>
   <si>
-    <t>xoă</t>
-  </si>
-  <si>
     <t>xuâ</t>
   </si>
   <si>
@@ -2548,9 +2497,6 @@
     <t>gia/iê/yê</t>
   </si>
   <si>
-    <t>ghia/ghiê/ghyê</t>
-  </si>
-  <si>
     <t>c4e4</t>
   </si>
   <si>
@@ -2569,9 +2515,6 @@
     <t>b4f4</t>
   </si>
   <si>
-    <t>loă</t>
-  </si>
-  <si>
     <t>b4f1</t>
   </si>
   <si>
@@ -2596,9 +2539,6 @@
     <t>b6f2</t>
   </si>
   <si>
-    <t>nhuyê/nhuya</t>
-  </si>
-  <si>
     <t>c2d5</t>
   </si>
   <si>
@@ -2642,6 +2582,111 @@
   </si>
   <si>
     <t>xươ/ưa</t>
+  </si>
+  <si>
+    <t>nhuyê/uya</t>
+  </si>
+  <si>
+    <t>boa</t>
+  </si>
+  <si>
+    <t>ghia/iê/yê</t>
+  </si>
+  <si>
+    <t>gi</t>
+  </si>
+  <si>
+    <t>c2e8</t>
+  </si>
+  <si>
+    <t>pô</t>
+  </si>
+  <si>
+    <t>c2e3</t>
+  </si>
+  <si>
+    <t>qu</t>
+  </si>
+  <si>
+    <t>a5f8</t>
+  </si>
+  <si>
+    <t>c3e5</t>
+  </si>
+  <si>
+    <t>xuy</t>
+  </si>
+  <si>
+    <t>hoe/ue</t>
+  </si>
+  <si>
+    <t>toe/ue</t>
+  </si>
+  <si>
+    <t>ngoe/ue</t>
+  </si>
+  <si>
+    <t>loe/ue</t>
+  </si>
+  <si>
+    <t>choe/ue</t>
+  </si>
+  <si>
+    <t>nhoe/ue</t>
+  </si>
+  <si>
+    <t>khoe/ue</t>
+  </si>
+  <si>
+    <t>xoe/ue</t>
+  </si>
+  <si>
+    <t>oe/ue</t>
+  </si>
+  <si>
+    <t>hoă/uă</t>
+  </si>
+  <si>
+    <t>thoă/uă</t>
+  </si>
+  <si>
+    <t>ngoă/uă</t>
+  </si>
+  <si>
+    <t>loă/uă</t>
+  </si>
+  <si>
+    <t>choă/uă</t>
+  </si>
+  <si>
+    <t>khoă/uă</t>
+  </si>
+  <si>
+    <t>xoă/uă</t>
+  </si>
+  <si>
+    <t>oă/uă</t>
+  </si>
+  <si>
+    <t>c2e6</t>
+  </si>
+  <si>
+    <t>qoe/ue</t>
+  </si>
+  <si>
+    <t>c2f4</t>
+  </si>
+  <si>
+    <t>qoă/uă</t>
+  </si>
+  <si>
+    <t>thuơ</t>
+  </si>
+  <si>
+    <t>c6f1</t>
+  </si>
+  <si>
+    <t>đuê</t>
   </si>
 </sst>
 </file>
@@ -3002,10 +3047,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="H1:N438"/>
+  <dimension ref="H1:N446"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A409" workbookViewId="0">
-      <selection activeCell="J413" sqref="J413"/>
+    <sheetView tabSelected="1" topLeftCell="A126" workbookViewId="0">
+      <selection activeCell="J139" sqref="J139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3119,7 +3164,7 @@
         <v>22</v>
       </c>
       <c r="I14" t="s">
-        <v>524</v>
+        <v>513</v>
       </c>
     </row>
     <row r="15" spans="8:9">
@@ -3143,7 +3188,7 @@
         <v>27</v>
       </c>
       <c r="I17" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="18" spans="8:9">
@@ -3151,7 +3196,7 @@
         <v>28</v>
       </c>
       <c r="I18" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="19" spans="8:9">
@@ -3159,7 +3204,7 @@
         <v>30</v>
       </c>
       <c r="I19" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="20" spans="8:9">
@@ -3167,7 +3212,7 @@
         <v>32</v>
       </c>
       <c r="I20" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="21" spans="8:9">
@@ -3175,7 +3220,7 @@
         <v>34</v>
       </c>
       <c r="I21" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="22" spans="8:9">
@@ -3183,7 +3228,7 @@
         <v>37</v>
       </c>
       <c r="I22" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="23" spans="8:9">
@@ -3191,7 +3236,7 @@
         <v>39</v>
       </c>
       <c r="I23" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
     <row r="24" spans="8:9">
@@ -3255,7 +3300,7 @@
         <v>52</v>
       </c>
       <c r="I31" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="32" spans="8:9">
@@ -3263,7 +3308,7 @@
         <v>54</v>
       </c>
       <c r="I32" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="33" spans="8:9">
@@ -3271,7 +3316,7 @@
         <v>56</v>
       </c>
       <c r="I33" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
     </row>
     <row r="34" spans="8:9">
@@ -3279,7 +3324,7 @@
         <v>58</v>
       </c>
       <c r="I34" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
     </row>
     <row r="35" spans="8:9">
@@ -3287,7 +3332,7 @@
         <v>60</v>
       </c>
       <c r="I35" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
     </row>
     <row r="36" spans="8:9">
@@ -3295,7 +3340,7 @@
         <v>62</v>
       </c>
       <c r="I36" t="s">
-        <v>525</v>
+        <v>514</v>
       </c>
     </row>
     <row r="37" spans="8:9">
@@ -3303,7 +3348,7 @@
         <v>64</v>
       </c>
       <c r="I37" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
     </row>
     <row r="38" spans="8:9">
@@ -3311,7 +3356,7 @@
         <v>66</v>
       </c>
       <c r="I38" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="39" spans="8:9">
@@ -3319,7 +3364,7 @@
         <v>68</v>
       </c>
       <c r="I39" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
     </row>
     <row r="40" spans="8:9">
@@ -3327,7 +3372,7 @@
         <v>70</v>
       </c>
       <c r="I40" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
     </row>
     <row r="41" spans="8:9">
@@ -3335,7 +3380,7 @@
         <v>71</v>
       </c>
       <c r="I41" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
     </row>
     <row r="42" spans="8:9">
@@ -3343,7 +3388,7 @@
         <v>72</v>
       </c>
       <c r="I42" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
     </row>
     <row r="43" spans="8:9">
@@ -3351,7 +3396,7 @@
         <v>74</v>
       </c>
       <c r="I43" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
     </row>
     <row r="44" spans="8:9">
@@ -3359,7 +3404,7 @@
         <v>75</v>
       </c>
       <c r="I44" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
     </row>
     <row r="45" spans="8:9">
@@ -3367,7 +3412,7 @@
         <v>77</v>
       </c>
       <c r="I45" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
     </row>
     <row r="46" spans="8:9">
@@ -3375,7 +3420,7 @@
         <v>79</v>
       </c>
       <c r="I46" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="47" spans="8:9">
@@ -3383,7 +3428,7 @@
         <v>81</v>
       </c>
       <c r="I47" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="48" spans="8:9">
@@ -3391,7 +3436,7 @@
         <v>83</v>
       </c>
       <c r="I48" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="49" spans="8:9">
@@ -3399,7 +3444,7 @@
         <v>84</v>
       </c>
       <c r="I49" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="50" spans="8:9">
@@ -3407,7 +3452,7 @@
         <v>85</v>
       </c>
       <c r="I50" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="51" spans="8:9">
@@ -3415,7 +3460,7 @@
         <v>86</v>
       </c>
       <c r="I51" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="52" spans="8:9">
@@ -3423,7 +3468,7 @@
         <v>87</v>
       </c>
       <c r="I52" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="53" spans="8:9">
@@ -3431,7 +3476,7 @@
         <v>88</v>
       </c>
       <c r="I53" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="54" spans="8:9">
@@ -3439,7 +3484,7 @@
         <v>90</v>
       </c>
       <c r="I54" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="55" spans="8:9">
@@ -3447,7 +3492,7 @@
         <v>92</v>
       </c>
       <c r="I55" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="56" spans="8:9">
@@ -3455,7 +3500,7 @@
         <v>94</v>
       </c>
       <c r="I56" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="57" spans="8:9">
@@ -3463,15 +3508,15 @@
         <v>96</v>
       </c>
       <c r="I57" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="58" spans="8:9">
       <c r="H58" t="s">
-        <v>870</v>
+        <v>850</v>
       </c>
       <c r="I58" t="s">
-        <v>871</v>
+        <v>851</v>
       </c>
     </row>
     <row r="59" spans="8:9">
@@ -3479,7 +3524,7 @@
         <v>99</v>
       </c>
       <c r="I59" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="60" spans="8:9">
@@ -3487,7 +3532,7 @@
         <v>101</v>
       </c>
       <c r="I60" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="61" spans="8:9">
@@ -3519,7 +3564,7 @@
         <v>106</v>
       </c>
       <c r="I64" t="s">
-        <v>722</v>
+        <v>707</v>
       </c>
     </row>
     <row r="65" spans="8:9">
@@ -3535,7 +3580,7 @@
         <v>111</v>
       </c>
       <c r="I66" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="67" spans="8:9">
@@ -3543,7 +3588,7 @@
         <v>112</v>
       </c>
       <c r="I67" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
     </row>
     <row r="68" spans="8:9">
@@ -3559,7 +3604,7 @@
         <v>114</v>
       </c>
       <c r="I69" t="s">
-        <v>723</v>
+        <v>708</v>
       </c>
     </row>
     <row r="70" spans="8:9">
@@ -3567,7 +3612,7 @@
         <v>116</v>
       </c>
       <c r="I70" t="s">
-        <v>527</v>
+        <v>516</v>
       </c>
     </row>
     <row r="71" spans="8:9">
@@ -3575,7 +3620,7 @@
         <v>118</v>
       </c>
       <c r="I71" t="s">
-        <v>166</v>
+        <v>865</v>
       </c>
     </row>
     <row r="72" spans="8:9">
@@ -3599,7 +3644,7 @@
         <v>124</v>
       </c>
       <c r="I74" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="75" spans="8:9">
@@ -3607,7 +3652,7 @@
         <v>126</v>
       </c>
       <c r="I75" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="76" spans="8:9">
@@ -3615,7 +3660,7 @@
         <v>128</v>
       </c>
       <c r="I76" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="77" spans="8:9">
@@ -3623,7 +3668,7 @@
         <v>130</v>
       </c>
       <c r="I77" t="s">
-        <v>724</v>
+        <v>709</v>
       </c>
     </row>
     <row r="78" spans="8:9">
@@ -3631,7 +3676,7 @@
         <v>133</v>
       </c>
       <c r="I78" t="s">
-        <v>528</v>
+        <v>517</v>
       </c>
     </row>
     <row r="79" spans="8:9">
@@ -3639,7 +3684,7 @@
         <v>134</v>
       </c>
       <c r="I79" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="80" spans="8:9">
@@ -3671,15 +3716,15 @@
         <v>142</v>
       </c>
       <c r="I83" t="s">
-        <v>725</v>
+        <v>710</v>
       </c>
     </row>
     <row r="84" spans="8:13">
       <c r="H84" t="s">
-        <v>834</v>
+        <v>817</v>
       </c>
       <c r="I84" t="s">
-        <v>835</v>
+        <v>818</v>
       </c>
     </row>
     <row r="85" spans="8:13">
@@ -3687,7 +3732,7 @@
         <v>146</v>
       </c>
       <c r="I85" t="s">
-        <v>523</v>
+        <v>855</v>
       </c>
     </row>
     <row r="86" spans="8:13">
@@ -3703,7 +3748,7 @@
         <v>150</v>
       </c>
       <c r="I87" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
     </row>
     <row r="88" spans="8:13">
@@ -3711,7 +3756,7 @@
         <v>151</v>
       </c>
       <c r="I88" t="s">
-        <v>529</v>
+        <v>518</v>
       </c>
     </row>
     <row r="89" spans="8:13">
@@ -3719,7 +3764,7 @@
         <v>152</v>
       </c>
       <c r="I89" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="90" spans="8:13">
@@ -3727,7 +3772,7 @@
         <v>154</v>
       </c>
       <c r="I90" t="s">
-        <v>726</v>
+        <v>711</v>
       </c>
     </row>
     <row r="91" spans="8:13">
@@ -3735,212 +3780,212 @@
         <v>156</v>
       </c>
       <c r="I91" t="s">
-        <v>530</v>
+        <v>519</v>
       </c>
     </row>
     <row r="92" spans="8:13">
       <c r="H92" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I92" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="93" spans="8:13">
       <c r="H93" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I93" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
     </row>
     <row r="94" spans="8:13">
       <c r="H94" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I94" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
     </row>
     <row r="95" spans="8:13">
       <c r="H95" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I95" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
     </row>
     <row r="96" spans="8:13">
       <c r="H96" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I96" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="M96" s="1"/>
     </row>
     <row r="97" spans="8:13">
       <c r="H97" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I97" t="s">
-        <v>727</v>
+        <v>712</v>
       </c>
       <c r="M97" s="1"/>
     </row>
     <row r="98" spans="8:13">
       <c r="H98" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="I98" t="s">
-        <v>531</v>
+        <v>520</v>
       </c>
       <c r="M98" s="1"/>
     </row>
     <row r="99" spans="8:13">
       <c r="H99" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="I99" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="M99" s="1"/>
     </row>
     <row r="100" spans="8:13">
       <c r="H100" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I100" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="M100" s="1"/>
     </row>
     <row r="101" spans="8:13">
       <c r="H101" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="I101" t="s">
-        <v>532</v>
+        <v>521</v>
       </c>
       <c r="M101" s="1"/>
     </row>
     <row r="102" spans="8:13">
       <c r="H102" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="I102" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="M102" s="1"/>
     </row>
     <row r="103" spans="8:13">
       <c r="H103" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I103" t="s">
-        <v>866</v>
+        <v>846</v>
       </c>
       <c r="M103" s="1"/>
     </row>
     <row r="104" spans="8:13">
       <c r="H104" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="I104" t="s">
-        <v>728</v>
+        <v>713</v>
       </c>
     </row>
     <row r="105" spans="8:13">
       <c r="H105" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="I105" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="106" spans="8:13">
       <c r="H106" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I106" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="107" spans="8:13">
       <c r="H107" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="I107" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="108" spans="8:13">
       <c r="H108" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I108" t="s">
-        <v>533</v>
+        <v>522</v>
       </c>
     </row>
     <row r="109" spans="8:13">
       <c r="H109" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I109" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="110" spans="8:13">
       <c r="H110" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="I110" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="111" spans="8:13">
       <c r="H111" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="I111" t="s">
-        <v>729</v>
+        <v>714</v>
       </c>
     </row>
     <row r="112" spans="8:13">
       <c r="H112" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="I112" t="s">
-        <v>534</v>
+        <v>523</v>
       </c>
     </row>
     <row r="113" spans="8:9">
       <c r="H113" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I113" t="s">
-        <v>324</v>
+        <v>866</v>
       </c>
     </row>
     <row r="114" spans="8:9">
       <c r="H114" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I114" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="115" spans="8:9">
       <c r="H115" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="I115" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="116" spans="8:9">
       <c r="H116" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="I116" t="s">
         <v>55</v>
@@ -3948,71 +3993,71 @@
     </row>
     <row r="117" spans="8:9">
       <c r="H117" t="s">
-        <v>549</v>
+        <v>538</v>
       </c>
       <c r="I117" t="s">
-        <v>730</v>
+        <v>715</v>
       </c>
     </row>
     <row r="118" spans="8:9">
       <c r="H118" t="s">
-        <v>550</v>
+        <v>539</v>
       </c>
       <c r="I118" t="s">
-        <v>776</v>
+        <v>761</v>
       </c>
     </row>
     <row r="119" spans="8:9">
       <c r="H119" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="I119" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="120" spans="8:9">
       <c r="H120" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="I120" t="s">
-        <v>779</v>
+        <v>764</v>
       </c>
     </row>
     <row r="121" spans="8:9">
       <c r="H121" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="I121" t="s">
-        <v>157</v>
+        <v>874</v>
       </c>
     </row>
     <row r="122" spans="8:9">
       <c r="H122" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="I122" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="123" spans="8:9">
       <c r="H123" t="s">
-        <v>551</v>
+        <v>540</v>
       </c>
       <c r="I123" t="s">
-        <v>731</v>
+        <v>716</v>
       </c>
     </row>
     <row r="124" spans="8:9">
       <c r="H124" t="s">
-        <v>553</v>
+        <v>542</v>
       </c>
       <c r="I124" t="s">
-        <v>777</v>
+        <v>762</v>
       </c>
     </row>
     <row r="125" spans="8:9">
       <c r="H125" t="s">
-        <v>552</v>
+        <v>541</v>
       </c>
       <c r="I125" t="s">
         <v>149</v>
@@ -4020,431 +4065,431 @@
     </row>
     <row r="126" spans="8:9">
       <c r="H126" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="I126" t="s">
-        <v>732</v>
+        <v>717</v>
       </c>
     </row>
     <row r="127" spans="8:9">
       <c r="H127" t="s">
-        <v>555</v>
+        <v>544</v>
       </c>
       <c r="I127" t="s">
-        <v>733</v>
+        <v>718</v>
       </c>
     </row>
     <row r="128" spans="8:9">
       <c r="H128" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="I128" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
     </row>
     <row r="129" spans="8:9">
       <c r="H129" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="I129" t="s">
-        <v>734</v>
+        <v>719</v>
       </c>
     </row>
     <row r="130" spans="8:9">
       <c r="H130" t="s">
-        <v>557</v>
+        <v>546</v>
       </c>
       <c r="I130" t="s">
-        <v>735</v>
+        <v>720</v>
       </c>
     </row>
     <row r="131" spans="8:9">
       <c r="H131" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="I131" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
     </row>
     <row r="132" spans="8:9">
       <c r="H132" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="I132" t="s">
-        <v>780</v>
+        <v>765</v>
       </c>
     </row>
     <row r="133" spans="8:9">
       <c r="H133" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="I133" t="s">
-        <v>403</v>
+        <v>875</v>
       </c>
     </row>
     <row r="134" spans="8:9">
       <c r="H134" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="I134" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
     </row>
     <row r="135" spans="8:9">
       <c r="H135" t="s">
-        <v>559</v>
+        <v>548</v>
       </c>
       <c r="I135" t="s">
-        <v>736</v>
+        <v>721</v>
       </c>
     </row>
     <row r="136" spans="8:9">
       <c r="H136" t="s">
-        <v>560</v>
+        <v>549</v>
       </c>
       <c r="I136" t="s">
-        <v>737</v>
+        <v>722</v>
       </c>
     </row>
     <row r="137" spans="8:9">
       <c r="H137" t="s">
-        <v>427</v>
+        <v>862</v>
       </c>
       <c r="I137" t="s">
-        <v>781</v>
+        <v>886</v>
       </c>
     </row>
     <row r="138" spans="8:9">
       <c r="H138" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="I138" t="s">
-        <v>466</v>
+        <v>766</v>
       </c>
     </row>
     <row r="139" spans="8:9">
       <c r="H139" t="s">
-        <v>561</v>
+        <v>424</v>
       </c>
       <c r="I139" t="s">
-        <v>738</v>
+        <v>460</v>
       </c>
     </row>
     <row r="140" spans="8:9">
       <c r="H140" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="I140" t="s">
-        <v>869</v>
+        <v>723</v>
       </c>
     </row>
     <row r="141" spans="8:9">
       <c r="H141" t="s">
-        <v>430</v>
+        <v>551</v>
       </c>
       <c r="I141" t="s">
-        <v>565</v>
+        <v>849</v>
       </c>
     </row>
     <row r="142" spans="8:9">
       <c r="H142" t="s">
-        <v>867</v>
+        <v>425</v>
       </c>
       <c r="I142" t="s">
-        <v>868</v>
+        <v>554</v>
       </c>
     </row>
     <row r="143" spans="8:9">
       <c r="H143" t="s">
-        <v>433</v>
+        <v>847</v>
       </c>
       <c r="I143" t="s">
-        <v>566</v>
+        <v>848</v>
       </c>
     </row>
     <row r="144" spans="8:9">
       <c r="H144" t="s">
-        <v>563</v>
+        <v>428</v>
       </c>
       <c r="I144" t="s">
-        <v>739</v>
+        <v>555</v>
       </c>
     </row>
     <row r="145" spans="8:9">
       <c r="H145" t="s">
-        <v>564</v>
+        <v>552</v>
       </c>
       <c r="I145" t="s">
-        <v>865</v>
+        <v>724</v>
       </c>
     </row>
     <row r="146" spans="8:9">
       <c r="H146" t="s">
-        <v>435</v>
+        <v>553</v>
       </c>
       <c r="I146" t="s">
-        <v>321</v>
+        <v>845</v>
       </c>
     </row>
     <row r="147" spans="8:9">
       <c r="H147" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="I147" t="s">
-        <v>782</v>
+        <v>318</v>
       </c>
     </row>
     <row r="148" spans="8:9">
       <c r="H148" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="I148" t="s">
-        <v>569</v>
+        <v>767</v>
       </c>
     </row>
     <row r="149" spans="8:9">
       <c r="H149" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="I149" t="s">
-        <v>317</v>
+        <v>558</v>
       </c>
     </row>
     <row r="150" spans="8:9">
       <c r="H150" t="s">
-        <v>567</v>
+        <v>436</v>
       </c>
       <c r="I150" t="s">
-        <v>740</v>
+        <v>314</v>
       </c>
     </row>
     <row r="151" spans="8:9">
       <c r="H151" t="s">
-        <v>568</v>
+        <v>556</v>
       </c>
       <c r="I151" t="s">
-        <v>778</v>
+        <v>725</v>
       </c>
     </row>
     <row r="152" spans="8:9">
       <c r="H152" t="s">
-        <v>303</v>
+        <v>557</v>
       </c>
       <c r="I152" t="s">
-        <v>535</v>
+        <v>763</v>
       </c>
     </row>
     <row r="153" spans="8:9">
       <c r="H153" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="I153" t="s">
-        <v>482</v>
+        <v>524</v>
       </c>
     </row>
     <row r="154" spans="8:9">
       <c r="H154" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="I154" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
     </row>
     <row r="155" spans="8:9">
       <c r="H155" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="I155" t="s">
-        <v>741</v>
+        <v>475</v>
       </c>
     </row>
     <row r="156" spans="8:9">
       <c r="H156" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="I156" t="s">
-        <v>536</v>
+        <v>726</v>
       </c>
     </row>
     <row r="157" spans="8:9">
       <c r="H157" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="I157" t="s">
-        <v>485</v>
+        <v>525</v>
       </c>
     </row>
     <row r="158" spans="8:9">
       <c r="H158" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="I158" t="s">
-        <v>484</v>
+        <v>867</v>
       </c>
     </row>
     <row r="159" spans="8:9">
       <c r="H159" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="I159" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
     </row>
     <row r="160" spans="8:9">
       <c r="H160" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="I160" t="s">
-        <v>228</v>
+        <v>477</v>
       </c>
     </row>
     <row r="161" spans="8:9">
       <c r="H161" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="I161" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="162" spans="8:9">
       <c r="H162" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="I162" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="163" spans="8:9">
       <c r="H163" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="I163" t="s">
-        <v>742</v>
+        <v>217</v>
       </c>
     </row>
     <row r="164" spans="8:9">
       <c r="H164" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="I164" t="s">
-        <v>537</v>
+        <v>727</v>
       </c>
     </row>
     <row r="165" spans="8:9">
       <c r="H165" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="I165" t="s">
-        <v>226</v>
+        <v>526</v>
       </c>
     </row>
     <row r="166" spans="8:9">
       <c r="H166" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="I166" t="s">
-        <v>538</v>
+        <v>223</v>
       </c>
     </row>
     <row r="167" spans="8:9">
       <c r="H167" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="I167" t="s">
-        <v>251</v>
+        <v>527</v>
       </c>
     </row>
     <row r="168" spans="8:9">
       <c r="H168" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="I168" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="169" spans="8:9">
       <c r="H169" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="I169" t="s">
-        <v>743</v>
+        <v>244</v>
       </c>
     </row>
     <row r="170" spans="8:9">
       <c r="H170" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="I170" t="s">
-        <v>539</v>
+        <v>728</v>
       </c>
     </row>
     <row r="171" spans="8:9">
       <c r="H171" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="I171" t="s">
-        <v>540</v>
+        <v>528</v>
       </c>
     </row>
     <row r="172" spans="8:9">
       <c r="H172" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="I172" t="s">
-        <v>541</v>
+        <v>529</v>
       </c>
     </row>
     <row r="173" spans="8:9">
       <c r="H173" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="I173" t="s">
-        <v>188</v>
+        <v>530</v>
       </c>
     </row>
     <row r="174" spans="8:9">
       <c r="H174" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="I174" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="175" spans="8:9">
       <c r="H175" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="I175" t="s">
-        <v>744</v>
+        <v>182</v>
       </c>
     </row>
     <row r="176" spans="8:9">
       <c r="H176" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="I176" t="s">
-        <v>542</v>
+        <v>729</v>
       </c>
     </row>
     <row r="177" spans="8:9">
       <c r="H177" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="I177" t="s">
-        <v>201</v>
+        <v>531</v>
       </c>
     </row>
     <row r="178" spans="8:9">
       <c r="H178" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="I178" t="s">
-        <v>192</v>
+        <v>868</v>
       </c>
     </row>
     <row r="179" spans="8:9">
       <c r="H179" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="I179" t="s">
         <v>190</v>
@@ -4452,447 +4497,447 @@
     </row>
     <row r="180" spans="8:9">
       <c r="H180" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="I180" t="s">
-        <v>508</v>
+        <v>188</v>
       </c>
     </row>
     <row r="181" spans="8:9">
       <c r="H181" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="I181" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="182" spans="8:9">
       <c r="H182" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="I182" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
     </row>
     <row r="183" spans="8:9">
       <c r="H183" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="I183" t="s">
-        <v>745</v>
+        <v>495</v>
       </c>
     </row>
     <row r="184" spans="8:9">
       <c r="H184" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="I184" t="s">
-        <v>543</v>
+        <v>730</v>
       </c>
     </row>
     <row r="185" spans="8:9">
       <c r="H185" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="I185" t="s">
-        <v>509</v>
+        <v>532</v>
       </c>
     </row>
     <row r="186" spans="8:9">
       <c r="H186" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="I186" t="s">
-        <v>505</v>
+        <v>869</v>
       </c>
     </row>
     <row r="187" spans="8:9">
       <c r="H187" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="I187" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="188" spans="8:9">
       <c r="H188" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="I188" t="s">
-        <v>521</v>
+        <v>497</v>
       </c>
     </row>
     <row r="189" spans="8:9">
       <c r="H189" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="I189" t="s">
-        <v>544</v>
+        <v>512</v>
       </c>
     </row>
     <row r="190" spans="8:9">
       <c r="H190" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="I190" t="s">
-        <v>517</v>
+        <v>533</v>
       </c>
     </row>
     <row r="191" spans="8:9">
       <c r="H191" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="I191" t="s">
-        <v>746</v>
+        <v>508</v>
       </c>
     </row>
     <row r="192" spans="8:9">
       <c r="H192" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="I192" t="s">
-        <v>545</v>
+        <v>731</v>
       </c>
     </row>
     <row r="193" spans="8:9">
       <c r="H193" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="I193" t="s">
-        <v>522</v>
+        <v>534</v>
       </c>
     </row>
     <row r="194" spans="8:9">
       <c r="H194" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="I194" t="s">
-        <v>519</v>
+        <v>870</v>
       </c>
     </row>
     <row r="195" spans="8:9">
       <c r="H195" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="I195" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
     </row>
     <row r="196" spans="8:9">
       <c r="H196" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="I196" t="s">
-        <v>546</v>
+        <v>509</v>
       </c>
     </row>
     <row r="197" spans="8:9">
       <c r="H197" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="I197" t="s">
-        <v>423</v>
+        <v>535</v>
       </c>
     </row>
     <row r="198" spans="8:9">
       <c r="H198" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="I198" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="199" spans="8:9">
       <c r="H199" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="I199" t="s">
-        <v>747</v>
+        <v>415</v>
       </c>
     </row>
     <row r="200" spans="8:9">
       <c r="H200" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="I200" t="s">
-        <v>432</v>
+        <v>732</v>
       </c>
     </row>
     <row r="201" spans="8:9">
       <c r="H201" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="I201" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
     </row>
     <row r="202" spans="8:9">
       <c r="H202" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="I202" t="s">
-        <v>426</v>
+        <v>871</v>
       </c>
     </row>
     <row r="203" spans="8:9">
       <c r="H203" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="I203" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="204" spans="8:9">
       <c r="H204" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="I204" t="s">
-        <v>452</v>
+        <v>420</v>
       </c>
     </row>
     <row r="205" spans="8:9">
       <c r="H205" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="I205" t="s">
-        <v>547</v>
+        <v>446</v>
       </c>
     </row>
     <row r="206" spans="8:9">
       <c r="H206" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="I206" t="s">
-        <v>449</v>
+        <v>536</v>
       </c>
     </row>
     <row r="207" spans="8:9">
       <c r="H207" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="I207" t="s">
-        <v>748</v>
+        <v>443</v>
       </c>
     </row>
     <row r="208" spans="8:9">
       <c r="H208" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="I208" t="s">
-        <v>548</v>
+        <v>733</v>
       </c>
     </row>
     <row r="209" spans="8:9">
       <c r="H209" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="I209" t="s">
-        <v>451</v>
+        <v>537</v>
       </c>
     </row>
     <row r="210" spans="8:9">
       <c r="H210" t="s">
-        <v>199</v>
+        <v>395</v>
       </c>
       <c r="I210" t="s">
-        <v>470</v>
+        <v>445</v>
       </c>
     </row>
     <row r="211" spans="8:9">
       <c r="H211" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="I211" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
     </row>
     <row r="212" spans="8:9">
       <c r="H212" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="I212" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
     </row>
     <row r="213" spans="8:9">
       <c r="H213" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="I213" t="s">
-        <v>570</v>
+        <v>466</v>
       </c>
     </row>
     <row r="214" spans="8:9">
       <c r="H214" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="I214" t="s">
-        <v>474</v>
+        <v>559</v>
       </c>
     </row>
     <row r="215" spans="8:9">
       <c r="H215" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="I215" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="216" spans="8:9">
       <c r="H216" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="I216" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
     </row>
     <row r="217" spans="8:9">
       <c r="H217" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="I217" t="s">
-        <v>203</v>
+        <v>472</v>
       </c>
     </row>
     <row r="218" spans="8:9">
       <c r="H218" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="I218" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="219" spans="8:9">
       <c r="H219" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="I219" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="220" spans="8:9">
       <c r="H220" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="I220" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="221" spans="8:9">
       <c r="H221" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="I221" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
     </row>
     <row r="222" spans="8:9">
       <c r="H222" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="I222" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="223" spans="8:9">
       <c r="H223" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="I223" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="224" spans="8:9">
       <c r="H224" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="I224" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
     </row>
     <row r="225" spans="8:9">
       <c r="H225" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="I225" t="s">
-        <v>232</v>
+        <v>213</v>
       </c>
     </row>
     <row r="226" spans="8:9">
       <c r="H226" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="I226" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="227" spans="8:9">
       <c r="H227" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="I227" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
     </row>
     <row r="228" spans="8:9">
       <c r="H228" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="I228" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="229" spans="8:9">
       <c r="H229" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="I229" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
     </row>
     <row r="230" spans="8:9">
       <c r="H230" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="I230" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
     </row>
     <row r="231" spans="8:9">
       <c r="H231" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="I231" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
     </row>
     <row r="232" spans="8:9">
       <c r="H232" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="I232" t="s">
-        <v>168</v>
+        <v>240</v>
       </c>
     </row>
     <row r="233" spans="8:9">
       <c r="H233" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="I233" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="234" spans="8:9">
       <c r="H234" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="I234" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="235" spans="8:9">
       <c r="H235" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="I235" t="s">
         <v>171</v>
@@ -4900,15 +4945,15 @@
     </row>
     <row r="236" spans="8:9">
       <c r="H236" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="I236" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
     </row>
     <row r="237" spans="8:9">
       <c r="H237" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="I237" t="s">
         <v>175</v>
@@ -4916,1613 +4961,1677 @@
     </row>
     <row r="238" spans="8:9">
       <c r="H238" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="I238" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="239" spans="8:9">
       <c r="H239" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="I239" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="240" spans="8:9">
       <c r="H240" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="I240" t="s">
-        <v>495</v>
+        <v>179</v>
       </c>
     </row>
     <row r="241" spans="8:9">
       <c r="H241" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="I241" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
     </row>
     <row r="242" spans="8:9">
       <c r="H242" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="I242" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
     </row>
     <row r="243" spans="8:9">
       <c r="H243" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="I243" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
     </row>
     <row r="244" spans="8:9">
       <c r="H244" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="I244" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
     </row>
     <row r="245" spans="8:9">
       <c r="H245" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="I245" t="s">
-        <v>571</v>
+        <v>492</v>
       </c>
     </row>
     <row r="246" spans="8:9">
       <c r="H246" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="I246" t="s">
-        <v>500</v>
+        <v>560</v>
       </c>
     </row>
     <row r="247" spans="8:9">
       <c r="H247" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="I247" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
     </row>
     <row r="248" spans="8:9">
       <c r="H248" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="I248" t="s">
-        <v>510</v>
+        <v>494</v>
       </c>
     </row>
     <row r="249" spans="8:9">
       <c r="H249" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="I249" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
     </row>
     <row r="250" spans="8:9">
       <c r="H250" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="I250" t="s">
-        <v>512</v>
+        <v>502</v>
       </c>
     </row>
     <row r="251" spans="8:9">
       <c r="H251" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="I251" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
     </row>
     <row r="252" spans="8:9">
       <c r="H252" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="I252" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
     </row>
     <row r="253" spans="8:9">
       <c r="H253" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="I253" t="s">
-        <v>515</v>
+        <v>505</v>
       </c>
     </row>
     <row r="254" spans="8:9">
       <c r="H254" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="I254" t="s">
-        <v>516</v>
+        <v>506</v>
       </c>
     </row>
     <row r="255" spans="8:9">
       <c r="H255" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="I255" t="s">
-        <v>411</v>
+        <v>507</v>
       </c>
     </row>
     <row r="256" spans="8:9">
       <c r="H256" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="I256" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
     </row>
     <row r="257" spans="8:9">
       <c r="H257" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="I257" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
     </row>
     <row r="258" spans="8:9">
       <c r="H258" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="I258" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="259" spans="8:9">
       <c r="H259" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="I259" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
     </row>
     <row r="260" spans="8:9">
       <c r="H260" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="I260" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
     </row>
     <row r="261" spans="8:9">
       <c r="H261" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="I261" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
     </row>
     <row r="262" spans="8:9">
       <c r="H262" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="I262" t="s">
-        <v>436</v>
+        <v>413</v>
       </c>
     </row>
     <row r="263" spans="8:9">
       <c r="H263" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I263" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
     </row>
     <row r="264" spans="8:9">
       <c r="H264" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="I264" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
     </row>
     <row r="265" spans="8:9">
       <c r="H265" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="I265" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
     </row>
     <row r="266" spans="8:9">
       <c r="H266" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="I266" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
     </row>
     <row r="267" spans="8:9">
       <c r="H267" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="I267" t="s">
-        <v>572</v>
+        <v>437</v>
       </c>
     </row>
     <row r="268" spans="8:9">
       <c r="H268" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="I268" t="s">
-        <v>444</v>
+        <v>561</v>
       </c>
     </row>
     <row r="269" spans="8:9">
       <c r="H269" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="I269" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
     </row>
     <row r="270" spans="8:9">
       <c r="H270" t="s">
-        <v>852</v>
+        <v>298</v>
       </c>
       <c r="I270" t="s">
-        <v>853</v>
+        <v>440</v>
       </c>
     </row>
     <row r="271" spans="8:9">
       <c r="H271" t="s">
-        <v>445</v>
+        <v>833</v>
       </c>
       <c r="I271" t="s">
-        <v>783</v>
+        <v>834</v>
       </c>
     </row>
     <row r="272" spans="8:9">
       <c r="H272" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="I272" t="s">
-        <v>573</v>
+        <v>768</v>
       </c>
     </row>
     <row r="273" spans="8:9">
       <c r="H273" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="I273" t="s">
-        <v>574</v>
+        <v>876</v>
       </c>
     </row>
     <row r="274" spans="8:9">
       <c r="H274" t="s">
-        <v>575</v>
+        <v>442</v>
       </c>
       <c r="I274" t="s">
-        <v>749</v>
+        <v>562</v>
       </c>
     </row>
     <row r="275" spans="8:9">
       <c r="H275" t="s">
-        <v>576</v>
+        <v>563</v>
       </c>
       <c r="I275" t="s">
-        <v>750</v>
+        <v>734</v>
       </c>
     </row>
     <row r="276" spans="8:9">
       <c r="H276" t="s">
-        <v>450</v>
+        <v>564</v>
       </c>
       <c r="I276" t="s">
-        <v>577</v>
+        <v>735</v>
       </c>
     </row>
     <row r="277" spans="8:9">
       <c r="H277" t="s">
-        <v>578</v>
+        <v>444</v>
       </c>
       <c r="I277" t="s">
-        <v>751</v>
+        <v>565</v>
       </c>
     </row>
     <row r="278" spans="8:9">
       <c r="H278" t="s">
-        <v>579</v>
+        <v>566</v>
       </c>
       <c r="I278" t="s">
-        <v>752</v>
+        <v>736</v>
       </c>
     </row>
     <row r="279" spans="8:9">
       <c r="H279" t="s">
-        <v>580</v>
+        <v>567</v>
       </c>
       <c r="I279" t="s">
-        <v>753</v>
+        <v>737</v>
       </c>
     </row>
     <row r="280" spans="8:9">
       <c r="H280" t="s">
-        <v>581</v>
+        <v>568</v>
       </c>
       <c r="I280" t="s">
-        <v>754</v>
+        <v>738</v>
       </c>
     </row>
     <row r="281" spans="8:9">
       <c r="H281" t="s">
-        <v>850</v>
+        <v>569</v>
       </c>
       <c r="I281" t="s">
-        <v>851</v>
+        <v>739</v>
       </c>
     </row>
     <row r="282" spans="8:9">
       <c r="H282" t="s">
-        <v>460</v>
+        <v>831</v>
       </c>
       <c r="I282" t="s">
-        <v>755</v>
+        <v>832</v>
       </c>
     </row>
     <row r="283" spans="8:9">
       <c r="H283" t="s">
-        <v>848</v>
+        <v>454</v>
       </c>
       <c r="I283" t="s">
-        <v>849</v>
+        <v>740</v>
       </c>
     </row>
     <row r="284" spans="8:9">
       <c r="H284" t="s">
-        <v>462</v>
+        <v>830</v>
       </c>
       <c r="I284" t="s">
-        <v>194</v>
+        <v>877</v>
       </c>
     </row>
     <row r="285" spans="8:9">
       <c r="H285" t="s">
-        <v>582</v>
+        <v>456</v>
       </c>
       <c r="I285" t="s">
-        <v>756</v>
+        <v>192</v>
       </c>
     </row>
     <row r="286" spans="8:9">
       <c r="H286" t="s">
-        <v>583</v>
+        <v>570</v>
       </c>
       <c r="I286" t="s">
-        <v>757</v>
+        <v>741</v>
       </c>
     </row>
     <row r="287" spans="8:9">
       <c r="H287" t="s">
-        <v>836</v>
+        <v>571</v>
       </c>
       <c r="I287" t="s">
-        <v>837</v>
+        <v>742</v>
       </c>
     </row>
     <row r="288" spans="8:9">
       <c r="H288" t="s">
-        <v>464</v>
+        <v>819</v>
       </c>
       <c r="I288" t="s">
-        <v>784</v>
+        <v>820</v>
       </c>
     </row>
     <row r="289" spans="8:9">
       <c r="H289" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="I289" t="s">
-        <v>506</v>
+        <v>769</v>
       </c>
     </row>
     <row r="290" spans="8:9">
       <c r="H290" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="I290" t="s">
-        <v>507</v>
+        <v>878</v>
       </c>
     </row>
     <row r="291" spans="8:9">
       <c r="H291" t="s">
-        <v>584</v>
+        <v>463</v>
       </c>
       <c r="I291" t="s">
-        <v>758</v>
+        <v>499</v>
       </c>
     </row>
     <row r="292" spans="8:9">
       <c r="H292" t="s">
-        <v>585</v>
+        <v>572</v>
       </c>
       <c r="I292" t="s">
-        <v>786</v>
+        <v>743</v>
       </c>
     </row>
     <row r="293" spans="8:9">
       <c r="H293" t="s">
-        <v>854</v>
+        <v>573</v>
       </c>
       <c r="I293" t="s">
-        <v>855</v>
+        <v>771</v>
       </c>
     </row>
     <row r="294" spans="8:9">
       <c r="H294" t="s">
-        <v>857</v>
+        <v>835</v>
       </c>
       <c r="I294" t="s">
-        <v>858</v>
+        <v>836</v>
       </c>
     </row>
     <row r="295" spans="8:9">
       <c r="H295" t="s">
-        <v>473</v>
+        <v>838</v>
       </c>
       <c r="I295" t="s">
-        <v>520</v>
+        <v>854</v>
       </c>
     </row>
     <row r="296" spans="8:9">
       <c r="H296" t="s">
-        <v>586</v>
+        <v>467</v>
       </c>
       <c r="I296" t="s">
-        <v>759</v>
+        <v>511</v>
       </c>
     </row>
     <row r="297" spans="8:9">
       <c r="H297" t="s">
-        <v>587</v>
+        <v>574</v>
       </c>
       <c r="I297" t="s">
-        <v>856</v>
+        <v>744</v>
       </c>
     </row>
     <row r="298" spans="8:9">
       <c r="H298" t="s">
-        <v>475</v>
+        <v>575</v>
       </c>
       <c r="I298" t="s">
-        <v>431</v>
+        <v>837</v>
       </c>
     </row>
     <row r="299" spans="8:9">
       <c r="H299" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="I299" t="s">
-        <v>760</v>
+        <v>426</v>
       </c>
     </row>
     <row r="300" spans="8:9">
       <c r="H300" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="I300" t="s">
-        <v>591</v>
+        <v>745</v>
       </c>
     </row>
     <row r="301" spans="8:9">
       <c r="H301" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="I301" t="s">
-        <v>428</v>
+        <v>879</v>
       </c>
     </row>
     <row r="302" spans="8:9">
       <c r="H302" t="s">
-        <v>588</v>
+        <v>474</v>
       </c>
       <c r="I302" t="s">
-        <v>791</v>
+        <v>423</v>
       </c>
     </row>
     <row r="303" spans="8:9">
       <c r="H303" t="s">
-        <v>589</v>
+        <v>576</v>
       </c>
       <c r="I303" t="s">
-        <v>847</v>
+        <v>776</v>
       </c>
     </row>
     <row r="304" spans="8:9">
       <c r="H304" t="s">
-        <v>590</v>
+        <v>577</v>
       </c>
       <c r="I304" t="s">
-        <v>592</v>
+        <v>829</v>
       </c>
     </row>
     <row r="305" spans="8:14">
       <c r="H305" t="s">
-        <v>593</v>
+        <v>578</v>
       </c>
       <c r="I305" t="s">
-        <v>762</v>
+        <v>579</v>
       </c>
     </row>
     <row r="306" spans="8:14">
       <c r="H306" t="s">
-        <v>594</v>
+        <v>580</v>
       </c>
       <c r="I306" t="s">
-        <v>761</v>
+        <v>747</v>
       </c>
     </row>
     <row r="307" spans="8:14">
       <c r="H307" t="s">
-        <v>595</v>
+        <v>581</v>
       </c>
       <c r="I307" t="s">
-        <v>115</v>
+        <v>746</v>
       </c>
     </row>
     <row r="308" spans="8:14">
       <c r="H308" t="s">
-        <v>596</v>
+        <v>582</v>
       </c>
       <c r="I308" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="309" spans="8:14">
       <c r="H309" t="s">
-        <v>597</v>
+        <v>583</v>
       </c>
       <c r="I309" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="310" spans="8:14">
       <c r="H310" t="s">
-        <v>598</v>
+        <v>584</v>
       </c>
       <c r="I310" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="311" spans="8:14">
       <c r="H311" t="s">
-        <v>599</v>
+        <v>585</v>
       </c>
       <c r="I311" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="312" spans="8:14">
       <c r="H312" t="s">
-        <v>600</v>
+        <v>586</v>
       </c>
       <c r="I312" t="s">
-        <v>125</v>
+        <v>857</v>
       </c>
     </row>
     <row r="313" spans="8:14">
       <c r="H313" t="s">
-        <v>601</v>
+        <v>586</v>
       </c>
       <c r="I313" t="s">
-        <v>127</v>
-      </c>
-      <c r="N313" t="s">
-        <v>794</v>
+        <v>123</v>
       </c>
     </row>
     <row r="314" spans="8:14">
       <c r="H314" t="s">
-        <v>859</v>
+        <v>587</v>
       </c>
       <c r="I314" t="s">
-        <v>860</v>
+        <v>125</v>
       </c>
     </row>
     <row r="315" spans="8:14">
       <c r="H315" t="s">
-        <v>861</v>
+        <v>588</v>
       </c>
       <c r="I315" t="s">
-        <v>862</v>
+        <v>127</v>
+      </c>
+      <c r="N315" t="s">
+        <v>779</v>
       </c>
     </row>
     <row r="316" spans="8:14">
       <c r="H316" t="s">
-        <v>863</v>
+        <v>839</v>
       </c>
       <c r="I316" t="s">
-        <v>864</v>
+        <v>840</v>
       </c>
     </row>
     <row r="317" spans="8:14">
       <c r="H317" t="s">
-        <v>793</v>
+        <v>841</v>
       </c>
       <c r="I317" t="s">
-        <v>253</v>
+        <v>842</v>
       </c>
     </row>
     <row r="318" spans="8:14">
       <c r="H318" t="s">
-        <v>795</v>
+        <v>843</v>
       </c>
       <c r="I318" t="s">
-        <v>801</v>
+        <v>844</v>
       </c>
     </row>
     <row r="319" spans="8:14">
       <c r="H319" t="s">
-        <v>796</v>
+        <v>778</v>
       </c>
       <c r="I319" t="s">
-        <v>802</v>
+        <v>250</v>
       </c>
     </row>
     <row r="320" spans="8:14">
       <c r="H320" t="s">
-        <v>797</v>
+        <v>780</v>
       </c>
       <c r="I320" t="s">
-        <v>803</v>
+        <v>786</v>
       </c>
     </row>
     <row r="321" spans="8:9">
       <c r="H321" t="s">
-        <v>798</v>
+        <v>781</v>
       </c>
       <c r="I321" t="s">
-        <v>804</v>
+        <v>787</v>
       </c>
     </row>
     <row r="322" spans="8:9">
       <c r="H322" t="s">
-        <v>799</v>
+        <v>782</v>
       </c>
       <c r="I322" t="s">
-        <v>805</v>
+        <v>788</v>
       </c>
     </row>
     <row r="323" spans="8:9">
       <c r="H323" t="s">
-        <v>800</v>
+        <v>783</v>
       </c>
       <c r="I323" t="s">
-        <v>807</v>
+        <v>789</v>
       </c>
     </row>
     <row r="324" spans="8:9">
       <c r="H324" t="s">
-        <v>800</v>
+        <v>784</v>
       </c>
       <c r="I324" t="s">
-        <v>806</v>
+        <v>790</v>
       </c>
     </row>
     <row r="325" spans="8:9">
       <c r="H325" t="s">
-        <v>602</v>
+        <v>785</v>
       </c>
       <c r="I325" t="s">
-        <v>486</v>
+        <v>792</v>
       </c>
     </row>
     <row r="326" spans="8:9">
       <c r="H326" t="s">
-        <v>603</v>
+        <v>785</v>
       </c>
       <c r="I326" t="s">
-        <v>487</v>
+        <v>791</v>
       </c>
     </row>
     <row r="327" spans="8:9">
       <c r="H327" t="s">
-        <v>604</v>
+        <v>589</v>
       </c>
       <c r="I327" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
     </row>
     <row r="328" spans="8:9">
       <c r="H328" t="s">
-        <v>605</v>
+        <v>590</v>
       </c>
       <c r="I328" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
     </row>
     <row r="329" spans="8:9">
       <c r="H329" t="s">
-        <v>606</v>
+        <v>591</v>
       </c>
       <c r="I329" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
     </row>
     <row r="330" spans="8:9">
       <c r="H330" t="s">
-        <v>607</v>
+        <v>592</v>
       </c>
       <c r="I330" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
     </row>
     <row r="331" spans="8:9">
       <c r="H331" t="s">
-        <v>608</v>
+        <v>593</v>
       </c>
       <c r="I331" t="s">
-        <v>638</v>
+        <v>483</v>
       </c>
     </row>
     <row r="332" spans="8:9">
       <c r="H332" t="s">
-        <v>609</v>
+        <v>594</v>
       </c>
       <c r="I332" t="s">
-        <v>639</v>
+        <v>484</v>
       </c>
     </row>
     <row r="333" spans="8:9">
       <c r="H333" t="s">
-        <v>610</v>
+        <v>595</v>
       </c>
       <c r="I333" t="s">
-        <v>640</v>
+        <v>625</v>
       </c>
     </row>
     <row r="334" spans="8:9">
       <c r="H334" t="s">
-        <v>611</v>
+        <v>596</v>
       </c>
       <c r="I334" t="s">
-        <v>641</v>
+        <v>626</v>
       </c>
     </row>
     <row r="335" spans="8:9">
       <c r="H335" t="s">
-        <v>612</v>
+        <v>597</v>
       </c>
       <c r="I335" t="s">
-        <v>642</v>
+        <v>627</v>
       </c>
     </row>
     <row r="336" spans="8:9">
       <c r="H336" t="s">
-        <v>613</v>
+        <v>598</v>
       </c>
       <c r="I336" t="s">
-        <v>643</v>
+        <v>628</v>
       </c>
     </row>
     <row r="337" spans="8:9">
       <c r="H337" t="s">
-        <v>614</v>
+        <v>599</v>
       </c>
       <c r="I337" t="s">
-        <v>644</v>
+        <v>629</v>
       </c>
     </row>
     <row r="338" spans="8:9">
       <c r="H338" t="s">
-        <v>615</v>
+        <v>600</v>
       </c>
       <c r="I338" t="s">
-        <v>645</v>
+        <v>630</v>
       </c>
     </row>
     <row r="339" spans="8:9">
       <c r="H339" t="s">
-        <v>616</v>
+        <v>601</v>
       </c>
       <c r="I339" t="s">
-        <v>89</v>
+        <v>631</v>
       </c>
     </row>
     <row r="340" spans="8:9">
       <c r="H340" t="s">
-        <v>617</v>
+        <v>602</v>
       </c>
       <c r="I340" t="s">
-        <v>91</v>
+        <v>632</v>
       </c>
     </row>
     <row r="341" spans="8:9">
       <c r="H341" t="s">
-        <v>618</v>
+        <v>603</v>
       </c>
       <c r="I341" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="342" spans="8:9">
       <c r="H342" t="s">
-        <v>619</v>
+        <v>604</v>
       </c>
       <c r="I342" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="343" spans="8:9">
       <c r="H343" t="s">
-        <v>620</v>
+        <v>605</v>
       </c>
       <c r="I343" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="344" spans="8:9">
       <c r="H344" t="s">
-        <v>621</v>
+        <v>606</v>
       </c>
       <c r="I344" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="345" spans="8:9">
       <c r="H345" t="s">
-        <v>622</v>
+        <v>607</v>
       </c>
       <c r="I345" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="346" spans="8:9">
       <c r="H346" t="s">
-        <v>623</v>
+        <v>608</v>
       </c>
       <c r="I346" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
     </row>
     <row r="347" spans="8:9">
       <c r="H347" t="s">
-        <v>624</v>
+        <v>609</v>
       </c>
       <c r="I347" t="s">
-        <v>59</v>
+        <v>100</v>
       </c>
     </row>
     <row r="348" spans="8:9">
       <c r="H348" t="s">
-        <v>625</v>
+        <v>610</v>
       </c>
       <c r="I348" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="349" spans="8:9">
       <c r="H349" t="s">
-        <v>626</v>
+        <v>611</v>
       </c>
       <c r="I349" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="350" spans="8:9">
       <c r="H350" t="s">
-        <v>627</v>
+        <v>612</v>
       </c>
       <c r="I350" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="351" spans="8:9">
       <c r="H351" t="s">
-        <v>628</v>
+        <v>613</v>
       </c>
       <c r="I351" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="352" spans="8:9">
       <c r="H352" t="s">
-        <v>629</v>
+        <v>614</v>
       </c>
       <c r="I352" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="353" spans="8:9">
       <c r="H353" t="s">
-        <v>630</v>
+        <v>615</v>
       </c>
       <c r="I353" t="s">
-        <v>352</v>
+        <v>67</v>
       </c>
     </row>
     <row r="354" spans="8:9">
       <c r="H354" t="s">
-        <v>631</v>
+        <v>616</v>
       </c>
       <c r="I354" t="s">
-        <v>354</v>
+        <v>69</v>
       </c>
     </row>
     <row r="355" spans="8:9">
       <c r="H355" t="s">
-        <v>632</v>
+        <v>617</v>
       </c>
       <c r="I355" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
     </row>
     <row r="356" spans="8:9">
       <c r="H356" t="s">
-        <v>633</v>
+        <v>618</v>
       </c>
       <c r="I356" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
     </row>
     <row r="357" spans="8:9">
       <c r="H357" t="s">
-        <v>634</v>
+        <v>619</v>
       </c>
       <c r="I357" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="358" spans="8:9">
       <c r="H358" t="s">
-        <v>635</v>
+        <v>620</v>
       </c>
       <c r="I358" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
     </row>
     <row r="359" spans="8:9">
       <c r="H359" t="s">
-        <v>636</v>
+        <v>621</v>
       </c>
       <c r="I359" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
     </row>
     <row r="360" spans="8:9">
       <c r="H360" t="s">
-        <v>637</v>
+        <v>622</v>
       </c>
       <c r="I360" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
     </row>
     <row r="361" spans="8:9">
       <c r="H361" t="s">
-        <v>646</v>
+        <v>623</v>
       </c>
       <c r="I361" t="s">
-        <v>685</v>
+        <v>360</v>
       </c>
     </row>
     <row r="362" spans="8:9">
       <c r="H362" t="s">
-        <v>647</v>
+        <v>624</v>
       </c>
       <c r="I362" t="s">
-        <v>686</v>
+        <v>362</v>
       </c>
     </row>
     <row r="363" spans="8:9">
       <c r="H363" t="s">
-        <v>648</v>
+        <v>633</v>
       </c>
       <c r="I363" t="s">
-        <v>129</v>
+        <v>672</v>
       </c>
     </row>
     <row r="364" spans="8:9">
       <c r="H364" t="s">
-        <v>649</v>
+        <v>634</v>
       </c>
       <c r="I364" t="s">
-        <v>785</v>
+        <v>673</v>
       </c>
     </row>
     <row r="365" spans="8:9">
       <c r="H365" t="s">
-        <v>650</v>
+        <v>635</v>
       </c>
       <c r="I365" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="366" spans="8:9">
       <c r="H366" t="s">
-        <v>651</v>
+        <v>636</v>
       </c>
       <c r="I366" t="s">
-        <v>131</v>
+        <v>770</v>
       </c>
     </row>
     <row r="367" spans="8:9">
       <c r="H367" t="s">
-        <v>652</v>
+        <v>637</v>
       </c>
       <c r="I367" t="s">
-        <v>763</v>
+        <v>132</v>
       </c>
     </row>
     <row r="368" spans="8:9">
       <c r="H368" t="s">
-        <v>653</v>
+        <v>638</v>
       </c>
       <c r="I368" t="s">
-        <v>261</v>
+        <v>131</v>
       </c>
     </row>
     <row r="369" spans="8:9">
       <c r="H369" t="s">
-        <v>808</v>
+        <v>639</v>
       </c>
       <c r="I369" t="s">
-        <v>812</v>
+        <v>748</v>
       </c>
     </row>
     <row r="370" spans="8:9">
       <c r="H370" t="s">
-        <v>833</v>
+        <v>858</v>
       </c>
       <c r="I370" t="s">
-        <v>813</v>
+        <v>859</v>
       </c>
     </row>
     <row r="371" spans="8:9">
       <c r="H371" t="s">
-        <v>809</v>
+        <v>860</v>
       </c>
       <c r="I371" t="s">
-        <v>814</v>
+        <v>861</v>
       </c>
     </row>
     <row r="372" spans="8:9">
       <c r="H372" t="s">
-        <v>831</v>
+        <v>882</v>
       </c>
       <c r="I372" t="s">
-        <v>815</v>
+        <v>883</v>
       </c>
     </row>
     <row r="373" spans="8:9">
       <c r="H373" t="s">
-        <v>810</v>
+        <v>640</v>
       </c>
       <c r="I373" t="s">
-        <v>816</v>
+        <v>258</v>
       </c>
     </row>
     <row r="374" spans="8:9">
       <c r="H374" t="s">
-        <v>832</v>
+        <v>793</v>
       </c>
       <c r="I374" t="s">
-        <v>817</v>
+        <v>797</v>
       </c>
     </row>
     <row r="375" spans="8:9">
       <c r="H375" t="s">
-        <v>811</v>
+        <v>816</v>
       </c>
       <c r="I375" t="s">
-        <v>818</v>
+        <v>798</v>
       </c>
     </row>
     <row r="376" spans="8:9">
       <c r="H376" t="s">
-        <v>654</v>
+        <v>794</v>
       </c>
       <c r="I376" t="s">
-        <v>494</v>
+        <v>799</v>
       </c>
     </row>
     <row r="377" spans="8:9">
       <c r="H377" t="s">
-        <v>655</v>
+        <v>814</v>
       </c>
       <c r="I377" t="s">
-        <v>687</v>
+        <v>800</v>
       </c>
     </row>
     <row r="378" spans="8:9">
       <c r="H378" t="s">
-        <v>843</v>
+        <v>863</v>
       </c>
       <c r="I378" t="s">
-        <v>844</v>
+        <v>864</v>
       </c>
     </row>
     <row r="379" spans="8:9">
       <c r="H379" t="s">
-        <v>845</v>
+        <v>795</v>
       </c>
       <c r="I379" t="s">
-        <v>846</v>
+        <v>872</v>
       </c>
     </row>
     <row r="380" spans="8:9">
       <c r="H380" t="s">
-        <v>656</v>
+        <v>815</v>
       </c>
       <c r="I380" t="s">
-        <v>492</v>
+        <v>801</v>
       </c>
     </row>
     <row r="381" spans="8:9">
       <c r="H381" t="s">
-        <v>657</v>
+        <v>796</v>
       </c>
       <c r="I381" t="s">
-        <v>493</v>
+        <v>802</v>
       </c>
     </row>
     <row r="382" spans="8:9">
       <c r="H382" t="s">
-        <v>658</v>
+        <v>641</v>
       </c>
       <c r="I382" t="s">
-        <v>688</v>
+        <v>487</v>
       </c>
     </row>
     <row r="383" spans="8:9">
       <c r="H383" t="s">
-        <v>659</v>
+        <v>642</v>
       </c>
       <c r="I383" t="s">
-        <v>690</v>
+        <v>674</v>
       </c>
     </row>
     <row r="384" spans="8:9">
       <c r="H384" t="s">
-        <v>660</v>
+        <v>825</v>
       </c>
       <c r="I384" t="s">
-        <v>691</v>
+        <v>826</v>
       </c>
     </row>
     <row r="385" spans="8:9">
       <c r="H385" t="s">
-        <v>661</v>
+        <v>827</v>
       </c>
       <c r="I385" t="s">
-        <v>764</v>
+        <v>828</v>
       </c>
     </row>
     <row r="386" spans="8:9">
       <c r="H386" t="s">
-        <v>662</v>
+        <v>643</v>
       </c>
       <c r="I386" t="s">
-        <v>692</v>
+        <v>485</v>
       </c>
     </row>
     <row r="387" spans="8:9">
       <c r="H387" t="s">
-        <v>663</v>
+        <v>644</v>
       </c>
       <c r="I387" t="s">
-        <v>693</v>
+        <v>486</v>
       </c>
     </row>
     <row r="388" spans="8:9">
       <c r="H388" t="s">
-        <v>664</v>
+        <v>645</v>
       </c>
       <c r="I388" t="s">
-        <v>694</v>
+        <v>675</v>
       </c>
     </row>
     <row r="389" spans="8:9">
       <c r="H389" t="s">
-        <v>665</v>
+        <v>646</v>
       </c>
       <c r="I389" t="s">
-        <v>689</v>
+        <v>677</v>
       </c>
     </row>
     <row r="390" spans="8:9">
       <c r="H390" t="s">
-        <v>666</v>
+        <v>647</v>
       </c>
       <c r="I390" t="s">
-        <v>695</v>
+        <v>678</v>
       </c>
     </row>
     <row r="391" spans="8:9">
       <c r="H391" t="s">
-        <v>667</v>
+        <v>648</v>
       </c>
       <c r="I391" t="s">
-        <v>107</v>
+        <v>749</v>
       </c>
     </row>
     <row r="392" spans="8:9">
       <c r="H392" t="s">
-        <v>668</v>
+        <v>649</v>
       </c>
       <c r="I392" t="s">
-        <v>102</v>
+        <v>679</v>
       </c>
     </row>
     <row r="393" spans="8:9">
       <c r="H393" t="s">
-        <v>669</v>
+        <v>650</v>
       </c>
       <c r="I393" t="s">
-        <v>790</v>
+        <v>873</v>
       </c>
     </row>
     <row r="394" spans="8:9">
       <c r="H394" t="s">
-        <v>670</v>
+        <v>651</v>
       </c>
       <c r="I394" t="s">
-        <v>110</v>
+        <v>680</v>
       </c>
     </row>
     <row r="395" spans="8:9">
       <c r="H395" t="s">
-        <v>671</v>
+        <v>652</v>
       </c>
       <c r="I395" t="s">
-        <v>108</v>
+        <v>676</v>
       </c>
     </row>
     <row r="396" spans="8:9">
       <c r="H396" t="s">
-        <v>672</v>
+        <v>653</v>
       </c>
       <c r="I396" t="s">
-        <v>696</v>
+        <v>681</v>
       </c>
     </row>
     <row r="397" spans="8:9">
       <c r="H397" t="s">
-        <v>673</v>
+        <v>654</v>
       </c>
       <c r="I397" t="s">
-        <v>76</v>
+        <v>107</v>
       </c>
     </row>
     <row r="398" spans="8:9">
       <c r="H398" t="s">
-        <v>674</v>
+        <v>655</v>
       </c>
       <c r="I398" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
     </row>
     <row r="399" spans="8:9">
       <c r="H399" t="s">
-        <v>675</v>
+        <v>656</v>
       </c>
       <c r="I399" t="s">
-        <v>765</v>
+        <v>775</v>
       </c>
     </row>
     <row r="400" spans="8:9">
       <c r="H400" t="s">
-        <v>676</v>
+        <v>657</v>
       </c>
       <c r="I400" t="s">
-        <v>697</v>
+        <v>110</v>
       </c>
     </row>
     <row r="401" spans="8:9">
       <c r="H401" t="s">
-        <v>677</v>
+        <v>658</v>
       </c>
       <c r="I401" t="s">
-        <v>80</v>
+        <v>108</v>
       </c>
     </row>
     <row r="402" spans="8:9">
       <c r="H402" t="s">
-        <v>678</v>
+        <v>659</v>
       </c>
       <c r="I402" t="s">
-        <v>78</v>
+        <v>682</v>
       </c>
     </row>
     <row r="403" spans="8:9">
       <c r="H403" t="s">
-        <v>679</v>
+        <v>660</v>
       </c>
       <c r="I403" t="s">
-        <v>378</v>
+        <v>76</v>
       </c>
     </row>
     <row r="404" spans="8:9">
       <c r="H404" t="s">
-        <v>680</v>
+        <v>661</v>
       </c>
       <c r="I404" t="s">
-        <v>374</v>
+        <v>73</v>
       </c>
     </row>
     <row r="405" spans="8:9">
       <c r="H405" t="s">
-        <v>681</v>
+        <v>662</v>
       </c>
       <c r="I405" t="s">
-        <v>370</v>
+        <v>750</v>
       </c>
     </row>
     <row r="406" spans="8:9">
       <c r="H406" t="s">
-        <v>682</v>
+        <v>663</v>
       </c>
       <c r="I406" t="s">
-        <v>766</v>
+        <v>683</v>
       </c>
     </row>
     <row r="407" spans="8:9">
       <c r="H407" t="s">
-        <v>683</v>
+        <v>664</v>
       </c>
       <c r="I407" t="s">
-        <v>698</v>
+        <v>80</v>
       </c>
     </row>
     <row r="408" spans="8:9">
       <c r="H408" t="s">
-        <v>684</v>
+        <v>665</v>
       </c>
       <c r="I408" t="s">
-        <v>376</v>
+        <v>78</v>
       </c>
     </row>
     <row r="409" spans="8:9">
       <c r="H409" t="s">
-        <v>840</v>
+        <v>666</v>
       </c>
       <c r="I409" t="s">
-        <v>842</v>
+        <v>374</v>
       </c>
     </row>
     <row r="410" spans="8:9">
       <c r="H410" t="s">
-        <v>840</v>
+        <v>667</v>
       </c>
       <c r="I410" t="s">
-        <v>841</v>
+        <v>370</v>
       </c>
     </row>
     <row r="411" spans="8:9">
       <c r="H411" t="s">
-        <v>699</v>
+        <v>668</v>
       </c>
       <c r="I411" t="s">
-        <v>792</v>
+        <v>366</v>
       </c>
     </row>
     <row r="412" spans="8:9">
       <c r="H412" t="s">
-        <v>700</v>
+        <v>669</v>
       </c>
       <c r="I412" t="s">
-        <v>259</v>
+        <v>751</v>
       </c>
     </row>
     <row r="413" spans="8:9">
       <c r="H413" t="s">
-        <v>701</v>
+        <v>670</v>
       </c>
       <c r="I413" t="s">
-        <v>787</v>
+        <v>684</v>
       </c>
     </row>
     <row r="414" spans="8:9">
       <c r="H414" t="s">
-        <v>702</v>
+        <v>671</v>
       </c>
       <c r="I414" t="s">
-        <v>257</v>
+        <v>372</v>
       </c>
     </row>
     <row r="415" spans="8:9">
       <c r="H415" t="s">
-        <v>703</v>
+        <v>823</v>
       </c>
       <c r="I415" t="s">
-        <v>255</v>
+        <v>856</v>
       </c>
     </row>
     <row r="416" spans="8:9">
       <c r="H416" t="s">
-        <v>819</v>
+        <v>823</v>
       </c>
       <c r="I416" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="417" spans="8:9">
       <c r="H417" t="s">
-        <v>820</v>
+        <v>685</v>
       </c>
       <c r="I417" t="s">
-        <v>872</v>
+        <v>777</v>
       </c>
     </row>
     <row r="418" spans="8:9">
       <c r="H418" t="s">
-        <v>821</v>
+        <v>686</v>
       </c>
       <c r="I418" t="s">
-        <v>827</v>
+        <v>256</v>
       </c>
     </row>
     <row r="419" spans="8:9">
       <c r="H419" t="s">
-        <v>822</v>
+        <v>687</v>
       </c>
       <c r="I419" t="s">
-        <v>828</v>
+        <v>772</v>
       </c>
     </row>
     <row r="420" spans="8:9">
       <c r="H420" t="s">
-        <v>823</v>
+        <v>884</v>
       </c>
       <c r="I420" t="s">
-        <v>829</v>
+        <v>885</v>
       </c>
     </row>
     <row r="421" spans="8:9">
       <c r="H421" t="s">
-        <v>824</v>
+        <v>688</v>
       </c>
       <c r="I421" t="s">
-        <v>873</v>
+        <v>254</v>
       </c>
     </row>
     <row r="422" spans="8:9">
       <c r="H422" t="s">
-        <v>825</v>
+        <v>689</v>
       </c>
       <c r="I422" t="s">
-        <v>830</v>
+        <v>252</v>
       </c>
     </row>
     <row r="423" spans="8:9">
       <c r="H423" t="s">
-        <v>704</v>
+        <v>803</v>
       </c>
       <c r="I423" t="s">
-        <v>767</v>
+        <v>810</v>
       </c>
     </row>
     <row r="424" spans="8:9">
       <c r="H424" t="s">
-        <v>705</v>
+        <v>804</v>
       </c>
       <c r="I424" t="s">
-        <v>707</v>
+        <v>852</v>
       </c>
     </row>
     <row r="425" spans="8:9">
       <c r="H425" t="s">
-        <v>708</v>
+        <v>805</v>
       </c>
       <c r="I425" t="s">
-        <v>788</v>
+        <v>811</v>
       </c>
     </row>
     <row r="426" spans="8:9">
       <c r="H426" t="s">
-        <v>709</v>
+        <v>806</v>
       </c>
       <c r="I426" t="s">
-        <v>712</v>
+        <v>880</v>
       </c>
     </row>
     <row r="427" spans="8:9">
       <c r="H427" t="s">
-        <v>710</v>
+        <v>807</v>
       </c>
       <c r="I427" t="s">
-        <v>713</v>
+        <v>812</v>
       </c>
     </row>
     <row r="428" spans="8:9">
       <c r="H428" t="s">
-        <v>706</v>
+        <v>808</v>
       </c>
       <c r="I428" t="s">
-        <v>768</v>
+        <v>853</v>
       </c>
     </row>
     <row r="429" spans="8:9">
       <c r="H429" t="s">
-        <v>711</v>
+        <v>809</v>
       </c>
       <c r="I429" t="s">
-        <v>769</v>
+        <v>813</v>
       </c>
     </row>
     <row r="430" spans="8:9">
       <c r="H430" t="s">
-        <v>714</v>
+        <v>690</v>
       </c>
       <c r="I430" t="s">
-        <v>770</v>
+        <v>752</v>
       </c>
     </row>
     <row r="431" spans="8:9">
       <c r="H431" t="s">
-        <v>715</v>
+        <v>691</v>
       </c>
       <c r="I431" t="s">
-        <v>771</v>
+        <v>693</v>
       </c>
     </row>
     <row r="432" spans="8:9">
       <c r="H432" t="s">
-        <v>838</v>
+        <v>694</v>
       </c>
       <c r="I432" t="s">
-        <v>839</v>
+        <v>773</v>
       </c>
     </row>
     <row r="433" spans="8:9">
       <c r="H433" t="s">
-        <v>716</v>
+        <v>695</v>
       </c>
       <c r="I433" t="s">
-        <v>789</v>
+        <v>881</v>
       </c>
     </row>
     <row r="434" spans="8:9">
       <c r="H434" t="s">
-        <v>717</v>
+        <v>696</v>
       </c>
       <c r="I434" t="s">
-        <v>82</v>
+        <v>698</v>
       </c>
     </row>
     <row r="435" spans="8:9">
       <c r="H435" t="s">
-        <v>718</v>
+        <v>692</v>
       </c>
       <c r="I435" t="s">
-        <v>772</v>
+        <v>753</v>
       </c>
     </row>
     <row r="436" spans="8:9">
       <c r="H436" t="s">
-        <v>719</v>
+        <v>697</v>
       </c>
       <c r="I436" t="s">
-        <v>773</v>
+        <v>754</v>
       </c>
     </row>
     <row r="437" spans="8:9">
       <c r="H437" t="s">
-        <v>720</v>
+        <v>887</v>
       </c>
       <c r="I437" t="s">
-        <v>774</v>
+        <v>888</v>
       </c>
     </row>
     <row r="438" spans="8:9">
       <c r="H438" t="s">
-        <v>721</v>
+        <v>699</v>
       </c>
       <c r="I438" t="s">
-        <v>775</v>
+        <v>755</v>
+      </c>
+    </row>
+    <row r="439" spans="8:9">
+      <c r="H439" t="s">
+        <v>700</v>
+      </c>
+      <c r="I439" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="440" spans="8:9">
+      <c r="H440" t="s">
+        <v>821</v>
+      </c>
+      <c r="I440" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="441" spans="8:9">
+      <c r="H441" t="s">
+        <v>701</v>
+      </c>
+      <c r="I441" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="442" spans="8:9">
+      <c r="H442" t="s">
+        <v>702</v>
+      </c>
+      <c r="I442" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="443" spans="8:9">
+      <c r="H443" t="s">
+        <v>703</v>
+      </c>
+      <c r="I443" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="444" spans="8:9">
+      <c r="H444" t="s">
+        <v>704</v>
+      </c>
+      <c r="I444" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="445" spans="8:9">
+      <c r="H445" t="s">
+        <v>705</v>
+      </c>
+      <c r="I445" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="446" spans="8:9">
+      <c r="H446" t="s">
+        <v>706</v>
+      </c>
+      <c r="I446" t="s">
+        <v>760</v>
       </c>
     </row>
   </sheetData>

--- a/app/src/main/res/raw/dataoutadac.xlsx
+++ b/app/src/main/res/raw/dataoutadac.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Android\Steno\app\src\main\res\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D7F1115-FC50-4F8C-B051-B11B9B96B4C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE200BF2-7EC5-44FC-9D6B-B27363C7FCF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="893" uniqueCount="889">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="911">
   <si>
     <t>a1d1</t>
   </si>
@@ -2362,9 +2362,6 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>c31d</t>
-  </si>
-  <si>
     <t>c3d2</t>
   </si>
   <si>
@@ -2687,6 +2684,75 @@
   </si>
   <si>
     <t>đuê</t>
+  </si>
+  <si>
+    <t>c3d1</t>
+  </si>
+  <si>
+    <t>c3d8</t>
+  </si>
+  <si>
+    <t>gị</t>
+  </si>
+  <si>
+    <t>SFTc4e6</t>
+  </si>
+  <si>
+    <t>gĩ</t>
+  </si>
+  <si>
+    <t>SFTc4e5</t>
+  </si>
+  <si>
+    <t>gỉ</t>
+  </si>
+  <si>
+    <t>SFTc4e4</t>
+  </si>
+  <si>
+    <t>gì</t>
+  </si>
+  <si>
+    <t>SFTc4e3</t>
+  </si>
+  <si>
+    <t>gí</t>
+  </si>
+  <si>
+    <t>SFTc4e2</t>
+  </si>
+  <si>
+    <t>SFTc4e1</t>
+  </si>
+  <si>
+    <t>SFTc5e8</t>
+  </si>
+  <si>
+    <t>SFTc5e7</t>
+  </si>
+  <si>
+    <t>SFTc5d8</t>
+  </si>
+  <si>
+    <t>SFTc5d7</t>
+  </si>
+  <si>
+    <t>SFTc5d6</t>
+  </si>
+  <si>
+    <t>SFTc5d5</t>
+  </si>
+  <si>
+    <t>SFTc5d4</t>
+  </si>
+  <si>
+    <t>SFTc5d3</t>
+  </si>
+  <si>
+    <t>SFTc5d2</t>
+  </si>
+  <si>
+    <t>SFTc5d1</t>
   </si>
 </sst>
 </file>
@@ -3047,10 +3113,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="H1:N446"/>
+  <dimension ref="H1:N462"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A126" workbookViewId="0">
-      <selection activeCell="J139" sqref="J139"/>
+    <sheetView tabSelected="1" topLeftCell="A436" workbookViewId="0">
+      <selection activeCell="K448" sqref="K448"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3513,10 +3579,10 @@
     </row>
     <row r="58" spans="8:9">
       <c r="H58" t="s">
+        <v>849</v>
+      </c>
+      <c r="I58" t="s">
         <v>850</v>
-      </c>
-      <c r="I58" t="s">
-        <v>851</v>
       </c>
     </row>
     <row r="59" spans="8:9">
@@ -3620,7 +3686,7 @@
         <v>118</v>
       </c>
       <c r="I71" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="72" spans="8:9">
@@ -3721,10 +3787,10 @@
     </row>
     <row r="84" spans="8:13">
       <c r="H84" t="s">
+        <v>816</v>
+      </c>
+      <c r="I84" t="s">
         <v>817</v>
-      </c>
-      <c r="I84" t="s">
-        <v>818</v>
       </c>
     </row>
     <row r="85" spans="8:13">
@@ -3732,7 +3798,7 @@
         <v>146</v>
       </c>
       <c r="I85" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="86" spans="8:13">
@@ -3883,7 +3949,7 @@
         <v>178</v>
       </c>
       <c r="I103" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="M103" s="1"/>
     </row>
@@ -3964,7 +4030,7 @@
         <v>194</v>
       </c>
       <c r="I113" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="114" spans="8:9">
@@ -4028,7 +4094,7 @@
         <v>404</v>
       </c>
       <c r="I121" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="122" spans="8:9">
@@ -4124,7 +4190,7 @@
         <v>417</v>
       </c>
       <c r="I133" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="134" spans="8:9">
@@ -4153,10 +4219,10 @@
     </row>
     <row r="137" spans="8:9">
       <c r="H137" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="I137" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="138" spans="8:9">
@@ -4188,7 +4254,7 @@
         <v>551</v>
       </c>
       <c r="I141" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="142" spans="8:9">
@@ -4201,10 +4267,10 @@
     </row>
     <row r="143" spans="8:9">
       <c r="H143" t="s">
+        <v>846</v>
+      </c>
+      <c r="I143" t="s">
         <v>847</v>
-      </c>
-      <c r="I143" t="s">
-        <v>848</v>
       </c>
     </row>
     <row r="144" spans="8:9">
@@ -4228,7 +4294,7 @@
         <v>553</v>
       </c>
       <c r="I146" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="147" spans="8:9">
@@ -4324,7 +4390,7 @@
         <v>307</v>
       </c>
       <c r="I158" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="159" spans="8:9">
@@ -4484,7 +4550,7 @@
         <v>341</v>
       </c>
       <c r="I178" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="179" spans="8:9">
@@ -4548,7 +4614,7 @@
         <v>355</v>
       </c>
       <c r="I186" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="187" spans="8:9">
@@ -4612,7 +4678,7 @@
         <v>368</v>
       </c>
       <c r="I194" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="195" spans="8:9">
@@ -4676,7 +4742,7 @@
         <v>381</v>
       </c>
       <c r="I202" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="203" spans="8:9">
@@ -5225,10 +5291,10 @@
     </row>
     <row r="271" spans="8:9">
       <c r="H271" t="s">
+        <v>832</v>
+      </c>
+      <c r="I271" t="s">
         <v>833</v>
-      </c>
-      <c r="I271" t="s">
-        <v>834</v>
       </c>
     </row>
     <row r="272" spans="8:9">
@@ -5244,7 +5310,7 @@
         <v>441</v>
       </c>
       <c r="I273" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="274" spans="8:9">
@@ -5313,10 +5379,10 @@
     </row>
     <row r="282" spans="8:9">
       <c r="H282" t="s">
+        <v>830</v>
+      </c>
+      <c r="I282" t="s">
         <v>831</v>
-      </c>
-      <c r="I282" t="s">
-        <v>832</v>
       </c>
     </row>
     <row r="283" spans="8:9">
@@ -5329,10 +5395,10 @@
     </row>
     <row r="284" spans="8:9">
       <c r="H284" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="I284" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="285" spans="8:9">
@@ -5361,10 +5427,10 @@
     </row>
     <row r="288" spans="8:9">
       <c r="H288" t="s">
+        <v>818</v>
+      </c>
+      <c r="I288" t="s">
         <v>819</v>
-      </c>
-      <c r="I288" t="s">
-        <v>820</v>
       </c>
     </row>
     <row r="289" spans="8:9">
@@ -5380,7 +5446,7 @@
         <v>461</v>
       </c>
       <c r="I290" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="291" spans="8:9">
@@ -5409,18 +5475,18 @@
     </row>
     <row r="294" spans="8:9">
       <c r="H294" t="s">
+        <v>834</v>
+      </c>
+      <c r="I294" t="s">
         <v>835</v>
-      </c>
-      <c r="I294" t="s">
-        <v>836</v>
       </c>
     </row>
     <row r="295" spans="8:9">
       <c r="H295" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="I295" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="296" spans="8:9">
@@ -5444,7 +5510,7 @@
         <v>575</v>
       </c>
       <c r="I298" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="299" spans="8:9">
@@ -5468,7 +5534,7 @@
         <v>473</v>
       </c>
       <c r="I301" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="302" spans="8:9">
@@ -5492,7 +5558,7 @@
         <v>577</v>
       </c>
       <c r="I304" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="305" spans="8:14">
@@ -5556,7 +5622,7 @@
         <v>586</v>
       </c>
       <c r="I312" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="313" spans="8:14">
@@ -5588,26 +5654,26 @@
     </row>
     <row r="316" spans="8:14">
       <c r="H316" t="s">
+        <v>838</v>
+      </c>
+      <c r="I316" t="s">
         <v>839</v>
-      </c>
-      <c r="I316" t="s">
-        <v>840</v>
       </c>
     </row>
     <row r="317" spans="8:14">
       <c r="H317" t="s">
+        <v>840</v>
+      </c>
+      <c r="I317" t="s">
         <v>841</v>
-      </c>
-      <c r="I317" t="s">
-        <v>842</v>
       </c>
     </row>
     <row r="318" spans="8:14">
       <c r="H318" t="s">
+        <v>842</v>
+      </c>
+      <c r="I318" t="s">
         <v>843</v>
-      </c>
-      <c r="I318" t="s">
-        <v>844</v>
       </c>
     </row>
     <row r="319" spans="8:14">
@@ -5620,58 +5686,58 @@
     </row>
     <row r="320" spans="8:14">
       <c r="H320" t="s">
-        <v>780</v>
+        <v>888</v>
       </c>
       <c r="I320" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="321" spans="8:9">
       <c r="H321" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="I321" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="322" spans="8:9">
       <c r="H322" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="I322" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="323" spans="8:9">
       <c r="H323" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="I323" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="324" spans="8:9">
       <c r="H324" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="I324" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="325" spans="8:9">
       <c r="H325" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="I325" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="326" spans="8:9">
       <c r="H326" t="s">
-        <v>785</v>
+        <v>889</v>
       </c>
       <c r="I326" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="327" spans="8:9">
@@ -6020,26 +6086,26 @@
     </row>
     <row r="370" spans="8:9">
       <c r="H370" t="s">
+        <v>857</v>
+      </c>
+      <c r="I370" t="s">
         <v>858</v>
-      </c>
-      <c r="I370" t="s">
-        <v>859</v>
       </c>
     </row>
     <row r="371" spans="8:9">
       <c r="H371" t="s">
+        <v>859</v>
+      </c>
+      <c r="I371" t="s">
         <v>860</v>
-      </c>
-      <c r="I371" t="s">
-        <v>861</v>
       </c>
     </row>
     <row r="372" spans="8:9">
       <c r="H372" t="s">
+        <v>881</v>
+      </c>
+      <c r="I372" t="s">
         <v>882</v>
-      </c>
-      <c r="I372" t="s">
-        <v>883</v>
       </c>
     </row>
     <row r="373" spans="8:9">
@@ -6052,66 +6118,66 @@
     </row>
     <row r="374" spans="8:9">
       <c r="H374" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="I374" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="375" spans="8:9">
       <c r="H375" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="I375" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="376" spans="8:9">
       <c r="H376" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="I376" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="377" spans="8:9">
       <c r="H377" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="I377" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="378" spans="8:9">
       <c r="H378" t="s">
+        <v>862</v>
+      </c>
+      <c r="I378" t="s">
         <v>863</v>
-      </c>
-      <c r="I378" t="s">
-        <v>864</v>
       </c>
     </row>
     <row r="379" spans="8:9">
       <c r="H379" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="I379" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="380" spans="8:9">
       <c r="H380" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="I380" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="381" spans="8:9">
       <c r="H381" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="I381" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="382" spans="8:9">
@@ -6132,18 +6198,18 @@
     </row>
     <row r="384" spans="8:9">
       <c r="H384" t="s">
+        <v>824</v>
+      </c>
+      <c r="I384" t="s">
         <v>825</v>
-      </c>
-      <c r="I384" t="s">
-        <v>826</v>
       </c>
     </row>
     <row r="385" spans="8:9">
       <c r="H385" t="s">
+        <v>826</v>
+      </c>
+      <c r="I385" t="s">
         <v>827</v>
-      </c>
-      <c r="I385" t="s">
-        <v>828</v>
       </c>
     </row>
     <row r="386" spans="8:9">
@@ -6207,7 +6273,7 @@
         <v>650</v>
       </c>
       <c r="I393" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="394" spans="8:9">
@@ -6380,18 +6446,18 @@
     </row>
     <row r="415" spans="8:9">
       <c r="H415" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="I415" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="416" spans="8:9">
       <c r="H416" t="s">
+        <v>822</v>
+      </c>
+      <c r="I416" t="s">
         <v>823</v>
-      </c>
-      <c r="I416" t="s">
-        <v>824</v>
       </c>
     </row>
     <row r="417" spans="8:9">
@@ -6420,10 +6486,10 @@
     </row>
     <row r="420" spans="8:9">
       <c r="H420" t="s">
+        <v>883</v>
+      </c>
+      <c r="I420" t="s">
         <v>884</v>
-      </c>
-      <c r="I420" t="s">
-        <v>885</v>
       </c>
     </row>
     <row r="421" spans="8:9">
@@ -6444,58 +6510,58 @@
     </row>
     <row r="423" spans="8:9">
       <c r="H423" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="I423" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="424" spans="8:9">
       <c r="H424" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="I424" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="425" spans="8:9">
       <c r="H425" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="I425" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="426" spans="8:9">
       <c r="H426" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="I426" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="427" spans="8:9">
       <c r="H427" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="I427" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="428" spans="8:9">
       <c r="H428" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="I428" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="429" spans="8:9">
       <c r="H429" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="I429" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="430" spans="8:9">
@@ -6527,7 +6593,7 @@
         <v>695</v>
       </c>
       <c r="I433" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="434" spans="8:9">
@@ -6556,10 +6622,10 @@
     </row>
     <row r="437" spans="8:9">
       <c r="H437" t="s">
+        <v>886</v>
+      </c>
+      <c r="I437" t="s">
         <v>887</v>
-      </c>
-      <c r="I437" t="s">
-        <v>888</v>
       </c>
     </row>
     <row r="438" spans="8:9">
@@ -6580,10 +6646,10 @@
     </row>
     <row r="440" spans="8:9">
       <c r="H440" t="s">
+        <v>820</v>
+      </c>
+      <c r="I440" t="s">
         <v>821</v>
-      </c>
-      <c r="I440" t="s">
-        <v>822</v>
       </c>
     </row>
     <row r="441" spans="8:9">
@@ -6632,6 +6698,134 @@
       </c>
       <c r="I446" t="s">
         <v>760</v>
+      </c>
+    </row>
+    <row r="447" spans="8:9">
+      <c r="H447" t="s">
+        <v>910</v>
+      </c>
+      <c r="I447">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="448" spans="8:9">
+      <c r="H448" t="s">
+        <v>909</v>
+      </c>
+      <c r="I448">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="449" spans="8:9">
+      <c r="H449" t="s">
+        <v>908</v>
+      </c>
+      <c r="I449">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="450" spans="8:9">
+      <c r="H450" t="s">
+        <v>907</v>
+      </c>
+      <c r="I450">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="451" spans="8:9">
+      <c r="H451" t="s">
+        <v>906</v>
+      </c>
+      <c r="I451">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="452" spans="8:9">
+      <c r="H452" t="s">
+        <v>905</v>
+      </c>
+      <c r="I452">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="453" spans="8:9">
+      <c r="H453" t="s">
+        <v>904</v>
+      </c>
+      <c r="I453">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="454" spans="8:9">
+      <c r="H454" t="s">
+        <v>903</v>
+      </c>
+      <c r="I454">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="455" spans="8:9">
+      <c r="H455" t="s">
+        <v>902</v>
+      </c>
+      <c r="I455">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="456" spans="8:9">
+      <c r="H456" t="s">
+        <v>901</v>
+      </c>
+      <c r="I456">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="457" spans="8:9">
+      <c r="H457" t="s">
+        <v>900</v>
+      </c>
+      <c r="I457" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="458" spans="8:9">
+      <c r="H458" t="s">
+        <v>899</v>
+      </c>
+      <c r="I458" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="459" spans="8:9">
+      <c r="H459" t="s">
+        <v>897</v>
+      </c>
+      <c r="I459" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="460" spans="8:9">
+      <c r="H460" t="s">
+        <v>895</v>
+      </c>
+      <c r="I460" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="461" spans="8:9">
+      <c r="H461" t="s">
+        <v>893</v>
+      </c>
+      <c r="I461" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="462" spans="8:9">
+      <c r="H462" t="s">
+        <v>891</v>
+      </c>
+      <c r="I462" t="s">
+        <v>890</v>
       </c>
     </row>
   </sheetData>

--- a/app/src/main/res/raw/dataoutadac.xlsx
+++ b/app/src/main/res/raw/dataoutadac.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Android\Steno\app\src\main\res\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE200BF2-7EC5-44FC-9D6B-B27363C7FCF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8227C180-18A8-474B-B9F5-2438BE667901}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="911">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="912">
   <si>
     <t>a1d1</t>
   </si>
@@ -2690,6 +2690,9 @@
   </si>
   <si>
     <t>c3d8</t>
+  </si>
+  <si>
+    <t>troa</t>
   </si>
   <si>
     <t>gị</t>
@@ -3115,8 +3118,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="H1:N462"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A436" workbookViewId="0">
-      <selection activeCell="K448" sqref="K448"/>
+    <sheetView tabSelected="1" topLeftCell="A440" workbookViewId="0">
+      <selection activeCell="K450" sqref="K450"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3913,7 +3916,7 @@
         <v>170</v>
       </c>
       <c r="I99" t="s">
-        <v>459</v>
+        <v>890</v>
       </c>
       <c r="M99" s="1"/>
     </row>
@@ -6702,7 +6705,7 @@
     </row>
     <row r="447" spans="8:9">
       <c r="H447" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="I447">
         <v>8</v>
@@ -6710,7 +6713,7 @@
     </row>
     <row r="448" spans="8:9">
       <c r="H448" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="I448">
         <v>9</v>
@@ -6718,7 +6721,7 @@
     </row>
     <row r="449" spans="8:9">
       <c r="H449" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="I449">
         <v>2</v>
@@ -6726,7 +6729,7 @@
     </row>
     <row r="450" spans="8:9">
       <c r="H450" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="I450">
         <v>3</v>
@@ -6734,7 +6737,7 @@
     </row>
     <row r="451" spans="8:9">
       <c r="H451" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="I451">
         <v>4</v>
@@ -6742,7 +6745,7 @@
     </row>
     <row r="452" spans="8:9">
       <c r="H452" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="I452">
         <v>5</v>
@@ -6750,7 +6753,7 @@
     </row>
     <row r="453" spans="8:9">
       <c r="H453" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="I453">
         <v>6</v>
@@ -6758,7 +6761,7 @@
     </row>
     <row r="454" spans="8:9">
       <c r="H454" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="I454">
         <v>7</v>
@@ -6766,7 +6769,7 @@
     </row>
     <row r="455" spans="8:9">
       <c r="H455" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="I455">
         <v>1</v>
@@ -6774,7 +6777,7 @@
     </row>
     <row r="456" spans="8:9">
       <c r="H456" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="I456">
         <v>0</v>
@@ -6782,7 +6785,7 @@
     </row>
     <row r="457" spans="8:9">
       <c r="H457" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="I457" t="s">
         <v>856</v>
@@ -6790,42 +6793,42 @@
     </row>
     <row r="458" spans="8:9">
       <c r="H458" t="s">
+        <v>900</v>
+      </c>
+      <c r="I458" t="s">
         <v>899</v>
-      </c>
-      <c r="I458" t="s">
-        <v>898</v>
       </c>
     </row>
     <row r="459" spans="8:9">
       <c r="H459" t="s">
+        <v>898</v>
+      </c>
+      <c r="I459" t="s">
         <v>897</v>
-      </c>
-      <c r="I459" t="s">
-        <v>896</v>
       </c>
     </row>
     <row r="460" spans="8:9">
       <c r="H460" t="s">
+        <v>896</v>
+      </c>
+      <c r="I460" t="s">
         <v>895</v>
-      </c>
-      <c r="I460" t="s">
-        <v>894</v>
       </c>
     </row>
     <row r="461" spans="8:9">
       <c r="H461" t="s">
+        <v>894</v>
+      </c>
+      <c r="I461" t="s">
         <v>893</v>
-      </c>
-      <c r="I461" t="s">
-        <v>892</v>
       </c>
     </row>
     <row r="462" spans="8:9">
       <c r="H462" t="s">
+        <v>892</v>
+      </c>
+      <c r="I462" t="s">
         <v>891</v>
-      </c>
-      <c r="I462" t="s">
-        <v>890</v>
       </c>
     </row>
   </sheetData>
